--- a/版本计划表.xlsx
+++ b/版本计划表.xlsx
@@ -15,7 +15,7 @@
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'开发版本详细计划 '!$C$3:$AD$30</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
 </workbook>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
   <si>
     <t>《暴走萌宠》研发进度规划及版本计划</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -400,14 +400,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>解析用的课程页面相关model编写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析用的乐器页面相关model编写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -420,19 +412,75 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>解析用订单详情model编写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>依照服务器接口实现订单相关内容显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第三方录制集成，实现录制视频功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【服务器】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1测</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录API制作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈鹏飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册API制作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄志伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程展示API制作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐器讯息API制作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉建议API制作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们API、帮助中心API制作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>依照服务器接口实现课程详情页面数据显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>依照服务器接口实现乐器详情页面数据显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡爽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>依照服务器接口实现系统消息数据显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>依照服务器接口实现轮播图数据显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张俊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,12 +596,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -955,7 +997,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,54 +1075,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="11" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,7 +1120,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1151,6 +1180,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,6 +1228,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,53 +1243,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1561,14 +1590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:EZ34"/>
+  <dimension ref="A1:EZ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="BY4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="BW4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CB10" sqref="CB10"/>
+      <selection pane="bottomRight" activeCell="CN24" sqref="CN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1612,39 +1640,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:156" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="78" t="s">
         <v>1</v>
       </c>
       <c r="AF1" s="74"/>
@@ -1716,70 +1744,70 @@
       <c r="CP1" s="74"/>
       <c r="CQ1" s="74"/>
       <c r="CR1" s="74"/>
-      <c r="CS1" s="67" t="s">
+      <c r="CS1" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="CT1" s="68"/>
-      <c r="CU1" s="68"/>
-      <c r="CV1" s="68"/>
-      <c r="CW1" s="68"/>
-      <c r="CX1" s="68"/>
-      <c r="CY1" s="68"/>
-      <c r="CZ1" s="68"/>
-      <c r="DA1" s="68"/>
-      <c r="DB1" s="68"/>
-      <c r="DC1" s="68"/>
-      <c r="DD1" s="68"/>
-      <c r="DE1" s="68"/>
-      <c r="DF1" s="68"/>
-      <c r="DG1" s="68"/>
-      <c r="DH1" s="68"/>
-      <c r="DI1" s="68"/>
-      <c r="DJ1" s="68"/>
-      <c r="DK1" s="68"/>
-      <c r="DL1" s="68"/>
-      <c r="DM1" s="68"/>
-      <c r="DN1" s="68"/>
-      <c r="DO1" s="68"/>
-      <c r="DP1" s="68"/>
-      <c r="DQ1" s="68"/>
-      <c r="DR1" s="68"/>
-      <c r="DS1" s="68"/>
-      <c r="DT1" s="68"/>
-      <c r="DU1" s="68"/>
-      <c r="DV1" s="69"/>
-      <c r="DW1" s="67" t="s">
+      <c r="CT1" s="76"/>
+      <c r="CU1" s="76"/>
+      <c r="CV1" s="76"/>
+      <c r="CW1" s="76"/>
+      <c r="CX1" s="76"/>
+      <c r="CY1" s="76"/>
+      <c r="CZ1" s="76"/>
+      <c r="DA1" s="76"/>
+      <c r="DB1" s="76"/>
+      <c r="DC1" s="76"/>
+      <c r="DD1" s="76"/>
+      <c r="DE1" s="76"/>
+      <c r="DF1" s="76"/>
+      <c r="DG1" s="76"/>
+      <c r="DH1" s="76"/>
+      <c r="DI1" s="76"/>
+      <c r="DJ1" s="76"/>
+      <c r="DK1" s="76"/>
+      <c r="DL1" s="76"/>
+      <c r="DM1" s="76"/>
+      <c r="DN1" s="76"/>
+      <c r="DO1" s="76"/>
+      <c r="DP1" s="76"/>
+      <c r="DQ1" s="76"/>
+      <c r="DR1" s="76"/>
+      <c r="DS1" s="76"/>
+      <c r="DT1" s="76"/>
+      <c r="DU1" s="76"/>
+      <c r="DV1" s="77"/>
+      <c r="DW1" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="DX1" s="68"/>
-      <c r="DY1" s="68"/>
-      <c r="DZ1" s="68"/>
-      <c r="EA1" s="68"/>
-      <c r="EB1" s="68"/>
-      <c r="EC1" s="68"/>
-      <c r="ED1" s="68"/>
-      <c r="EE1" s="68"/>
-      <c r="EF1" s="68"/>
-      <c r="EG1" s="68"/>
-      <c r="EH1" s="68"/>
-      <c r="EI1" s="68"/>
-      <c r="EJ1" s="68"/>
-      <c r="EK1" s="68"/>
-      <c r="EL1" s="68"/>
-      <c r="EM1" s="68"/>
-      <c r="EN1" s="68"/>
-      <c r="EO1" s="68"/>
-      <c r="EP1" s="68"/>
-      <c r="EQ1" s="68"/>
-      <c r="ER1" s="68"/>
-      <c r="ES1" s="68"/>
-      <c r="ET1" s="68"/>
-      <c r="EU1" s="68"/>
-      <c r="EV1" s="68"/>
-      <c r="EW1" s="68"/>
-      <c r="EX1" s="68"/>
-      <c r="EY1" s="68"/>
-      <c r="EZ1" s="69"/>
+      <c r="DX1" s="76"/>
+      <c r="DY1" s="76"/>
+      <c r="DZ1" s="76"/>
+      <c r="EA1" s="76"/>
+      <c r="EB1" s="76"/>
+      <c r="EC1" s="76"/>
+      <c r="ED1" s="76"/>
+      <c r="EE1" s="76"/>
+      <c r="EF1" s="76"/>
+      <c r="EG1" s="76"/>
+      <c r="EH1" s="76"/>
+      <c r="EI1" s="76"/>
+      <c r="EJ1" s="76"/>
+      <c r="EK1" s="76"/>
+      <c r="EL1" s="76"/>
+      <c r="EM1" s="76"/>
+      <c r="EN1" s="76"/>
+      <c r="EO1" s="76"/>
+      <c r="EP1" s="76"/>
+      <c r="EQ1" s="76"/>
+      <c r="ER1" s="76"/>
+      <c r="ES1" s="76"/>
+      <c r="ET1" s="76"/>
+      <c r="EU1" s="76"/>
+      <c r="EV1" s="76"/>
+      <c r="EW1" s="76"/>
+      <c r="EX1" s="76"/>
+      <c r="EY1" s="76"/>
+      <c r="EZ1" s="77"/>
     </row>
     <row r="2" spans="1:156" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -1824,7 +1852,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="73" t="s">
+      <c r="AE2" s="78" t="s">
         <v>8</v>
       </c>
       <c r="AF2" s="74"/>
@@ -1860,15 +1888,15 @@
       <c r="BD2" s="74"/>
       <c r="BE2" s="74"/>
       <c r="BF2" s="74"/>
-      <c r="BG2" s="76" t="s">
+      <c r="BG2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="77"/>
-      <c r="BK2" s="77"/>
-      <c r="BL2" s="77"/>
-      <c r="BM2" s="78"/>
+      <c r="BH2" s="63"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="79"/>
       <c r="BN2" s="74"/>
       <c r="BO2" s="74"/>
       <c r="BP2" s="74" t="s">
@@ -1935,15 +1963,15 @@
       <c r="DK2" s="74"/>
       <c r="DL2" s="74"/>
       <c r="DM2" s="74"/>
-      <c r="DN2" s="76" t="s">
+      <c r="DN2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="DO2" s="77"/>
-      <c r="DP2" s="77"/>
-      <c r="DQ2" s="77"/>
-      <c r="DR2" s="77"/>
-      <c r="DS2" s="77"/>
-      <c r="DT2" s="77"/>
+      <c r="DO2" s="63"/>
+      <c r="DP2" s="63"/>
+      <c r="DQ2" s="63"/>
+      <c r="DR2" s="63"/>
+      <c r="DS2" s="63"/>
+      <c r="DT2" s="63"/>
       <c r="DU2" s="14"/>
       <c r="DV2" s="15"/>
       <c r="DW2" s="74" t="s">
@@ -1973,61 +2001,61 @@
       <c r="EO2" s="74"/>
       <c r="EP2" s="74"/>
       <c r="EQ2" s="74"/>
-      <c r="ER2" s="76" t="s">
+      <c r="ER2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="ES2" s="77"/>
-      <c r="ET2" s="77"/>
-      <c r="EU2" s="77"/>
-      <c r="EV2" s="77"/>
-      <c r="EW2" s="77"/>
-      <c r="EX2" s="77"/>
+      <c r="ES2" s="63"/>
+      <c r="ET2" s="63"/>
+      <c r="EU2" s="63"/>
+      <c r="EV2" s="63"/>
+      <c r="EW2" s="63"/>
+      <c r="EX2" s="63"/>
       <c r="EY2" s="14"/>
       <c r="EZ2" s="15"/>
     </row>
     <row r="3" spans="1:156" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="81" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="84" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="87" t="s">
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="88"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="73"/>
       <c r="AE3" s="17">
         <v>15</v>
       </c>
@@ -2408,48 +2436,48 @@
       </c>
     </row>
     <row r="4" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="58" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="26">
         <v>1</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="58">
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="53">
         <v>1</v>
       </c>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="64" t="s">
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="66"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="61"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22"/>
       <c r="AG4" s="6"/>
@@ -2499,8 +2527,8 @@
       <c r="BY4" s="22"/>
       <c r="BZ4" s="22"/>
       <c r="CA4" s="22"/>
-      <c r="CB4" s="49"/>
-      <c r="CC4" s="27"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="6"/>
       <c r="CD4" s="24"/>
       <c r="CE4" s="22"/>
       <c r="CF4" s="22"/>
@@ -2577,49 +2605,49 @@
       <c r="EY4" s="21"/>
       <c r="EZ4" s="21"/>
     </row>
-    <row r="5" spans="1:156" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
+    <row r="5" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="83"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="58" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="26">
         <v>1</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="58">
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="53">
         <v>1</v>
       </c>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="64" t="s">
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="66"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="61"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22"/>
       <c r="AG5" s="22"/>
@@ -2668,9 +2696,9 @@
       <c r="BX5" s="22"/>
       <c r="BY5" s="22"/>
       <c r="BZ5" s="22"/>
-      <c r="CA5" s="49"/>
-      <c r="CB5" s="56"/>
-      <c r="CC5" s="50"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="6"/>
       <c r="CD5" s="24"/>
       <c r="CE5" s="22"/>
       <c r="CF5" s="22"/>
@@ -2747,49 +2775,49 @@
       <c r="EY5" s="21"/>
       <c r="EZ5" s="21"/>
     </row>
-    <row r="6" spans="1:156" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75"/>
+    <row r="6" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="83"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="58" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="26">
         <v>1</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="58">
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="53">
         <v>2</v>
       </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="64" t="s">
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="66"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22"/>
       <c r="AG6" s="22"/>
@@ -2838,7 +2866,7 @@
       <c r="BX6" s="22"/>
       <c r="BY6" s="22"/>
       <c r="BZ6" s="5"/>
-      <c r="CA6" s="13"/>
+      <c r="CA6" s="6"/>
       <c r="CB6" s="22"/>
       <c r="CC6" s="23"/>
       <c r="CD6" s="24"/>
@@ -2917,49 +2945,49 @@
       <c r="EY6" s="21"/>
       <c r="EZ6" s="21"/>
     </row>
-    <row r="7" spans="1:156" s="25" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
+    <row r="7" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="83"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="26">
         <v>1</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="58">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="53">
         <v>3</v>
       </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="64" t="s">
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="66"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
       <c r="AG7" s="22"/>
@@ -3007,9 +3035,9 @@
       <c r="BW7" s="24"/>
       <c r="BX7" s="22"/>
       <c r="BY7" s="22"/>
-      <c r="BZ7" s="34"/>
-      <c r="CA7" s="33"/>
-      <c r="CB7" s="35"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="30"/>
+      <c r="CB7" s="6"/>
       <c r="CC7" s="23"/>
       <c r="CD7" s="24"/>
       <c r="CE7" s="22"/>
@@ -3087,49 +3115,49 @@
       <c r="EY7" s="21"/>
       <c r="EZ7" s="21"/>
     </row>
-    <row r="8" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75"/>
+    <row r="8" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="83"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="58" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="26">
         <v>1</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="58">
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="53">
         <v>1</v>
       </c>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="64" t="s">
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="66"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
       <c r="BN8" s="22"/>
       <c r="BO8" s="24"/>
       <c r="BP8" s="23"/>
@@ -3142,9 +3170,9 @@
       <c r="BW8" s="24"/>
       <c r="BX8" s="22"/>
       <c r="BY8" s="22"/>
-      <c r="BZ8" s="36"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="37"/>
+      <c r="BZ8" s="33"/>
+      <c r="CA8" s="34"/>
+      <c r="CB8" s="6"/>
       <c r="CC8" s="23"/>
       <c r="CD8" s="24"/>
       <c r="CE8" s="22"/>
@@ -3222,49 +3250,49 @@
       <c r="EY8" s="21"/>
       <c r="EZ8" s="21"/>
     </row>
-    <row r="9" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75"/>
+    <row r="9" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="83"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="58" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="26">
         <v>1</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="58">
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="53">
         <v>1</v>
       </c>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="64" t="s">
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="66"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
       <c r="BN9" s="22"/>
       <c r="BO9" s="24"/>
       <c r="BP9" s="23"/>
@@ -3278,9 +3306,9 @@
       <c r="BX9" s="22"/>
       <c r="BY9" s="22"/>
       <c r="BZ9" s="22"/>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="46"/>
-      <c r="CC9" s="47"/>
+      <c r="CA9" s="41"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="42"/>
       <c r="CD9" s="24"/>
       <c r="CE9" s="22"/>
       <c r="CF9" s="22"/>
@@ -3358,48 +3386,48 @@
       <c r="EZ9" s="21"/>
     </row>
     <row r="10" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="75"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="58" t="s">
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="26">
         <v>1</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="58">
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="53">
         <v>2</v>
       </c>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="64" t="s">
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="66"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="61"/>
       <c r="BN10" s="22"/>
       <c r="BO10" s="24"/>
       <c r="BP10" s="23"/>
@@ -3415,9 +3443,9 @@
       <c r="BZ10" s="22"/>
       <c r="CA10" s="22"/>
       <c r="CB10" s="22"/>
-      <c r="CC10" s="49"/>
-      <c r="CD10" s="56"/>
-      <c r="CE10" s="50"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="51"/>
+      <c r="CE10" s="45"/>
       <c r="CF10" s="22"/>
       <c r="CG10" s="22"/>
       <c r="CH10" s="22"/>
@@ -3493,48 +3521,48 @@
       <c r="EZ10" s="21"/>
     </row>
     <row r="11" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="75"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="58" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="26">
         <v>2</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="58">
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="53">
         <v>1</v>
       </c>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="64" t="s">
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="66"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
       <c r="BN11" s="22"/>
       <c r="BO11" s="24"/>
       <c r="BP11" s="23"/>
@@ -3549,10 +3577,10 @@
       <c r="BY11" s="22"/>
       <c r="BZ11" s="22"/>
       <c r="CA11" s="22"/>
-      <c r="CC11" s="56"/>
+      <c r="CC11" s="51"/>
       <c r="CD11" s="24"/>
-      <c r="CE11" s="49"/>
-      <c r="CF11" s="27"/>
+      <c r="CE11" s="44"/>
+      <c r="CF11" s="6"/>
       <c r="CG11" s="22"/>
       <c r="CH11" s="22"/>
       <c r="CI11" s="22"/>
@@ -3626,49 +3654,49 @@
       <c r="EY11" s="21"/>
       <c r="EZ11" s="21"/>
     </row>
-    <row r="12" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75"/>
+    <row r="12" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="83"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="58" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="58">
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="53">
         <v>1</v>
       </c>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="64" t="s">
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="66"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
       <c r="BN12" s="22"/>
       <c r="BO12" s="24"/>
       <c r="BP12" s="23"/>
@@ -3682,7 +3710,7 @@
       <c r="BX12" s="22"/>
       <c r="BY12" s="22"/>
       <c r="BZ12" s="5"/>
-      <c r="CA12" s="27"/>
+      <c r="CA12" s="6"/>
       <c r="CB12" s="22"/>
       <c r="CC12" s="23"/>
       <c r="CD12" s="24"/>
@@ -3762,48 +3790,48 @@
       <c r="EZ12" s="21"/>
     </row>
     <row r="13" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="75"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="58" t="s">
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="26">
         <v>1</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="58">
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="53">
         <v>1</v>
       </c>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="64" t="s">
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="66"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
       <c r="BN13" s="22"/>
       <c r="BO13" s="24"/>
       <c r="BP13" s="23"/>
@@ -3824,7 +3852,7 @@
       <c r="CE13" s="22"/>
       <c r="CF13" s="5"/>
       <c r="CG13" s="22"/>
-      <c r="CH13" s="27"/>
+      <c r="CH13" s="6"/>
       <c r="CI13" s="22"/>
       <c r="CJ13" s="23"/>
       <c r="CK13" s="24"/>
@@ -3896,49 +3924,49 @@
       <c r="EY13" s="21"/>
       <c r="EZ13" s="21"/>
     </row>
-    <row r="14" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="75"/>
+    <row r="14" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="83"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="58" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="26">
         <v>2</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="58">
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="53">
         <v>2</v>
       </c>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="64" t="s">
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="66"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
       <c r="BN14" s="22"/>
       <c r="BO14" s="24"/>
       <c r="BP14" s="23"/>
@@ -3954,9 +3982,9 @@
       <c r="BZ14" s="22"/>
       <c r="CA14" s="22"/>
       <c r="CB14" s="22"/>
-      <c r="CC14" s="49"/>
-      <c r="CD14" s="56"/>
-      <c r="CE14" s="50"/>
+      <c r="CC14" s="44"/>
+      <c r="CD14" s="6"/>
+      <c r="CE14" s="45"/>
       <c r="CF14" s="22"/>
       <c r="CG14" s="22"/>
       <c r="CH14" s="22"/>
@@ -4031,49 +4059,49 @@
       <c r="EY14" s="21"/>
       <c r="EZ14" s="21"/>
     </row>
-    <row r="15" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="75"/>
+    <row r="15" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="83"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="58" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="26">
         <v>2</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="58">
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="53">
         <v>2</v>
       </c>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="64" t="s">
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="66"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="61"/>
       <c r="BN15" s="22"/>
       <c r="BO15" s="24"/>
       <c r="BP15" s="23"/>
@@ -4087,10 +4115,10 @@
       <c r="BX15" s="22"/>
       <c r="BY15" s="22"/>
       <c r="BZ15" s="22"/>
-      <c r="CB15" s="39"/>
-      <c r="CC15" s="55"/>
-      <c r="CD15" s="55"/>
-      <c r="CE15" s="42"/>
+      <c r="CB15" s="35"/>
+      <c r="CC15" s="50"/>
+      <c r="CD15" s="6"/>
+      <c r="CE15" s="38"/>
       <c r="CG15" s="22"/>
       <c r="CH15" s="22"/>
       <c r="CI15" s="22"/>
@@ -4164,49 +4192,49 @@
       <c r="EY15" s="21"/>
       <c r="EZ15" s="21"/>
     </row>
-    <row r="16" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="75"/>
+    <row r="16" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="83"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="58" t="s">
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="26">
         <v>2</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="58">
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="53">
         <v>2</v>
       </c>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="64" t="s">
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="66"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="61"/>
       <c r="BN16" s="22"/>
       <c r="BO16" s="24"/>
       <c r="BP16" s="23"/>
@@ -4222,10 +4250,10 @@
       <c r="BZ16" s="22"/>
       <c r="CA16" s="22"/>
       <c r="CB16" s="22"/>
-      <c r="CC16" s="55"/>
-      <c r="CD16" s="49"/>
-      <c r="CE16" s="56"/>
-      <c r="CF16" s="50"/>
+      <c r="CC16" s="50"/>
+      <c r="CD16" s="44"/>
+      <c r="CE16" s="51"/>
+      <c r="CF16" s="45"/>
       <c r="CG16" s="22"/>
       <c r="CH16" s="22"/>
       <c r="CI16" s="22"/>
@@ -4299,49 +4327,49 @@
       <c r="EY16" s="21"/>
       <c r="EZ16" s="21"/>
     </row>
-    <row r="17" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="75"/>
+    <row r="17" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="83"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="58" t="s">
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="26">
         <v>2</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="58">
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="53">
         <v>3</v>
       </c>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="64" t="s">
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="66"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="61"/>
       <c r="BN17" s="22"/>
       <c r="BO17" s="24"/>
       <c r="BP17" s="23"/>
@@ -4357,7 +4385,7 @@
       <c r="BZ17" s="22"/>
       <c r="CA17" s="5"/>
       <c r="CB17" s="22"/>
-      <c r="CC17" s="13"/>
+      <c r="CC17" s="6"/>
       <c r="CD17" s="24"/>
       <c r="CE17" s="22"/>
       <c r="CF17" s="22"/>
@@ -4434,49 +4462,49 @@
       <c r="EY17" s="21"/>
       <c r="EZ17" s="21"/>
     </row>
-    <row r="18" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="75"/>
+    <row r="18" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="83"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="58" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="26">
         <v>2</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="58">
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="53">
         <v>2</v>
       </c>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="64" t="s">
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="66"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="61"/>
       <c r="BN18" s="22"/>
       <c r="BO18" s="24"/>
       <c r="BP18" s="23"/>
@@ -4490,9 +4518,9 @@
       <c r="BX18" s="22"/>
       <c r="BY18" s="22"/>
       <c r="BZ18" s="22"/>
-      <c r="CB18" s="31"/>
-      <c r="CC18" s="55"/>
-      <c r="CD18" s="32"/>
+      <c r="CB18" s="29"/>
+      <c r="CC18" s="50"/>
+      <c r="CD18" s="6"/>
       <c r="CF18" s="22"/>
       <c r="CG18" s="22"/>
       <c r="CH18" s="22"/>
@@ -4567,49 +4595,49 @@
       <c r="EY18" s="21"/>
       <c r="EZ18" s="21"/>
     </row>
-    <row r="19" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75"/>
+    <row r="19" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="83"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="58" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="26">
         <v>2</v>
       </c>
-      <c r="J19" s="61" t="s">
+      <c r="J19" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="58">
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="53">
         <v>2</v>
       </c>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="64" t="s">
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="66"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="61"/>
       <c r="BN19" s="22"/>
       <c r="BO19" s="24"/>
       <c r="BP19" s="23"/>
@@ -4624,13 +4652,13 @@
       <c r="BY19" s="22"/>
       <c r="BZ19" s="22"/>
       <c r="CA19" s="22"/>
-      <c r="CB19" s="54"/>
-      <c r="CC19" s="55"/>
-      <c r="CD19" s="55"/>
-      <c r="CE19" s="41"/>
-      <c r="CF19" s="43"/>
-      <c r="CG19" s="44"/>
-      <c r="CH19" s="42"/>
+      <c r="CB19" s="49"/>
+      <c r="CC19" s="50"/>
+      <c r="CD19" s="50"/>
+      <c r="CE19" s="37"/>
+      <c r="CF19" s="39"/>
+      <c r="CG19" s="40"/>
+      <c r="CH19" s="6"/>
       <c r="CI19" s="22"/>
       <c r="CJ19" s="23"/>
       <c r="CK19" s="24"/>
@@ -4702,49 +4730,49 @@
       <c r="EY19" s="21"/>
       <c r="EZ19" s="21"/>
     </row>
-    <row r="20" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="75"/>
+    <row r="20" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="83"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="58" t="s">
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="26">
         <v>2</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="58">
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="53">
         <v>1</v>
       </c>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="64" t="s">
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="66"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="61"/>
       <c r="BN20" s="22"/>
       <c r="BO20" s="24"/>
       <c r="BP20" s="23"/>
@@ -4761,7 +4789,7 @@
       <c r="CA20" s="22"/>
       <c r="CB20" s="22"/>
       <c r="CC20" s="5"/>
-      <c r="CD20" s="13"/>
+      <c r="CD20" s="6"/>
       <c r="CE20" s="22"/>
       <c r="CF20" s="22"/>
       <c r="CG20" s="22"/>
@@ -4837,49 +4865,49 @@
       <c r="EY20" s="21"/>
       <c r="EZ20" s="21"/>
     </row>
-    <row r="21" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75"/>
+    <row r="21" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="83"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="58" t="s">
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="26">
         <v>2</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="58">
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="53">
         <v>2</v>
       </c>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="64" t="s">
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="66"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="61"/>
       <c r="BN21" s="22"/>
       <c r="BO21" s="24"/>
       <c r="BP21" s="23"/>
@@ -4895,12 +4923,12 @@
       <c r="BZ21" s="22"/>
       <c r="CA21" s="22"/>
       <c r="CB21" s="22"/>
-      <c r="CC21" s="44"/>
-      <c r="CD21" s="29"/>
-      <c r="CE21" s="49"/>
-      <c r="CF21" s="28"/>
-      <c r="CG21" s="30"/>
-      <c r="CH21" s="54"/>
+      <c r="CC21" s="40"/>
+      <c r="CD21" s="28"/>
+      <c r="CE21" s="44"/>
+      <c r="CF21" s="27"/>
+      <c r="CG21" s="6"/>
+      <c r="CH21" s="49"/>
       <c r="CI21" s="22"/>
       <c r="CJ21" s="23"/>
       <c r="CK21" s="24"/>
@@ -4973,48 +5001,48 @@
       <c r="EZ21" s="21"/>
     </row>
     <row r="22" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="75"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="58" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="26">
         <v>2</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="58">
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="53">
         <v>1</v>
       </c>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="64" t="s">
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="61"/>
       <c r="BN22" s="22"/>
       <c r="BO22" s="24"/>
       <c r="BP22" s="23"/>
@@ -5033,8 +5061,8 @@
       <c r="CC22" s="23"/>
       <c r="CD22" s="24"/>
       <c r="CE22" s="22"/>
-      <c r="CF22" s="49"/>
-      <c r="CG22" s="50"/>
+      <c r="CF22" s="44"/>
+      <c r="CG22" s="6"/>
       <c r="CH22" s="22"/>
       <c r="CI22" s="22"/>
       <c r="CJ22" s="23"/>
@@ -5107,48 +5135,48 @@
       <c r="EY22" s="21"/>
       <c r="EZ22" s="21"/>
     </row>
-    <row r="23" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="58" t="s">
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="26">
         <v>1</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="58">
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="53">
         <v>3</v>
       </c>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="64" t="s">
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="66"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="61"/>
       <c r="BN23" s="22"/>
       <c r="BO23" s="24"/>
       <c r="BP23" s="23"/>
@@ -5162,16 +5190,16 @@
       <c r="BX23" s="22"/>
       <c r="BY23" s="22"/>
       <c r="BZ23" s="22"/>
-      <c r="CA23" s="54"/>
-      <c r="CB23" s="54"/>
-      <c r="CC23" s="55"/>
-      <c r="CD23" s="56"/>
-      <c r="CE23" s="49"/>
-      <c r="CF23" s="54"/>
-      <c r="CG23" s="54"/>
-      <c r="CH23" s="50"/>
-      <c r="CI23" s="54"/>
-      <c r="CJ23" s="55"/>
+      <c r="CA23" s="49"/>
+      <c r="CB23" s="49"/>
+      <c r="CC23" s="50"/>
+      <c r="CD23" s="51"/>
+      <c r="CE23" s="44"/>
+      <c r="CF23" s="49"/>
+      <c r="CG23" s="49"/>
+      <c r="CH23" s="6"/>
+      <c r="CI23" s="49"/>
+      <c r="CJ23" s="50"/>
       <c r="CK23" s="24"/>
       <c r="CL23" s="22"/>
       <c r="CM23" s="22"/>
@@ -5241,48 +5269,48 @@
       <c r="EY23" s="21"/>
       <c r="EZ23" s="21"/>
     </row>
-    <row r="24" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="58" t="s">
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="26">
         <v>1</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="58">
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="53">
         <v>2</v>
       </c>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="64" t="s">
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="66"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="61"/>
       <c r="BN24" s="22"/>
       <c r="BO24" s="24"/>
       <c r="BP24" s="23"/>
@@ -5296,16 +5324,16 @@
       <c r="BX24" s="22"/>
       <c r="BY24" s="22"/>
       <c r="BZ24" s="22"/>
-      <c r="CA24" s="54"/>
-      <c r="CB24" s="54"/>
-      <c r="CC24" s="55"/>
-      <c r="CD24" s="56"/>
-      <c r="CE24" s="54"/>
-      <c r="CF24" s="54"/>
-      <c r="CG24" s="54"/>
-      <c r="CH24" s="49"/>
-      <c r="CI24" s="54"/>
-      <c r="CJ24" s="50"/>
+      <c r="CA24" s="49"/>
+      <c r="CB24" s="49"/>
+      <c r="CC24" s="50"/>
+      <c r="CD24" s="51"/>
+      <c r="CE24" s="49"/>
+      <c r="CF24" s="49"/>
+      <c r="CG24" s="49"/>
+      <c r="CH24" s="44"/>
+      <c r="CI24" s="49"/>
+      <c r="CJ24" s="6"/>
       <c r="CK24" s="24"/>
       <c r="CL24" s="22"/>
       <c r="CM24" s="22"/>
@@ -5375,48 +5403,48 @@
       <c r="EY24" s="21"/>
       <c r="EZ24" s="21"/>
     </row>
-    <row r="25" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="58" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="26">
         <v>1</v>
       </c>
-      <c r="J25" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="58">
+      <c r="J25" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="53">
         <v>2</v>
       </c>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="64" t="s">
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="66"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="61"/>
       <c r="BN25" s="22"/>
       <c r="BO25" s="24"/>
       <c r="BP25" s="23"/>
@@ -5430,18 +5458,18 @@
       <c r="BX25" s="22"/>
       <c r="BY25" s="22"/>
       <c r="BZ25" s="22"/>
-      <c r="CA25" s="54"/>
-      <c r="CB25" s="54"/>
-      <c r="CC25" s="55"/>
-      <c r="CD25" s="56"/>
-      <c r="CE25" s="54"/>
-      <c r="CF25" s="54"/>
-      <c r="CG25" s="54"/>
-      <c r="CH25" s="54"/>
-      <c r="CI25" s="41"/>
-      <c r="CJ25" s="55"/>
-      <c r="CK25" s="24"/>
-      <c r="CL25" s="42"/>
+      <c r="CA25" s="49"/>
+      <c r="CB25" s="49"/>
+      <c r="CC25" s="50"/>
+      <c r="CD25" s="51"/>
+      <c r="CE25" s="49"/>
+      <c r="CF25" s="49"/>
+      <c r="CG25" s="49"/>
+      <c r="CH25" s="49"/>
+      <c r="CJ25" s="50"/>
+      <c r="CK25" s="37"/>
+      <c r="CL25" s="24"/>
+      <c r="CM25" s="38"/>
       <c r="CN25" s="22"/>
       <c r="CO25" s="22"/>
       <c r="CP25" s="22"/>
@@ -5508,48 +5536,48 @@
       <c r="EY25" s="21"/>
       <c r="EZ25" s="21"/>
     </row>
-    <row r="26" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="58" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="26">
         <v>1</v>
       </c>
-      <c r="J26" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="58">
+      <c r="J26" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="53">
         <v>2</v>
       </c>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="66"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="61"/>
       <c r="BN26" s="22"/>
       <c r="BO26" s="24"/>
       <c r="BP26" s="23"/>
@@ -5566,18 +5594,17 @@
       <c r="CA26" s="22"/>
       <c r="CB26" s="22"/>
       <c r="CC26" s="23"/>
-      <c r="CD26" s="5"/>
-      <c r="CE26" s="22"/>
-      <c r="CF26" s="54"/>
-      <c r="CG26" s="50"/>
-      <c r="CH26" s="54"/>
+      <c r="CD26" s="51"/>
+      <c r="CE26" s="49"/>
+      <c r="CF26" s="49"/>
+      <c r="CG26" s="49"/>
+      <c r="CH26" s="49"/>
       <c r="CI26" s="22"/>
       <c r="CJ26" s="23"/>
       <c r="CK26" s="24"/>
-      <c r="CL26" s="22"/>
+      <c r="CL26" s="5"/>
       <c r="CM26" s="22"/>
-      <c r="CN26" s="22"/>
-      <c r="CO26" s="22"/>
+      <c r="CN26" s="45"/>
       <c r="CP26" s="22"/>
       <c r="CQ26" s="23"/>
       <c r="CR26" s="24"/>
@@ -5642,1084 +5669,1798 @@
       <c r="EY26" s="21"/>
       <c r="EZ26" s="21"/>
     </row>
-    <row r="27" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48"/>
-      <c r="C27" s="58" t="s">
+    <row r="27" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="43"/>
+      <c r="C27" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="58" t="s">
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="57">
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="52">
         <v>1</v>
       </c>
-      <c r="J27" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="58">
+      <c r="J27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="53">
         <v>2</v>
       </c>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="66"/>
-      <c r="BN27" s="54"/>
-      <c r="BO27" s="56"/>
-      <c r="BP27" s="55"/>
-      <c r="BQ27" s="54"/>
-      <c r="BR27" s="54"/>
-      <c r="BS27" s="54"/>
-      <c r="BT27" s="54"/>
-      <c r="BU27" s="54"/>
-      <c r="BV27" s="55"/>
-      <c r="BW27" s="56"/>
-      <c r="BX27" s="54"/>
-      <c r="BY27" s="54"/>
-      <c r="BZ27" s="54"/>
-      <c r="CA27" s="54"/>
-      <c r="CB27" s="54"/>
-      <c r="CC27" s="55"/>
-      <c r="CD27" s="56"/>
-      <c r="CE27" s="54"/>
-      <c r="CF27" s="54"/>
-      <c r="CG27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="61"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="51"/>
+      <c r="BP27" s="50"/>
+      <c r="BQ27" s="49"/>
+      <c r="BR27" s="49"/>
+      <c r="BS27" s="49"/>
+      <c r="BT27" s="49"/>
+      <c r="BU27" s="49"/>
+      <c r="BV27" s="50"/>
+      <c r="BW27" s="51"/>
+      <c r="BX27" s="49"/>
+      <c r="BY27" s="49"/>
+      <c r="BZ27" s="49"/>
+      <c r="CA27" s="49"/>
+      <c r="CB27" s="49"/>
+      <c r="CC27" s="50"/>
+      <c r="CD27" s="51"/>
+      <c r="CE27" s="49"/>
+      <c r="CF27" s="49"/>
+      <c r="CG27" s="49"/>
       <c r="CH27" s="49"/>
-      <c r="CI27" s="40"/>
-      <c r="CJ27" s="35"/>
-      <c r="CK27" s="56"/>
-      <c r="CL27" s="54"/>
-      <c r="CM27" s="54"/>
-      <c r="CN27" s="54"/>
-      <c r="CO27" s="54"/>
-      <c r="CP27" s="54"/>
-      <c r="CQ27" s="55"/>
-      <c r="CR27" s="56"/>
-      <c r="CS27" s="55"/>
-      <c r="CT27" s="55"/>
-      <c r="CU27" s="55"/>
-      <c r="CV27" s="54"/>
-      <c r="CW27" s="54"/>
-      <c r="CX27" s="55"/>
-      <c r="CY27" s="56"/>
-      <c r="CZ27" s="54"/>
-      <c r="DA27" s="54"/>
-      <c r="DB27" s="54"/>
-      <c r="DC27" s="54"/>
-      <c r="DD27" s="54"/>
-      <c r="DE27" s="55"/>
-      <c r="DF27" s="56"/>
-      <c r="DG27" s="54"/>
-      <c r="DH27" s="54"/>
-      <c r="DI27" s="54"/>
-      <c r="DJ27" s="54"/>
-      <c r="DK27" s="54"/>
-      <c r="DL27" s="55"/>
-      <c r="DM27" s="56"/>
-      <c r="DN27" s="54"/>
-      <c r="DO27" s="54"/>
-      <c r="DP27" s="54"/>
-      <c r="DQ27" s="54"/>
-      <c r="DR27" s="54"/>
-      <c r="DS27" s="55"/>
-      <c r="DT27" s="56"/>
-      <c r="DU27" s="54"/>
-      <c r="DV27" s="54"/>
-      <c r="DW27" s="51"/>
-      <c r="DX27" s="51"/>
-      <c r="DY27" s="51"/>
-      <c r="DZ27" s="52"/>
-      <c r="EA27" s="52"/>
-      <c r="EB27" s="53"/>
-      <c r="EC27" s="53"/>
-      <c r="ED27" s="53"/>
-      <c r="EE27" s="53"/>
-      <c r="EF27" s="53"/>
-      <c r="EG27" s="52"/>
-      <c r="EH27" s="52"/>
-      <c r="EI27" s="53"/>
-      <c r="EJ27" s="53"/>
-      <c r="EK27" s="53"/>
-      <c r="EL27" s="53"/>
-      <c r="EM27" s="53"/>
-      <c r="EN27" s="53"/>
-      <c r="EO27" s="52"/>
-      <c r="EP27" s="52"/>
-      <c r="EQ27" s="53"/>
-      <c r="ER27" s="53"/>
-      <c r="ES27" s="53"/>
-      <c r="ET27" s="53"/>
-      <c r="EU27" s="53"/>
-      <c r="EV27" s="52"/>
-      <c r="EW27" s="52"/>
-      <c r="EX27" s="53"/>
-      <c r="EY27" s="53"/>
-      <c r="EZ27" s="53"/>
+      <c r="CI27" s="49"/>
+      <c r="CJ27" s="50"/>
+      <c r="CK27" s="51"/>
+      <c r="CL27" s="49"/>
+      <c r="CM27" s="44"/>
+      <c r="CN27" s="36"/>
+      <c r="CO27" s="32"/>
+      <c r="CP27" s="49"/>
+      <c r="CQ27" s="50"/>
+      <c r="CR27" s="51"/>
+      <c r="CS27" s="50"/>
+      <c r="CT27" s="50"/>
+      <c r="CU27" s="50"/>
+      <c r="CV27" s="49"/>
+      <c r="CW27" s="49"/>
+      <c r="CX27" s="50"/>
+      <c r="CY27" s="51"/>
+      <c r="CZ27" s="49"/>
+      <c r="DA27" s="49"/>
+      <c r="DB27" s="49"/>
+      <c r="DC27" s="49"/>
+      <c r="DD27" s="49"/>
+      <c r="DE27" s="50"/>
+      <c r="DF27" s="51"/>
+      <c r="DG27" s="49"/>
+      <c r="DH27" s="49"/>
+      <c r="DI27" s="49"/>
+      <c r="DJ27" s="49"/>
+      <c r="DK27" s="49"/>
+      <c r="DL27" s="50"/>
+      <c r="DM27" s="51"/>
+      <c r="DN27" s="49"/>
+      <c r="DO27" s="49"/>
+      <c r="DP27" s="49"/>
+      <c r="DQ27" s="49"/>
+      <c r="DR27" s="49"/>
+      <c r="DS27" s="50"/>
+      <c r="DT27" s="51"/>
+      <c r="DU27" s="49"/>
+      <c r="DV27" s="49"/>
+      <c r="DW27" s="46"/>
+      <c r="DX27" s="46"/>
+      <c r="DY27" s="46"/>
+      <c r="DZ27" s="47"/>
+      <c r="EA27" s="47"/>
+      <c r="EB27" s="48"/>
+      <c r="EC27" s="48"/>
+      <c r="ED27" s="48"/>
+      <c r="EE27" s="48"/>
+      <c r="EF27" s="48"/>
+      <c r="EG27" s="47"/>
+      <c r="EH27" s="47"/>
+      <c r="EI27" s="48"/>
+      <c r="EJ27" s="48"/>
+      <c r="EK27" s="48"/>
+      <c r="EL27" s="48"/>
+      <c r="EM27" s="48"/>
+      <c r="EN27" s="48"/>
+      <c r="EO27" s="47"/>
+      <c r="EP27" s="47"/>
+      <c r="EQ27" s="48"/>
+      <c r="ER27" s="48"/>
+      <c r="ES27" s="48"/>
+      <c r="ET27" s="48"/>
+      <c r="EU27" s="48"/>
+      <c r="EV27" s="47"/>
+      <c r="EW27" s="47"/>
+      <c r="EX27" s="48"/>
+      <c r="EY27" s="48"/>
+      <c r="EZ27" s="48"/>
     </row>
-    <row r="28" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="48"/>
-      <c r="C28" s="58" t="s">
+    <row r="28" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="43"/>
+      <c r="C28" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="58" t="s">
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="52">
+        <v>1</v>
+      </c>
+      <c r="J28" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="57">
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="53">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="61"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="51"/>
+      <c r="BP28" s="50"/>
+      <c r="BQ28" s="49"/>
+      <c r="BR28" s="49"/>
+      <c r="BS28" s="49"/>
+      <c r="BT28" s="49"/>
+      <c r="BU28" s="49"/>
+      <c r="BV28" s="50"/>
+      <c r="BW28" s="51"/>
+      <c r="BX28" s="49"/>
+      <c r="BY28" s="49"/>
+      <c r="BZ28" s="49"/>
+      <c r="CA28" s="49"/>
+      <c r="CB28" s="49"/>
+      <c r="CC28" s="50"/>
+      <c r="CD28" s="51"/>
+      <c r="CE28" s="49"/>
+      <c r="CF28" s="49"/>
+      <c r="CG28" s="49"/>
+      <c r="CH28" s="49"/>
+      <c r="CJ28" s="50"/>
+      <c r="CK28" s="37"/>
+      <c r="CL28" s="51"/>
+      <c r="CM28" s="38"/>
+      <c r="CN28" s="49"/>
+      <c r="CO28" s="49"/>
+      <c r="CP28" s="49"/>
+      <c r="CQ28" s="50"/>
+      <c r="CR28" s="51"/>
+      <c r="CS28" s="50"/>
+      <c r="CT28" s="50"/>
+      <c r="CU28" s="50"/>
+      <c r="CV28" s="49"/>
+      <c r="CW28" s="49"/>
+      <c r="CX28" s="50"/>
+      <c r="CY28" s="51"/>
+      <c r="CZ28" s="49"/>
+      <c r="DA28" s="49"/>
+      <c r="DB28" s="49"/>
+      <c r="DC28" s="49"/>
+      <c r="DD28" s="49"/>
+      <c r="DE28" s="50"/>
+      <c r="DF28" s="51"/>
+      <c r="DG28" s="49"/>
+      <c r="DH28" s="49"/>
+      <c r="DI28" s="49"/>
+      <c r="DJ28" s="49"/>
+      <c r="DK28" s="49"/>
+      <c r="DL28" s="50"/>
+      <c r="DM28" s="51"/>
+      <c r="DN28" s="49"/>
+      <c r="DO28" s="49"/>
+      <c r="DP28" s="49"/>
+      <c r="DQ28" s="49"/>
+      <c r="DR28" s="49"/>
+      <c r="DS28" s="50"/>
+      <c r="DT28" s="51"/>
+      <c r="DU28" s="49"/>
+      <c r="DV28" s="49"/>
+      <c r="DW28" s="46"/>
+      <c r="DX28" s="46"/>
+      <c r="DY28" s="46"/>
+      <c r="DZ28" s="47"/>
+      <c r="EA28" s="47"/>
+      <c r="EB28" s="48"/>
+      <c r="EC28" s="48"/>
+      <c r="ED28" s="48"/>
+      <c r="EE28" s="48"/>
+      <c r="EF28" s="48"/>
+      <c r="EG28" s="47"/>
+      <c r="EH28" s="47"/>
+      <c r="EI28" s="48"/>
+      <c r="EJ28" s="48"/>
+      <c r="EK28" s="48"/>
+      <c r="EL28" s="48"/>
+      <c r="EM28" s="48"/>
+      <c r="EN28" s="48"/>
+      <c r="EO28" s="47"/>
+      <c r="EP28" s="47"/>
+      <c r="EQ28" s="48"/>
+      <c r="ER28" s="48"/>
+      <c r="ES28" s="48"/>
+      <c r="ET28" s="48"/>
+      <c r="EU28" s="48"/>
+      <c r="EV28" s="47"/>
+      <c r="EW28" s="47"/>
+      <c r="EX28" s="48"/>
+      <c r="EY28" s="48"/>
+      <c r="EZ28" s="48"/>
+    </row>
+    <row r="29" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="43"/>
+      <c r="C29" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="52">
         <v>1</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J29" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="53">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="61"/>
+      <c r="BN29" s="49"/>
+      <c r="BO29" s="51"/>
+      <c r="BP29" s="50"/>
+      <c r="BQ29" s="49"/>
+      <c r="BR29" s="49"/>
+      <c r="BS29" s="49"/>
+      <c r="BT29" s="49"/>
+      <c r="BU29" s="49"/>
+      <c r="BV29" s="50"/>
+      <c r="BW29" s="51"/>
+      <c r="BX29" s="49"/>
+      <c r="BY29" s="49"/>
+      <c r="BZ29" s="49"/>
+      <c r="CA29" s="49"/>
+      <c r="CB29" s="49"/>
+      <c r="CC29" s="50"/>
+      <c r="CD29" s="51"/>
+      <c r="CE29" s="49"/>
+      <c r="CF29" s="49"/>
+      <c r="CG29" s="49"/>
+      <c r="CH29" s="49"/>
+      <c r="CI29" s="49"/>
+      <c r="CJ29" s="50"/>
+      <c r="CK29" s="50"/>
+      <c r="CL29" s="49"/>
+      <c r="CM29" s="49"/>
+      <c r="CN29" s="37"/>
+      <c r="CO29" s="51"/>
+      <c r="CP29" s="38"/>
+      <c r="CQ29" s="50"/>
+      <c r="CR29" s="51"/>
+      <c r="CS29" s="50"/>
+      <c r="CT29" s="50"/>
+      <c r="CU29" s="50"/>
+      <c r="CV29" s="49"/>
+      <c r="CW29" s="49"/>
+      <c r="CX29" s="50"/>
+      <c r="CY29" s="51"/>
+      <c r="CZ29" s="49"/>
+      <c r="DA29" s="49"/>
+      <c r="DB29" s="49"/>
+      <c r="DC29" s="49"/>
+      <c r="DD29" s="49"/>
+      <c r="DE29" s="50"/>
+      <c r="DF29" s="51"/>
+      <c r="DG29" s="49"/>
+      <c r="DH29" s="49"/>
+      <c r="DI29" s="49"/>
+      <c r="DJ29" s="49"/>
+      <c r="DK29" s="49"/>
+      <c r="DL29" s="50"/>
+      <c r="DM29" s="51"/>
+      <c r="DN29" s="49"/>
+      <c r="DO29" s="49"/>
+      <c r="DP29" s="49"/>
+      <c r="DQ29" s="49"/>
+      <c r="DR29" s="49"/>
+      <c r="DS29" s="50"/>
+      <c r="DT29" s="51"/>
+      <c r="DU29" s="49"/>
+      <c r="DV29" s="49"/>
+      <c r="DW29" s="46"/>
+      <c r="DX29" s="46"/>
+      <c r="DY29" s="46"/>
+      <c r="DZ29" s="47"/>
+      <c r="EA29" s="47"/>
+      <c r="EB29" s="48"/>
+      <c r="EC29" s="48"/>
+      <c r="ED29" s="48"/>
+      <c r="EE29" s="48"/>
+      <c r="EF29" s="48"/>
+      <c r="EG29" s="47"/>
+      <c r="EH29" s="47"/>
+      <c r="EI29" s="48"/>
+      <c r="EJ29" s="48"/>
+      <c r="EK29" s="48"/>
+      <c r="EL29" s="48"/>
+      <c r="EM29" s="48"/>
+      <c r="EN29" s="48"/>
+      <c r="EO29" s="47"/>
+      <c r="EP29" s="47"/>
+      <c r="EQ29" s="48"/>
+      <c r="ER29" s="48"/>
+      <c r="ES29" s="48"/>
+      <c r="ET29" s="48"/>
+      <c r="EU29" s="48"/>
+      <c r="EV29" s="47"/>
+      <c r="EW29" s="47"/>
+      <c r="EX29" s="48"/>
+      <c r="EY29" s="48"/>
+      <c r="EZ29" s="48"/>
+    </row>
+    <row r="30" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="43"/>
+      <c r="C30" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="52">
+        <v>1</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="53">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="61"/>
+      <c r="BN30" s="49"/>
+      <c r="BO30" s="51"/>
+      <c r="BP30" s="50"/>
+      <c r="BQ30" s="49"/>
+      <c r="BR30" s="49"/>
+      <c r="BS30" s="49"/>
+      <c r="BT30" s="49"/>
+      <c r="BU30" s="49"/>
+      <c r="BV30" s="50"/>
+      <c r="BW30" s="51"/>
+      <c r="BX30" s="49"/>
+      <c r="BY30" s="49"/>
+      <c r="BZ30" s="49"/>
+      <c r="CA30" s="49"/>
+      <c r="CB30" s="49"/>
+      <c r="CC30" s="50"/>
+      <c r="CD30" s="51"/>
+      <c r="CE30" s="49"/>
+      <c r="CF30" s="49"/>
+      <c r="CG30" s="49"/>
+      <c r="CH30" s="49"/>
+      <c r="CI30" s="49"/>
+      <c r="CJ30" s="37"/>
+      <c r="CK30" s="51"/>
+      <c r="CL30" s="38"/>
+      <c r="CM30" s="49"/>
+      <c r="CN30" s="49"/>
+      <c r="CO30" s="49"/>
+      <c r="CP30" s="49"/>
+      <c r="CQ30" s="50"/>
+      <c r="CR30" s="51"/>
+      <c r="CS30" s="50"/>
+      <c r="CT30" s="50"/>
+      <c r="CU30" s="50"/>
+      <c r="CV30" s="49"/>
+      <c r="CW30" s="49"/>
+      <c r="CX30" s="50"/>
+      <c r="CY30" s="51"/>
+      <c r="CZ30" s="49"/>
+      <c r="DA30" s="49"/>
+      <c r="DB30" s="49"/>
+      <c r="DC30" s="49"/>
+      <c r="DD30" s="49"/>
+      <c r="DE30" s="50"/>
+      <c r="DF30" s="51"/>
+      <c r="DG30" s="49"/>
+      <c r="DH30" s="49"/>
+      <c r="DI30" s="49"/>
+      <c r="DJ30" s="49"/>
+      <c r="DK30" s="49"/>
+      <c r="DL30" s="50"/>
+      <c r="DM30" s="51"/>
+      <c r="DN30" s="49"/>
+      <c r="DO30" s="49"/>
+      <c r="DP30" s="49"/>
+      <c r="DQ30" s="49"/>
+      <c r="DR30" s="49"/>
+      <c r="DS30" s="50"/>
+      <c r="DT30" s="51"/>
+      <c r="DU30" s="49"/>
+      <c r="DV30" s="49"/>
+      <c r="DW30" s="46"/>
+      <c r="DX30" s="46"/>
+      <c r="DY30" s="46"/>
+      <c r="DZ30" s="47"/>
+      <c r="EA30" s="47"/>
+      <c r="EB30" s="48"/>
+      <c r="EC30" s="48"/>
+      <c r="ED30" s="48"/>
+      <c r="EE30" s="48"/>
+      <c r="EF30" s="48"/>
+      <c r="EG30" s="47"/>
+      <c r="EH30" s="47"/>
+      <c r="EI30" s="48"/>
+      <c r="EJ30" s="48"/>
+      <c r="EK30" s="48"/>
+      <c r="EL30" s="48"/>
+      <c r="EM30" s="48"/>
+      <c r="EN30" s="48"/>
+      <c r="EO30" s="47"/>
+      <c r="EP30" s="47"/>
+      <c r="EQ30" s="48"/>
+      <c r="ER30" s="48"/>
+      <c r="ES30" s="48"/>
+      <c r="ET30" s="48"/>
+      <c r="EU30" s="48"/>
+      <c r="EV30" s="47"/>
+      <c r="EW30" s="47"/>
+      <c r="EX30" s="48"/>
+      <c r="EY30" s="48"/>
+      <c r="EZ30" s="48"/>
+    </row>
+    <row r="31" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="43"/>
+      <c r="C31" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="52">
+        <v>1</v>
+      </c>
+      <c r="J31" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="61"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="51"/>
+      <c r="BP31" s="50"/>
+      <c r="BQ31" s="49"/>
+      <c r="BR31" s="49"/>
+      <c r="BS31" s="49"/>
+      <c r="BT31" s="49"/>
+      <c r="BU31" s="49"/>
+      <c r="BV31" s="50"/>
+      <c r="BW31" s="51"/>
+      <c r="BX31" s="49"/>
+      <c r="BY31" s="49"/>
+      <c r="BZ31" s="49"/>
+      <c r="CA31" s="49"/>
+      <c r="CB31" s="49"/>
+      <c r="CC31" s="50"/>
+      <c r="CD31" s="51"/>
+      <c r="CE31" s="49"/>
+      <c r="CF31" s="49"/>
+      <c r="CG31" s="49"/>
+      <c r="CH31" s="49"/>
+      <c r="CI31" s="49"/>
+      <c r="CJ31" s="50"/>
+      <c r="CK31" s="51"/>
+      <c r="CL31" s="49"/>
+      <c r="CM31" s="49"/>
+      <c r="CN31" s="37"/>
+      <c r="CO31" s="49"/>
+      <c r="CP31" s="49"/>
+      <c r="CQ31" s="50"/>
+      <c r="CR31" s="38"/>
+      <c r="CS31" s="50"/>
+      <c r="CT31" s="50"/>
+      <c r="CU31" s="50"/>
+      <c r="CV31" s="49"/>
+      <c r="CW31" s="49"/>
+      <c r="CX31" s="50"/>
+      <c r="CY31" s="51"/>
+      <c r="CZ31" s="49"/>
+      <c r="DA31" s="49"/>
+      <c r="DB31" s="49"/>
+      <c r="DC31" s="49"/>
+      <c r="DD31" s="49"/>
+      <c r="DE31" s="50"/>
+      <c r="DF31" s="51"/>
+      <c r="DG31" s="49"/>
+      <c r="DH31" s="49"/>
+      <c r="DI31" s="49"/>
+      <c r="DJ31" s="49"/>
+      <c r="DK31" s="49"/>
+      <c r="DL31" s="50"/>
+      <c r="DM31" s="51"/>
+      <c r="DN31" s="49"/>
+      <c r="DO31" s="49"/>
+      <c r="DP31" s="49"/>
+      <c r="DQ31" s="49"/>
+      <c r="DR31" s="49"/>
+      <c r="DS31" s="50"/>
+      <c r="DT31" s="51"/>
+      <c r="DU31" s="49"/>
+      <c r="DV31" s="49"/>
+      <c r="DW31" s="46"/>
+      <c r="DX31" s="46"/>
+      <c r="DY31" s="46"/>
+      <c r="DZ31" s="47"/>
+      <c r="EA31" s="47"/>
+      <c r="EB31" s="48"/>
+      <c r="EC31" s="48"/>
+      <c r="ED31" s="48"/>
+      <c r="EE31" s="48"/>
+      <c r="EF31" s="48"/>
+      <c r="EG31" s="47"/>
+      <c r="EH31" s="47"/>
+      <c r="EI31" s="48"/>
+      <c r="EJ31" s="48"/>
+      <c r="EK31" s="48"/>
+      <c r="EL31" s="48"/>
+      <c r="EM31" s="48"/>
+      <c r="EN31" s="48"/>
+      <c r="EO31" s="47"/>
+      <c r="EP31" s="47"/>
+      <c r="EQ31" s="48"/>
+      <c r="ER31" s="48"/>
+      <c r="ES31" s="48"/>
+      <c r="ET31" s="48"/>
+      <c r="EU31" s="48"/>
+      <c r="EV31" s="47"/>
+      <c r="EW31" s="47"/>
+      <c r="EX31" s="48"/>
+      <c r="EY31" s="48"/>
+      <c r="EZ31" s="48"/>
+    </row>
+    <row r="32" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="43"/>
+      <c r="C32" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="54"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="52">
+        <v>1</v>
+      </c>
+      <c r="J32" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="61"/>
+      <c r="BN32" s="49"/>
+      <c r="BO32" s="51"/>
+      <c r="BP32" s="50"/>
+      <c r="BQ32" s="49"/>
+      <c r="BR32" s="49"/>
+      <c r="BS32" s="49"/>
+      <c r="BT32" s="49"/>
+      <c r="BU32" s="49"/>
+      <c r="BV32" s="50"/>
+      <c r="BW32" s="51"/>
+      <c r="BX32" s="49"/>
+      <c r="BY32" s="49"/>
+      <c r="BZ32" s="49"/>
+      <c r="CA32" s="49"/>
+      <c r="CB32" s="49"/>
+      <c r="CC32" s="50"/>
+      <c r="CD32" s="51"/>
+      <c r="CE32" s="49"/>
+      <c r="CF32" s="49"/>
+      <c r="CG32" s="49"/>
+      <c r="CH32" s="49"/>
+      <c r="CI32" s="49"/>
+      <c r="CJ32" s="50"/>
+      <c r="CK32" s="51"/>
+      <c r="CL32" s="49"/>
+      <c r="CM32" s="44"/>
+      <c r="CN32" s="49"/>
+      <c r="CO32" s="49"/>
+      <c r="CP32" s="45"/>
+      <c r="CQ32" s="50"/>
+      <c r="CR32" s="51"/>
+      <c r="CS32" s="50"/>
+      <c r="CT32" s="50"/>
+      <c r="CU32" s="50"/>
+      <c r="CV32" s="49"/>
+      <c r="CW32" s="49"/>
+      <c r="CX32" s="50"/>
+      <c r="CY32" s="51"/>
+      <c r="CZ32" s="49"/>
+      <c r="DA32" s="49"/>
+      <c r="DB32" s="49"/>
+      <c r="DC32" s="49"/>
+      <c r="DD32" s="49"/>
+      <c r="DE32" s="50"/>
+      <c r="DF32" s="51"/>
+      <c r="DG32" s="49"/>
+      <c r="DH32" s="49"/>
+      <c r="DI32" s="49"/>
+      <c r="DJ32" s="49"/>
+      <c r="DK32" s="49"/>
+      <c r="DL32" s="50"/>
+      <c r="DM32" s="51"/>
+      <c r="DN32" s="49"/>
+      <c r="DO32" s="49"/>
+      <c r="DP32" s="49"/>
+      <c r="DQ32" s="49"/>
+      <c r="DR32" s="49"/>
+      <c r="DS32" s="50"/>
+      <c r="DT32" s="51"/>
+      <c r="DU32" s="49"/>
+      <c r="DV32" s="49"/>
+      <c r="DW32" s="46"/>
+      <c r="DX32" s="46"/>
+      <c r="DY32" s="46"/>
+      <c r="DZ32" s="47"/>
+      <c r="EA32" s="47"/>
+      <c r="EB32" s="48"/>
+      <c r="EC32" s="48"/>
+      <c r="ED32" s="48"/>
+      <c r="EE32" s="48"/>
+      <c r="EF32" s="48"/>
+      <c r="EG32" s="47"/>
+      <c r="EH32" s="47"/>
+      <c r="EI32" s="48"/>
+      <c r="EJ32" s="48"/>
+      <c r="EK32" s="48"/>
+      <c r="EL32" s="48"/>
+      <c r="EM32" s="48"/>
+      <c r="EN32" s="48"/>
+      <c r="EO32" s="47"/>
+      <c r="EP32" s="47"/>
+      <c r="EQ32" s="48"/>
+      <c r="ER32" s="48"/>
+      <c r="ES32" s="48"/>
+      <c r="ET32" s="48"/>
+      <c r="EU32" s="48"/>
+      <c r="EV32" s="47"/>
+      <c r="EW32" s="47"/>
+      <c r="EX32" s="48"/>
+      <c r="EY32" s="48"/>
+      <c r="EZ32" s="48"/>
+    </row>
+    <row r="33" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="43"/>
+      <c r="C33" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="52">
+        <v>2</v>
+      </c>
+      <c r="J33" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="61"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="51"/>
+      <c r="BP33" s="50"/>
+      <c r="BQ33" s="49"/>
+      <c r="BR33" s="49"/>
+      <c r="BS33" s="49"/>
+      <c r="BT33" s="49"/>
+      <c r="BU33" s="49"/>
+      <c r="BV33" s="50"/>
+      <c r="BW33" s="51"/>
+      <c r="BX33" s="49"/>
+      <c r="BY33" s="49"/>
+      <c r="BZ33" s="49"/>
+      <c r="CA33" s="49"/>
+      <c r="CB33" s="49"/>
+      <c r="CC33" s="50"/>
+      <c r="CD33" s="51"/>
+      <c r="CE33" s="49"/>
+      <c r="CF33" s="49"/>
+      <c r="CG33" s="49"/>
+      <c r="CH33" s="49"/>
+      <c r="CI33" s="49"/>
+      <c r="CJ33" s="51"/>
+      <c r="CK33" s="51"/>
+      <c r="CL33" s="49"/>
+      <c r="CM33" s="49"/>
+      <c r="CN33" s="49"/>
+      <c r="CO33" s="44"/>
+      <c r="CP33" s="49"/>
+      <c r="CQ33" s="49"/>
+      <c r="CR33" s="49"/>
+      <c r="CS33" s="45"/>
+      <c r="CT33" s="50"/>
+      <c r="CU33" s="50"/>
+      <c r="CV33" s="49"/>
+      <c r="CW33" s="49"/>
+      <c r="CX33" s="50"/>
+      <c r="CY33" s="51"/>
+      <c r="CZ33" s="49"/>
+      <c r="DA33" s="49"/>
+      <c r="DB33" s="49"/>
+      <c r="DC33" s="49"/>
+      <c r="DD33" s="49"/>
+      <c r="DE33" s="50"/>
+      <c r="DF33" s="51"/>
+      <c r="DG33" s="49"/>
+      <c r="DH33" s="49"/>
+      <c r="DI33" s="49"/>
+      <c r="DJ33" s="49"/>
+      <c r="DK33" s="49"/>
+      <c r="DL33" s="50"/>
+      <c r="DM33" s="51"/>
+      <c r="DN33" s="49"/>
+      <c r="DO33" s="49"/>
+      <c r="DP33" s="49"/>
+      <c r="DQ33" s="49"/>
+      <c r="DR33" s="49"/>
+      <c r="DS33" s="50"/>
+      <c r="DT33" s="51"/>
+      <c r="DU33" s="49"/>
+      <c r="DV33" s="49"/>
+      <c r="DW33" s="46"/>
+      <c r="DX33" s="46"/>
+      <c r="DY33" s="46"/>
+      <c r="DZ33" s="47"/>
+      <c r="EA33" s="47"/>
+      <c r="EB33" s="48"/>
+      <c r="EC33" s="48"/>
+      <c r="ED33" s="48"/>
+      <c r="EE33" s="48"/>
+      <c r="EF33" s="48"/>
+      <c r="EG33" s="47"/>
+      <c r="EH33" s="47"/>
+      <c r="EI33" s="48"/>
+      <c r="EJ33" s="48"/>
+      <c r="EK33" s="48"/>
+      <c r="EL33" s="48"/>
+      <c r="EM33" s="48"/>
+      <c r="EN33" s="48"/>
+      <c r="EO33" s="47"/>
+      <c r="EP33" s="47"/>
+      <c r="EQ33" s="48"/>
+      <c r="ER33" s="48"/>
+      <c r="ES33" s="48"/>
+      <c r="ET33" s="48"/>
+      <c r="EU33" s="48"/>
+      <c r="EV33" s="47"/>
+      <c r="EW33" s="47"/>
+      <c r="EX33" s="48"/>
+      <c r="EY33" s="48"/>
+      <c r="EZ33" s="48"/>
+    </row>
+    <row r="34" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="43"/>
+      <c r="C34" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="52">
+        <v>1</v>
+      </c>
+      <c r="J34" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="58">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="66"/>
-      <c r="BN28" s="54"/>
-      <c r="BO28" s="56"/>
-      <c r="BP28" s="55"/>
-      <c r="BQ28" s="54"/>
-      <c r="BR28" s="54"/>
-      <c r="BS28" s="54"/>
-      <c r="BT28" s="54"/>
-      <c r="BU28" s="54"/>
-      <c r="BV28" s="55"/>
-      <c r="BW28" s="56"/>
-      <c r="BX28" s="54"/>
-      <c r="BY28" s="54"/>
-      <c r="BZ28" s="54"/>
-      <c r="CA28" s="54"/>
-      <c r="CB28" s="54"/>
-      <c r="CC28" s="55"/>
-      <c r="CD28" s="56"/>
-      <c r="CE28" s="54"/>
-      <c r="CF28" s="54"/>
-      <c r="CG28" s="54"/>
-      <c r="CH28" s="54"/>
-      <c r="CI28" s="41"/>
-      <c r="CJ28" s="55"/>
-      <c r="CK28" s="56"/>
-      <c r="CL28" s="42"/>
-      <c r="CN28" s="54"/>
-      <c r="CO28" s="54"/>
-      <c r="CP28" s="54"/>
-      <c r="CQ28" s="55"/>
-      <c r="CR28" s="56"/>
-      <c r="CS28" s="55"/>
-      <c r="CT28" s="55"/>
-      <c r="CU28" s="55"/>
-      <c r="CV28" s="54"/>
-      <c r="CW28" s="54"/>
-      <c r="CX28" s="55"/>
-      <c r="CY28" s="56"/>
-      <c r="CZ28" s="54"/>
-      <c r="DA28" s="54"/>
-      <c r="DB28" s="54"/>
-      <c r="DC28" s="54"/>
-      <c r="DD28" s="54"/>
-      <c r="DE28" s="55"/>
-      <c r="DF28" s="56"/>
-      <c r="DG28" s="54"/>
-      <c r="DH28" s="54"/>
-      <c r="DI28" s="54"/>
-      <c r="DJ28" s="54"/>
-      <c r="DK28" s="54"/>
-      <c r="DL28" s="55"/>
-      <c r="DM28" s="56"/>
-      <c r="DN28" s="54"/>
-      <c r="DO28" s="54"/>
-      <c r="DP28" s="54"/>
-      <c r="DQ28" s="54"/>
-      <c r="DR28" s="54"/>
-      <c r="DS28" s="55"/>
-      <c r="DT28" s="56"/>
-      <c r="DU28" s="54"/>
-      <c r="DV28" s="54"/>
-      <c r="DW28" s="51"/>
-      <c r="DX28" s="51"/>
-      <c r="DY28" s="51"/>
-      <c r="DZ28" s="52"/>
-      <c r="EA28" s="52"/>
-      <c r="EB28" s="53"/>
-      <c r="EC28" s="53"/>
-      <c r="ED28" s="53"/>
-      <c r="EE28" s="53"/>
-      <c r="EF28" s="53"/>
-      <c r="EG28" s="52"/>
-      <c r="EH28" s="52"/>
-      <c r="EI28" s="53"/>
-      <c r="EJ28" s="53"/>
-      <c r="EK28" s="53"/>
-      <c r="EL28" s="53"/>
-      <c r="EM28" s="53"/>
-      <c r="EN28" s="53"/>
-      <c r="EO28" s="52"/>
-      <c r="EP28" s="52"/>
-      <c r="EQ28" s="53"/>
-      <c r="ER28" s="53"/>
-      <c r="ES28" s="53"/>
-      <c r="ET28" s="53"/>
-      <c r="EU28" s="53"/>
-      <c r="EV28" s="52"/>
-      <c r="EW28" s="52"/>
-      <c r="EX28" s="53"/>
-      <c r="EY28" s="53"/>
-      <c r="EZ28" s="53"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="61"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="51"/>
+      <c r="BP34" s="50"/>
+      <c r="BQ34" s="49"/>
+      <c r="BR34" s="49"/>
+      <c r="BS34" s="49"/>
+      <c r="BT34" s="49"/>
+      <c r="BU34" s="49"/>
+      <c r="BV34" s="50"/>
+      <c r="BW34" s="51"/>
+      <c r="BX34" s="49"/>
+      <c r="BY34" s="49"/>
+      <c r="BZ34" s="49"/>
+      <c r="CA34" s="49"/>
+      <c r="CB34" s="49"/>
+      <c r="CC34" s="50"/>
+      <c r="CD34" s="51"/>
+      <c r="CE34" s="49"/>
+      <c r="CF34" s="49"/>
+      <c r="CG34" s="49"/>
+      <c r="CH34" s="49"/>
+      <c r="CI34" s="49"/>
+      <c r="CJ34" s="51"/>
+      <c r="CK34" s="51"/>
+      <c r="CL34" s="44"/>
+      <c r="CM34" s="49"/>
+      <c r="CN34" s="49"/>
+      <c r="CO34" s="45"/>
+      <c r="CP34" s="49"/>
+      <c r="CQ34" s="50"/>
+      <c r="CR34" s="51"/>
+      <c r="CS34" s="50"/>
+      <c r="CT34" s="50"/>
+      <c r="CU34" s="50"/>
+      <c r="CV34" s="49"/>
+      <c r="CW34" s="49"/>
+      <c r="CX34" s="50"/>
+      <c r="CY34" s="51"/>
+      <c r="CZ34" s="49"/>
+      <c r="DA34" s="49"/>
+      <c r="DB34" s="49"/>
+      <c r="DC34" s="49"/>
+      <c r="DD34" s="49"/>
+      <c r="DE34" s="50"/>
+      <c r="DF34" s="51"/>
+      <c r="DG34" s="49"/>
+      <c r="DH34" s="49"/>
+      <c r="DI34" s="49"/>
+      <c r="DJ34" s="49"/>
+      <c r="DK34" s="49"/>
+      <c r="DL34" s="50"/>
+      <c r="DM34" s="51"/>
+      <c r="DN34" s="49"/>
+      <c r="DO34" s="49"/>
+      <c r="DP34" s="49"/>
+      <c r="DQ34" s="49"/>
+      <c r="DR34" s="49"/>
+      <c r="DS34" s="50"/>
+      <c r="DT34" s="51"/>
+      <c r="DU34" s="49"/>
+      <c r="DV34" s="49"/>
+      <c r="DW34" s="46"/>
+      <c r="DX34" s="46"/>
+      <c r="DY34" s="46"/>
+      <c r="DZ34" s="47"/>
+      <c r="EA34" s="47"/>
+      <c r="EB34" s="48"/>
+      <c r="EC34" s="48"/>
+      <c r="ED34" s="48"/>
+      <c r="EE34" s="48"/>
+      <c r="EF34" s="48"/>
+      <c r="EG34" s="47"/>
+      <c r="EH34" s="47"/>
+      <c r="EI34" s="48"/>
+      <c r="EJ34" s="48"/>
+      <c r="EK34" s="48"/>
+      <c r="EL34" s="48"/>
+      <c r="EM34" s="48"/>
+      <c r="EN34" s="48"/>
+      <c r="EO34" s="47"/>
+      <c r="EP34" s="47"/>
+      <c r="EQ34" s="48"/>
+      <c r="ER34" s="48"/>
+      <c r="ES34" s="48"/>
+      <c r="ET34" s="48"/>
+      <c r="EU34" s="48"/>
+      <c r="EV34" s="47"/>
+      <c r="EW34" s="47"/>
+      <c r="EX34" s="48"/>
+      <c r="EY34" s="48"/>
+      <c r="EZ34" s="48"/>
     </row>
-    <row r="29" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="48"/>
-      <c r="C29" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="57">
+    <row r="35" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="43"/>
+      <c r="C35" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="52">
         <v>1</v>
       </c>
-      <c r="J29" s="61" t="s">
+      <c r="J35" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="61"/>
+      <c r="BN35" s="49"/>
+      <c r="BO35" s="51"/>
+      <c r="BP35" s="50"/>
+      <c r="BQ35" s="49"/>
+      <c r="BR35" s="49"/>
+      <c r="BS35" s="49"/>
+      <c r="BT35" s="49"/>
+      <c r="BU35" s="49"/>
+      <c r="BV35" s="50"/>
+      <c r="BW35" s="51"/>
+      <c r="BX35" s="49"/>
+      <c r="BY35" s="49"/>
+      <c r="BZ35" s="49"/>
+      <c r="CB35" s="49"/>
+      <c r="CC35" s="50"/>
+      <c r="CD35" s="51"/>
+      <c r="CE35" s="49"/>
+      <c r="CF35" s="44"/>
+      <c r="CG35" s="49"/>
+      <c r="CH35" s="49"/>
+      <c r="CI35" s="45"/>
+      <c r="CJ35" s="50"/>
+      <c r="CK35" s="51"/>
+      <c r="CL35" s="49"/>
+      <c r="CM35" s="49"/>
+      <c r="CN35" s="49"/>
+      <c r="CO35" s="49"/>
+      <c r="CP35" s="49"/>
+      <c r="CQ35" s="50"/>
+      <c r="CR35" s="51"/>
+      <c r="CS35" s="50"/>
+      <c r="CT35" s="50"/>
+      <c r="CU35" s="50"/>
+      <c r="CV35" s="49"/>
+      <c r="CW35" s="49"/>
+      <c r="CX35" s="50"/>
+      <c r="CY35" s="51"/>
+      <c r="CZ35" s="49"/>
+      <c r="DA35" s="49"/>
+      <c r="DB35" s="49"/>
+      <c r="DC35" s="49"/>
+      <c r="DD35" s="49"/>
+      <c r="DE35" s="50"/>
+      <c r="DF35" s="51"/>
+      <c r="DG35" s="49"/>
+      <c r="DH35" s="49"/>
+      <c r="DI35" s="49"/>
+      <c r="DJ35" s="49"/>
+      <c r="DK35" s="49"/>
+      <c r="DL35" s="50"/>
+      <c r="DM35" s="51"/>
+      <c r="DN35" s="49"/>
+      <c r="DO35" s="49"/>
+      <c r="DP35" s="49"/>
+      <c r="DQ35" s="49"/>
+      <c r="DR35" s="49"/>
+      <c r="DS35" s="50"/>
+      <c r="DT35" s="51"/>
+      <c r="DU35" s="49"/>
+      <c r="DV35" s="49"/>
+      <c r="DW35" s="46"/>
+      <c r="DX35" s="46"/>
+      <c r="DY35" s="46"/>
+      <c r="DZ35" s="47"/>
+      <c r="EA35" s="47"/>
+      <c r="EB35" s="48"/>
+      <c r="EC35" s="48"/>
+      <c r="ED35" s="48"/>
+      <c r="EE35" s="48"/>
+      <c r="EF35" s="48"/>
+      <c r="EG35" s="47"/>
+      <c r="EH35" s="47"/>
+      <c r="EI35" s="48"/>
+      <c r="EJ35" s="48"/>
+      <c r="EK35" s="48"/>
+      <c r="EL35" s="48"/>
+      <c r="EM35" s="48"/>
+      <c r="EN35" s="48"/>
+      <c r="EO35" s="47"/>
+      <c r="EP35" s="47"/>
+      <c r="EQ35" s="48"/>
+      <c r="ER35" s="48"/>
+      <c r="ES35" s="48"/>
+      <c r="ET35" s="48"/>
+      <c r="EU35" s="48"/>
+      <c r="EV35" s="47"/>
+      <c r="EW35" s="47"/>
+      <c r="EX35" s="48"/>
+      <c r="EY35" s="48"/>
+      <c r="EZ35" s="48"/>
+    </row>
+    <row r="36" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="43"/>
+      <c r="C36" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="58">
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="52">
         <v>1</v>
       </c>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="66"/>
-      <c r="BN29" s="54"/>
-      <c r="BO29" s="56"/>
-      <c r="BP29" s="55"/>
-      <c r="BQ29" s="54"/>
-      <c r="BR29" s="54"/>
-      <c r="BS29" s="54"/>
-      <c r="BT29" s="54"/>
-      <c r="BU29" s="54"/>
-      <c r="BV29" s="55"/>
-      <c r="BW29" s="56"/>
-      <c r="BX29" s="54"/>
-      <c r="BY29" s="54"/>
-      <c r="BZ29" s="54"/>
-      <c r="CA29" s="54"/>
-      <c r="CB29" s="54"/>
-      <c r="CC29" s="55"/>
-      <c r="CD29" s="56"/>
-      <c r="CE29" s="54"/>
-      <c r="CF29" s="54"/>
-      <c r="CG29" s="54"/>
-      <c r="CH29" s="54"/>
-      <c r="CI29" s="54"/>
-      <c r="CJ29" s="49"/>
-      <c r="CK29" s="50"/>
-      <c r="CM29" s="54"/>
-      <c r="CN29" s="54"/>
-      <c r="CO29" s="54"/>
-      <c r="CP29" s="54"/>
-      <c r="CQ29" s="55"/>
-      <c r="CR29" s="56"/>
-      <c r="CS29" s="55"/>
-      <c r="CT29" s="55"/>
-      <c r="CU29" s="55"/>
-      <c r="CV29" s="54"/>
-      <c r="CW29" s="54"/>
-      <c r="CX29" s="55"/>
-      <c r="CY29" s="56"/>
-      <c r="CZ29" s="54"/>
-      <c r="DA29" s="54"/>
-      <c r="DB29" s="54"/>
-      <c r="DC29" s="54"/>
-      <c r="DD29" s="54"/>
-      <c r="DE29" s="55"/>
-      <c r="DF29" s="56"/>
-      <c r="DG29" s="54"/>
-      <c r="DH29" s="54"/>
-      <c r="DI29" s="54"/>
-      <c r="DJ29" s="54"/>
-      <c r="DK29" s="54"/>
-      <c r="DL29" s="55"/>
-      <c r="DM29" s="56"/>
-      <c r="DN29" s="54"/>
-      <c r="DO29" s="54"/>
-      <c r="DP29" s="54"/>
-      <c r="DQ29" s="54"/>
-      <c r="DR29" s="54"/>
-      <c r="DS29" s="55"/>
-      <c r="DT29" s="56"/>
-      <c r="DU29" s="54"/>
-      <c r="DV29" s="54"/>
-      <c r="DW29" s="51"/>
-      <c r="DX29" s="51"/>
-      <c r="DY29" s="51"/>
-      <c r="DZ29" s="52"/>
-      <c r="EA29" s="52"/>
-      <c r="EB29" s="53"/>
-      <c r="EC29" s="53"/>
-      <c r="ED29" s="53"/>
-      <c r="EE29" s="53"/>
-      <c r="EF29" s="53"/>
-      <c r="EG29" s="52"/>
-      <c r="EH29" s="52"/>
-      <c r="EI29" s="53"/>
-      <c r="EJ29" s="53"/>
-      <c r="EK29" s="53"/>
-      <c r="EL29" s="53"/>
-      <c r="EM29" s="53"/>
-      <c r="EN29" s="53"/>
-      <c r="EO29" s="52"/>
-      <c r="EP29" s="52"/>
-      <c r="EQ29" s="53"/>
-      <c r="ER29" s="53"/>
-      <c r="ES29" s="53"/>
-      <c r="ET29" s="53"/>
-      <c r="EU29" s="53"/>
-      <c r="EV29" s="52"/>
-      <c r="EW29" s="52"/>
-      <c r="EX29" s="53"/>
-      <c r="EY29" s="53"/>
-      <c r="EZ29" s="53"/>
+      <c r="J36" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="61"/>
+      <c r="BN36" s="49"/>
+      <c r="BO36" s="51"/>
+      <c r="BP36" s="50"/>
+      <c r="BQ36" s="49"/>
+      <c r="BR36" s="49"/>
+      <c r="BS36" s="49"/>
+      <c r="BT36" s="49"/>
+      <c r="BU36" s="49"/>
+      <c r="BV36" s="50"/>
+      <c r="BW36" s="51"/>
+      <c r="BX36" s="49"/>
+      <c r="BY36" s="49"/>
+      <c r="BZ36" s="49"/>
+      <c r="CA36" s="49"/>
+      <c r="CB36" s="49"/>
+      <c r="CC36" s="50"/>
+      <c r="CD36" s="51"/>
+      <c r="CE36" s="49"/>
+      <c r="CF36" s="44"/>
+      <c r="CG36" s="49"/>
+      <c r="CI36" s="45"/>
+      <c r="CJ36" s="50"/>
+      <c r="CK36" s="51"/>
+      <c r="CL36" s="49"/>
+      <c r="CM36" s="49"/>
+      <c r="CN36" s="49"/>
+      <c r="CO36" s="49"/>
+      <c r="CP36" s="49"/>
+      <c r="CQ36" s="50"/>
+      <c r="CR36" s="51"/>
+      <c r="CS36" s="50"/>
+      <c r="CT36" s="50"/>
+      <c r="CU36" s="50"/>
+      <c r="CV36" s="49"/>
+      <c r="CW36" s="49"/>
+      <c r="CX36" s="50"/>
+      <c r="CY36" s="51"/>
+      <c r="CZ36" s="49"/>
+      <c r="DA36" s="49"/>
+      <c r="DB36" s="49"/>
+      <c r="DC36" s="49"/>
+      <c r="DD36" s="49"/>
+      <c r="DE36" s="50"/>
+      <c r="DF36" s="51"/>
+      <c r="DG36" s="49"/>
+      <c r="DH36" s="49"/>
+      <c r="DI36" s="49"/>
+      <c r="DJ36" s="49"/>
+      <c r="DK36" s="49"/>
+      <c r="DL36" s="50"/>
+      <c r="DM36" s="51"/>
+      <c r="DN36" s="49"/>
+      <c r="DO36" s="49"/>
+      <c r="DP36" s="49"/>
+      <c r="DQ36" s="49"/>
+      <c r="DR36" s="49"/>
+      <c r="DS36" s="50"/>
+      <c r="DT36" s="51"/>
+      <c r="DU36" s="49"/>
+      <c r="DV36" s="49"/>
+      <c r="DW36" s="46"/>
+      <c r="DX36" s="46"/>
+      <c r="DY36" s="46"/>
+      <c r="DZ36" s="47"/>
+      <c r="EA36" s="47"/>
+      <c r="EB36" s="48"/>
+      <c r="EC36" s="48"/>
+      <c r="ED36" s="48"/>
+      <c r="EE36" s="48"/>
+      <c r="EF36" s="48"/>
+      <c r="EG36" s="47"/>
+      <c r="EH36" s="47"/>
+      <c r="EI36" s="48"/>
+      <c r="EJ36" s="48"/>
+      <c r="EK36" s="48"/>
+      <c r="EL36" s="48"/>
+      <c r="EM36" s="48"/>
+      <c r="EN36" s="48"/>
+      <c r="EO36" s="47"/>
+      <c r="EP36" s="47"/>
+      <c r="EQ36" s="48"/>
+      <c r="ER36" s="48"/>
+      <c r="ES36" s="48"/>
+      <c r="ET36" s="48"/>
+      <c r="EU36" s="48"/>
+      <c r="EV36" s="47"/>
+      <c r="EW36" s="47"/>
+      <c r="EX36" s="48"/>
+      <c r="EY36" s="48"/>
+      <c r="EZ36" s="48"/>
     </row>
-    <row r="30" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="48"/>
-      <c r="C30" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="57">
+    <row r="37" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="43"/>
+      <c r="C37" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="52">
         <v>1</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J37" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="61"/>
+      <c r="BN37" s="49"/>
+      <c r="BO37" s="51"/>
+      <c r="BP37" s="50"/>
+      <c r="BQ37" s="49"/>
+      <c r="BR37" s="49"/>
+      <c r="BS37" s="49"/>
+      <c r="BT37" s="49"/>
+      <c r="BU37" s="49"/>
+      <c r="BV37" s="50"/>
+      <c r="BW37" s="51"/>
+      <c r="BX37" s="49"/>
+      <c r="BY37" s="49"/>
+      <c r="BZ37" s="49"/>
+      <c r="CA37" s="49"/>
+      <c r="CB37" s="49"/>
+      <c r="CC37" s="50"/>
+      <c r="CD37" s="51"/>
+      <c r="CE37" s="49"/>
+      <c r="CF37" s="49"/>
+      <c r="CG37" s="49"/>
+      <c r="CH37" s="49"/>
+      <c r="CI37" s="44"/>
+      <c r="CJ37" s="50"/>
+      <c r="CK37" s="50"/>
+      <c r="CL37" s="45"/>
+      <c r="CM37" s="49"/>
+      <c r="CN37" s="49"/>
+      <c r="CO37" s="49"/>
+      <c r="CP37" s="49"/>
+      <c r="CQ37" s="50"/>
+      <c r="CR37" s="51"/>
+      <c r="CS37" s="50"/>
+      <c r="CT37" s="50"/>
+      <c r="CU37" s="50"/>
+      <c r="CV37" s="49"/>
+      <c r="CW37" s="49"/>
+      <c r="CX37" s="50"/>
+      <c r="CY37" s="51"/>
+      <c r="CZ37" s="49"/>
+      <c r="DA37" s="49"/>
+      <c r="DB37" s="49"/>
+      <c r="DC37" s="49"/>
+      <c r="DD37" s="49"/>
+      <c r="DE37" s="50"/>
+      <c r="DF37" s="51"/>
+      <c r="DG37" s="49"/>
+      <c r="DH37" s="49"/>
+      <c r="DI37" s="49"/>
+      <c r="DJ37" s="49"/>
+      <c r="DK37" s="49"/>
+      <c r="DL37" s="50"/>
+      <c r="DM37" s="51"/>
+      <c r="DN37" s="49"/>
+      <c r="DO37" s="49"/>
+      <c r="DP37" s="49"/>
+      <c r="DQ37" s="49"/>
+      <c r="DR37" s="49"/>
+      <c r="DS37" s="50"/>
+      <c r="DT37" s="51"/>
+      <c r="DU37" s="49"/>
+      <c r="DV37" s="49"/>
+      <c r="DW37" s="46"/>
+      <c r="DX37" s="46"/>
+      <c r="DY37" s="46"/>
+      <c r="DZ37" s="47"/>
+      <c r="EA37" s="47"/>
+      <c r="EB37" s="48"/>
+      <c r="EC37" s="48"/>
+      <c r="ED37" s="48"/>
+      <c r="EE37" s="48"/>
+      <c r="EF37" s="48"/>
+      <c r="EG37" s="47"/>
+      <c r="EH37" s="47"/>
+      <c r="EI37" s="48"/>
+      <c r="EJ37" s="48"/>
+      <c r="EK37" s="48"/>
+      <c r="EL37" s="48"/>
+      <c r="EM37" s="48"/>
+      <c r="EN37" s="48"/>
+      <c r="EO37" s="47"/>
+      <c r="EP37" s="47"/>
+      <c r="EQ37" s="48"/>
+      <c r="ER37" s="48"/>
+      <c r="ES37" s="48"/>
+      <c r="ET37" s="48"/>
+      <c r="EU37" s="48"/>
+      <c r="EV37" s="47"/>
+      <c r="EW37" s="47"/>
+      <c r="EX37" s="48"/>
+      <c r="EY37" s="48"/>
+      <c r="EZ37" s="48"/>
+    </row>
+    <row r="38" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="43"/>
+      <c r="C38" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="58">
-        <v>2</v>
-      </c>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB30" s="65"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="66"/>
-      <c r="BN30" s="54"/>
-      <c r="BO30" s="56"/>
-      <c r="BP30" s="55"/>
-      <c r="BQ30" s="54"/>
-      <c r="BR30" s="54"/>
-      <c r="BS30" s="54"/>
-      <c r="BT30" s="54"/>
-      <c r="BU30" s="54"/>
-      <c r="BV30" s="55"/>
-      <c r="BW30" s="56"/>
-      <c r="BX30" s="54"/>
-      <c r="BY30" s="54"/>
-      <c r="BZ30" s="54"/>
-      <c r="CA30" s="54"/>
-      <c r="CB30" s="54"/>
-      <c r="CC30" s="55"/>
-      <c r="CD30" s="56"/>
-      <c r="CE30" s="54"/>
-      <c r="CF30" s="54"/>
-      <c r="CG30" s="54"/>
-      <c r="CH30" s="54"/>
-      <c r="CI30" s="54"/>
-      <c r="CJ30" s="55"/>
-      <c r="CK30" s="41"/>
-      <c r="CM30" s="54"/>
-      <c r="CN30" s="42"/>
-      <c r="CO30" s="54"/>
-      <c r="CP30" s="54"/>
-      <c r="CQ30" s="55"/>
-      <c r="CR30" s="56"/>
-      <c r="CS30" s="55"/>
-      <c r="CT30" s="55"/>
-      <c r="CU30" s="55"/>
-      <c r="CV30" s="54"/>
-      <c r="CW30" s="54"/>
-      <c r="CX30" s="55"/>
-      <c r="CY30" s="56"/>
-      <c r="CZ30" s="54"/>
-      <c r="DA30" s="54"/>
-      <c r="DB30" s="54"/>
-      <c r="DC30" s="54"/>
-      <c r="DD30" s="54"/>
-      <c r="DE30" s="55"/>
-      <c r="DF30" s="56"/>
-      <c r="DG30" s="54"/>
-      <c r="DH30" s="54"/>
-      <c r="DI30" s="54"/>
-      <c r="DJ30" s="54"/>
-      <c r="DK30" s="54"/>
-      <c r="DL30" s="55"/>
-      <c r="DM30" s="56"/>
-      <c r="DN30" s="54"/>
-      <c r="DO30" s="54"/>
-      <c r="DP30" s="54"/>
-      <c r="DQ30" s="54"/>
-      <c r="DR30" s="54"/>
-      <c r="DS30" s="55"/>
-      <c r="DT30" s="56"/>
-      <c r="DU30" s="54"/>
-      <c r="DV30" s="54"/>
-      <c r="DW30" s="51"/>
-      <c r="DX30" s="51"/>
-      <c r="DY30" s="51"/>
-      <c r="DZ30" s="52"/>
-      <c r="EA30" s="52"/>
-      <c r="EB30" s="53"/>
-      <c r="EC30" s="53"/>
-      <c r="ED30" s="53"/>
-      <c r="EE30" s="53"/>
-      <c r="EF30" s="53"/>
-      <c r="EG30" s="52"/>
-      <c r="EH30" s="52"/>
-      <c r="EI30" s="53"/>
-      <c r="EJ30" s="53"/>
-      <c r="EK30" s="53"/>
-      <c r="EL30" s="53"/>
-      <c r="EM30" s="53"/>
-      <c r="EN30" s="53"/>
-      <c r="EO30" s="52"/>
-      <c r="EP30" s="52"/>
-      <c r="EQ30" s="53"/>
-      <c r="ER30" s="53"/>
-      <c r="ES30" s="53"/>
-      <c r="ET30" s="53"/>
-      <c r="EU30" s="53"/>
-      <c r="EV30" s="52"/>
-      <c r="EW30" s="52"/>
-      <c r="EX30" s="53"/>
-      <c r="EY30" s="53"/>
-      <c r="EZ30" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="52">
+        <v>1</v>
+      </c>
+      <c r="J38" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="53">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="61"/>
+      <c r="BN38" s="49"/>
+      <c r="BO38" s="51"/>
+      <c r="BP38" s="50"/>
+      <c r="BQ38" s="49"/>
+      <c r="BR38" s="49"/>
+      <c r="BS38" s="49"/>
+      <c r="BT38" s="49"/>
+      <c r="BU38" s="49"/>
+      <c r="BV38" s="50"/>
+      <c r="BW38" s="51"/>
+      <c r="BX38" s="49"/>
+      <c r="BY38" s="49"/>
+      <c r="BZ38" s="49"/>
+      <c r="CA38" s="49"/>
+      <c r="CB38" s="49"/>
+      <c r="CC38" s="50"/>
+      <c r="CD38" s="51"/>
+      <c r="CE38" s="49"/>
+      <c r="CF38" s="49"/>
+      <c r="CG38" s="49"/>
+      <c r="CH38" s="49"/>
+      <c r="CI38" s="49"/>
+      <c r="CJ38" s="50"/>
+      <c r="CK38" s="50"/>
+      <c r="CL38" s="44"/>
+      <c r="CM38" s="49"/>
+      <c r="CN38" s="49"/>
+      <c r="CO38" s="45"/>
+      <c r="CP38" s="49"/>
+      <c r="CQ38" s="50"/>
+      <c r="CR38" s="51"/>
+      <c r="CS38" s="50"/>
+      <c r="CT38" s="50"/>
+      <c r="CU38" s="50"/>
+      <c r="CV38" s="49"/>
+      <c r="CW38" s="49"/>
+      <c r="CX38" s="50"/>
+      <c r="CY38" s="51"/>
+      <c r="CZ38" s="49"/>
+      <c r="DA38" s="49"/>
+      <c r="DB38" s="49"/>
+      <c r="DC38" s="49"/>
+      <c r="DD38" s="49"/>
+      <c r="DE38" s="50"/>
+      <c r="DF38" s="51"/>
+      <c r="DG38" s="49"/>
+      <c r="DH38" s="49"/>
+      <c r="DI38" s="49"/>
+      <c r="DJ38" s="49"/>
+      <c r="DK38" s="49"/>
+      <c r="DL38" s="50"/>
+      <c r="DM38" s="51"/>
+      <c r="DN38" s="49"/>
+      <c r="DO38" s="49"/>
+      <c r="DP38" s="49"/>
+      <c r="DQ38" s="49"/>
+      <c r="DR38" s="49"/>
+      <c r="DS38" s="50"/>
+      <c r="DT38" s="51"/>
+      <c r="DU38" s="49"/>
+      <c r="DV38" s="49"/>
+      <c r="DW38" s="46"/>
+      <c r="DX38" s="46"/>
+      <c r="DY38" s="46"/>
+      <c r="DZ38" s="47"/>
+      <c r="EA38" s="47"/>
+      <c r="EB38" s="48"/>
+      <c r="EC38" s="48"/>
+      <c r="ED38" s="48"/>
+      <c r="EE38" s="48"/>
+      <c r="EF38" s="48"/>
+      <c r="EG38" s="47"/>
+      <c r="EH38" s="47"/>
+      <c r="EI38" s="48"/>
+      <c r="EJ38" s="48"/>
+      <c r="EK38" s="48"/>
+      <c r="EL38" s="48"/>
+      <c r="EM38" s="48"/>
+      <c r="EN38" s="48"/>
+      <c r="EO38" s="47"/>
+      <c r="EP38" s="47"/>
+      <c r="EQ38" s="48"/>
+      <c r="ER38" s="48"/>
+      <c r="ES38" s="48"/>
+      <c r="ET38" s="48"/>
+      <c r="EU38" s="48"/>
+      <c r="EV38" s="47"/>
+      <c r="EW38" s="47"/>
+      <c r="EX38" s="48"/>
+      <c r="EY38" s="48"/>
+      <c r="EZ38" s="48"/>
     </row>
-    <row r="31" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="48"/>
-      <c r="C31" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="57">
+    <row r="39" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="43"/>
+      <c r="C39" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="54"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="52">
         <v>1</v>
       </c>
-      <c r="J31" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="58">
+      <c r="J39" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="53">
         <v>3</v>
       </c>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="66"/>
-      <c r="BN31" s="54"/>
-      <c r="BO31" s="56"/>
-      <c r="BP31" s="55"/>
-      <c r="BQ31" s="54"/>
-      <c r="BR31" s="54"/>
-      <c r="BS31" s="54"/>
-      <c r="BT31" s="54"/>
-      <c r="BU31" s="54"/>
-      <c r="BV31" s="55"/>
-      <c r="BW31" s="56"/>
-      <c r="BX31" s="54"/>
-      <c r="BY31" s="54"/>
-      <c r="BZ31" s="54"/>
-      <c r="CA31" s="54"/>
-      <c r="CB31" s="54"/>
-      <c r="CC31" s="55"/>
-      <c r="CD31" s="56"/>
-      <c r="CE31" s="54"/>
-      <c r="CF31" s="54"/>
-      <c r="CG31" s="54"/>
-      <c r="CH31" s="54"/>
-      <c r="CI31" s="54"/>
-      <c r="CJ31" s="55"/>
-      <c r="CK31" s="56"/>
-      <c r="CL31" s="54"/>
-      <c r="CM31" s="54"/>
-      <c r="CN31" s="41"/>
-      <c r="CO31" s="54"/>
-      <c r="CP31" s="54"/>
-      <c r="CQ31" s="55"/>
-      <c r="CR31" s="42"/>
-      <c r="CS31" s="55"/>
-      <c r="CT31" s="55"/>
-      <c r="CU31" s="55"/>
-      <c r="CV31" s="54"/>
-      <c r="CW31" s="54"/>
-      <c r="CX31" s="55"/>
-      <c r="CY31" s="56"/>
-      <c r="CZ31" s="54"/>
-      <c r="DA31" s="54"/>
-      <c r="DB31" s="54"/>
-      <c r="DC31" s="54"/>
-      <c r="DD31" s="54"/>
-      <c r="DE31" s="55"/>
-      <c r="DF31" s="56"/>
-      <c r="DG31" s="54"/>
-      <c r="DH31" s="54"/>
-      <c r="DI31" s="54"/>
-      <c r="DJ31" s="54"/>
-      <c r="DK31" s="54"/>
-      <c r="DL31" s="55"/>
-      <c r="DM31" s="56"/>
-      <c r="DN31" s="54"/>
-      <c r="DO31" s="54"/>
-      <c r="DP31" s="54"/>
-      <c r="DQ31" s="54"/>
-      <c r="DR31" s="54"/>
-      <c r="DS31" s="55"/>
-      <c r="DT31" s="56"/>
-      <c r="DU31" s="54"/>
-      <c r="DV31" s="54"/>
-      <c r="DW31" s="51"/>
-      <c r="DX31" s="51"/>
-      <c r="DY31" s="51"/>
-      <c r="DZ31" s="52"/>
-      <c r="EA31" s="52"/>
-      <c r="EB31" s="53"/>
-      <c r="EC31" s="53"/>
-      <c r="ED31" s="53"/>
-      <c r="EE31" s="53"/>
-      <c r="EF31" s="53"/>
-      <c r="EG31" s="52"/>
-      <c r="EH31" s="52"/>
-      <c r="EI31" s="53"/>
-      <c r="EJ31" s="53"/>
-      <c r="EK31" s="53"/>
-      <c r="EL31" s="53"/>
-      <c r="EM31" s="53"/>
-      <c r="EN31" s="53"/>
-      <c r="EO31" s="52"/>
-      <c r="EP31" s="52"/>
-      <c r="EQ31" s="53"/>
-      <c r="ER31" s="53"/>
-      <c r="ES31" s="53"/>
-      <c r="ET31" s="53"/>
-      <c r="EU31" s="53"/>
-      <c r="EV31" s="52"/>
-      <c r="EW31" s="52"/>
-      <c r="EX31" s="53"/>
-      <c r="EY31" s="53"/>
-      <c r="EZ31" s="53"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="61"/>
+      <c r="BN39" s="49"/>
+      <c r="BO39" s="51"/>
+      <c r="BP39" s="50"/>
+      <c r="BQ39" s="49"/>
+      <c r="BR39" s="49"/>
+      <c r="BS39" s="49"/>
+      <c r="BT39" s="49"/>
+      <c r="BU39" s="49"/>
+      <c r="BV39" s="50"/>
+      <c r="BW39" s="51"/>
+      <c r="BX39" s="49"/>
+      <c r="BY39" s="49"/>
+      <c r="BZ39" s="49"/>
+      <c r="CA39" s="49"/>
+      <c r="CB39" s="49"/>
+      <c r="CC39" s="50"/>
+      <c r="CD39" s="51"/>
+      <c r="CE39" s="49"/>
+      <c r="CF39" s="49"/>
+      <c r="CG39" s="49"/>
+      <c r="CI39" s="44"/>
+      <c r="CJ39" s="51"/>
+      <c r="CK39" s="50"/>
+      <c r="CL39" s="45"/>
+      <c r="CM39" s="49"/>
+      <c r="CN39" s="49"/>
+      <c r="CO39" s="49"/>
+      <c r="CP39" s="49"/>
+      <c r="CQ39" s="50"/>
+      <c r="CR39" s="51"/>
+      <c r="CS39" s="50"/>
     </row>
-    <row r="32" spans="1:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="48"/>
-      <c r="C32" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="57">
+    <row r="40" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="43"/>
+      <c r="C40" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="54"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="52">
         <v>1</v>
       </c>
-      <c r="J32" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="58">
+      <c r="J40" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="53">
         <v>3</v>
       </c>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="66"/>
-      <c r="BN32" s="54"/>
-      <c r="BO32" s="56"/>
-      <c r="BP32" s="55"/>
-      <c r="BQ32" s="54"/>
-      <c r="BR32" s="54"/>
-      <c r="BS32" s="54"/>
-      <c r="BT32" s="54"/>
-      <c r="BU32" s="54"/>
-      <c r="BV32" s="55"/>
-      <c r="BW32" s="56"/>
-      <c r="BX32" s="54"/>
-      <c r="BY32" s="54"/>
-      <c r="BZ32" s="54"/>
-      <c r="CA32" s="54"/>
-      <c r="CB32" s="54"/>
-      <c r="CC32" s="55"/>
-      <c r="CD32" s="56"/>
-      <c r="CE32" s="54"/>
-      <c r="CF32" s="54"/>
-      <c r="CG32" s="54"/>
-      <c r="CH32" s="54"/>
-      <c r="CI32" s="54"/>
-      <c r="CJ32" s="55"/>
-      <c r="CK32" s="56"/>
-      <c r="CL32" s="54"/>
-      <c r="CM32" s="49"/>
-      <c r="CN32" s="54"/>
-      <c r="CO32" s="54"/>
-      <c r="CP32" s="50"/>
-      <c r="CQ32" s="55"/>
-      <c r="CR32" s="56"/>
-      <c r="CS32" s="55"/>
-      <c r="CT32" s="55"/>
-      <c r="CU32" s="55"/>
-      <c r="CV32" s="54"/>
-      <c r="CW32" s="54"/>
-      <c r="CX32" s="55"/>
-      <c r="CY32" s="56"/>
-      <c r="CZ32" s="54"/>
-      <c r="DA32" s="54"/>
-      <c r="DB32" s="54"/>
-      <c r="DC32" s="54"/>
-      <c r="DD32" s="54"/>
-      <c r="DE32" s="55"/>
-      <c r="DF32" s="56"/>
-      <c r="DG32" s="54"/>
-      <c r="DH32" s="54"/>
-      <c r="DI32" s="54"/>
-      <c r="DJ32" s="54"/>
-      <c r="DK32" s="54"/>
-      <c r="DL32" s="55"/>
-      <c r="DM32" s="56"/>
-      <c r="DN32" s="54"/>
-      <c r="DO32" s="54"/>
-      <c r="DP32" s="54"/>
-      <c r="DQ32" s="54"/>
-      <c r="DR32" s="54"/>
-      <c r="DS32" s="55"/>
-      <c r="DT32" s="56"/>
-      <c r="DU32" s="54"/>
-      <c r="DV32" s="54"/>
-      <c r="DW32" s="51"/>
-      <c r="DX32" s="51"/>
-      <c r="DY32" s="51"/>
-      <c r="DZ32" s="52"/>
-      <c r="EA32" s="52"/>
-      <c r="EB32" s="53"/>
-      <c r="EC32" s="53"/>
-      <c r="ED32" s="53"/>
-      <c r="EE32" s="53"/>
-      <c r="EF32" s="53"/>
-      <c r="EG32" s="52"/>
-      <c r="EH32" s="52"/>
-      <c r="EI32" s="53"/>
-      <c r="EJ32" s="53"/>
-      <c r="EK32" s="53"/>
-      <c r="EL32" s="53"/>
-      <c r="EM32" s="53"/>
-      <c r="EN32" s="53"/>
-      <c r="EO32" s="52"/>
-      <c r="EP32" s="52"/>
-      <c r="EQ32" s="53"/>
-      <c r="ER32" s="53"/>
-      <c r="ES32" s="53"/>
-      <c r="ET32" s="53"/>
-      <c r="EU32" s="53"/>
-      <c r="EV32" s="52"/>
-      <c r="EW32" s="52"/>
-      <c r="EX32" s="53"/>
-      <c r="EY32" s="53"/>
-      <c r="EZ32" s="53"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="61"/>
+      <c r="BN40" s="49"/>
+      <c r="BO40" s="51"/>
+      <c r="BP40" s="50"/>
+      <c r="BQ40" s="49"/>
+      <c r="BR40" s="49"/>
+      <c r="BS40" s="49"/>
+      <c r="BT40" s="49"/>
+      <c r="BU40" s="49"/>
+      <c r="BV40" s="50"/>
+      <c r="BW40" s="51"/>
+      <c r="BX40" s="49"/>
+      <c r="BY40" s="49"/>
+      <c r="BZ40" s="49"/>
+      <c r="CA40" s="49"/>
+      <c r="CB40" s="49"/>
+      <c r="CC40" s="50"/>
+      <c r="CD40" s="51"/>
+      <c r="CE40" s="49"/>
+      <c r="CF40" s="49"/>
+      <c r="CG40" s="49"/>
+      <c r="CH40" s="49"/>
+      <c r="CI40" s="49"/>
+      <c r="CJ40" s="50"/>
+      <c r="CK40" s="50"/>
+      <c r="CL40" s="44"/>
+      <c r="CM40" s="49"/>
+      <c r="CN40" s="49"/>
+      <c r="CO40" s="45"/>
+      <c r="CP40" s="49"/>
+      <c r="CQ40" s="50"/>
+      <c r="CR40" s="51"/>
+      <c r="CS40" s="50"/>
     </row>
-    <row r="33" spans="2:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="48"/>
-      <c r="C33" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="57">
-        <v>2</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="58">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB33" s="65"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="66"/>
-      <c r="BN33" s="54"/>
-      <c r="BO33" s="56"/>
-      <c r="BP33" s="55"/>
-      <c r="BQ33" s="54"/>
-      <c r="BR33" s="54"/>
-      <c r="BS33" s="54"/>
-      <c r="BT33" s="54"/>
-      <c r="BU33" s="54"/>
-      <c r="BV33" s="55"/>
-      <c r="BW33" s="56"/>
-      <c r="BX33" s="54"/>
-      <c r="BY33" s="54"/>
-      <c r="BZ33" s="54"/>
-      <c r="CA33" s="54"/>
-      <c r="CB33" s="54"/>
-      <c r="CC33" s="55"/>
-      <c r="CD33" s="56"/>
-      <c r="CE33" s="54"/>
-      <c r="CF33" s="54"/>
-      <c r="CG33" s="54"/>
-      <c r="CH33" s="54"/>
-      <c r="CI33" s="54"/>
-      <c r="CJ33" s="56"/>
-      <c r="CK33" s="56"/>
-      <c r="CL33" s="54"/>
-      <c r="CM33" s="54"/>
-      <c r="CN33" s="54"/>
-      <c r="CO33" s="49"/>
-      <c r="CP33" s="54"/>
-      <c r="CQ33" s="54"/>
-      <c r="CR33" s="54"/>
-      <c r="CS33" s="50"/>
-      <c r="CT33" s="55"/>
-      <c r="CU33" s="55"/>
-      <c r="CV33" s="54"/>
-      <c r="CW33" s="54"/>
-      <c r="CX33" s="55"/>
-      <c r="CY33" s="56"/>
-      <c r="CZ33" s="54"/>
-      <c r="DA33" s="54"/>
-      <c r="DB33" s="54"/>
-      <c r="DC33" s="54"/>
-      <c r="DD33" s="54"/>
-      <c r="DE33" s="55"/>
-      <c r="DF33" s="56"/>
-      <c r="DG33" s="54"/>
-      <c r="DH33" s="54"/>
-      <c r="DI33" s="54"/>
-      <c r="DJ33" s="54"/>
-      <c r="DK33" s="54"/>
-      <c r="DL33" s="55"/>
-      <c r="DM33" s="56"/>
-      <c r="DN33" s="54"/>
-      <c r="DO33" s="54"/>
-      <c r="DP33" s="54"/>
-      <c r="DQ33" s="54"/>
-      <c r="DR33" s="54"/>
-      <c r="DS33" s="55"/>
-      <c r="DT33" s="56"/>
-      <c r="DU33" s="54"/>
-      <c r="DV33" s="54"/>
-      <c r="DW33" s="51"/>
-      <c r="DX33" s="51"/>
-      <c r="DY33" s="51"/>
-      <c r="DZ33" s="52"/>
-      <c r="EA33" s="52"/>
-      <c r="EB33" s="53"/>
-      <c r="EC33" s="53"/>
-      <c r="ED33" s="53"/>
-      <c r="EE33" s="53"/>
-      <c r="EF33" s="53"/>
-      <c r="EG33" s="52"/>
-      <c r="EH33" s="52"/>
-      <c r="EI33" s="53"/>
-      <c r="EJ33" s="53"/>
-      <c r="EK33" s="53"/>
-      <c r="EL33" s="53"/>
-      <c r="EM33" s="53"/>
-      <c r="EN33" s="53"/>
-      <c r="EO33" s="52"/>
-      <c r="EP33" s="52"/>
-      <c r="EQ33" s="53"/>
-      <c r="ER33" s="53"/>
-      <c r="ES33" s="53"/>
-      <c r="ET33" s="53"/>
-      <c r="EU33" s="53"/>
-      <c r="EV33" s="52"/>
-      <c r="EW33" s="52"/>
-      <c r="EX33" s="53"/>
-      <c r="EY33" s="53"/>
-      <c r="EZ33" s="53"/>
+    <row r="41" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="43"/>
     </row>
-    <row r="34" spans="2:156" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="48"/>
-      <c r="C34" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="57">
-        <v>1</v>
-      </c>
-      <c r="J34" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="58">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB34" s="65"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="66"/>
-      <c r="BN34" s="54"/>
-      <c r="BO34" s="56"/>
-      <c r="BP34" s="55"/>
-      <c r="BQ34" s="54"/>
-      <c r="BR34" s="54"/>
-      <c r="BS34" s="54"/>
-      <c r="BT34" s="54"/>
-      <c r="BU34" s="54"/>
-      <c r="BV34" s="55"/>
-      <c r="BW34" s="56"/>
-      <c r="BX34" s="54"/>
-      <c r="BY34" s="54"/>
-      <c r="BZ34" s="54"/>
-      <c r="CA34" s="54"/>
-      <c r="CB34" s="54"/>
-      <c r="CC34" s="55"/>
-      <c r="CD34" s="56"/>
-      <c r="CE34" s="54"/>
-      <c r="CF34" s="54"/>
-      <c r="CG34" s="54"/>
-      <c r="CH34" s="54"/>
-      <c r="CI34" s="54"/>
-      <c r="CJ34" s="56"/>
-      <c r="CK34" s="49"/>
-      <c r="CL34" s="54"/>
-      <c r="CM34" s="54"/>
-      <c r="CN34" s="54"/>
-      <c r="CO34" s="50"/>
-      <c r="CP34" s="54"/>
-      <c r="CQ34" s="55"/>
-      <c r="CR34" s="56"/>
-      <c r="CS34" s="55"/>
-      <c r="CT34" s="55"/>
-      <c r="CU34" s="55"/>
-      <c r="CV34" s="54"/>
-      <c r="CW34" s="54"/>
-      <c r="CX34" s="55"/>
-      <c r="CY34" s="56"/>
-      <c r="CZ34" s="54"/>
-      <c r="DA34" s="54"/>
-      <c r="DB34" s="54"/>
-      <c r="DC34" s="54"/>
-      <c r="DD34" s="54"/>
-      <c r="DE34" s="55"/>
-      <c r="DF34" s="56"/>
-      <c r="DG34" s="54"/>
-      <c r="DH34" s="54"/>
-      <c r="DI34" s="54"/>
-      <c r="DJ34" s="54"/>
-      <c r="DK34" s="54"/>
-      <c r="DL34" s="55"/>
-      <c r="DM34" s="56"/>
-      <c r="DN34" s="54"/>
-      <c r="DO34" s="54"/>
-      <c r="DP34" s="54"/>
-      <c r="DQ34" s="54"/>
-      <c r="DR34" s="54"/>
-      <c r="DS34" s="55"/>
-      <c r="DT34" s="56"/>
-      <c r="DU34" s="54"/>
-      <c r="DV34" s="54"/>
-      <c r="DW34" s="51"/>
-      <c r="DX34" s="51"/>
-      <c r="DY34" s="51"/>
-      <c r="DZ34" s="52"/>
-      <c r="EA34" s="52"/>
-      <c r="EB34" s="53"/>
-      <c r="EC34" s="53"/>
-      <c r="ED34" s="53"/>
-      <c r="EE34" s="53"/>
-      <c r="EF34" s="53"/>
-      <c r="EG34" s="52"/>
-      <c r="EH34" s="52"/>
-      <c r="EI34" s="53"/>
-      <c r="EJ34" s="53"/>
-      <c r="EK34" s="53"/>
-      <c r="EL34" s="53"/>
-      <c r="EM34" s="53"/>
-      <c r="EN34" s="53"/>
-      <c r="EO34" s="52"/>
-      <c r="EP34" s="52"/>
-      <c r="EQ34" s="53"/>
-      <c r="ER34" s="53"/>
-      <c r="ES34" s="53"/>
-      <c r="ET34" s="53"/>
-      <c r="EU34" s="53"/>
-      <c r="EV34" s="52"/>
-      <c r="EW34" s="52"/>
-      <c r="EX34" s="53"/>
-      <c r="EY34" s="53"/>
-      <c r="EZ34" s="53"/>
+    <row r="42" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="43"/>
+    </row>
+    <row r="43" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="43"/>
+    </row>
+    <row r="44" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="43"/>
+    </row>
+    <row r="45" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="43"/>
+    </row>
+    <row r="46" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="43"/>
+    </row>
+    <row r="47" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="43"/>
+    </row>
+    <row r="48" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="43"/>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="43"/>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="43"/>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="C3:AD34">
+  <autoFilter ref="C3:AD38">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="3" showButton="0">
-      <filters>
-        <filter val="demo"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
@@ -6736,75 +7477,142 @@
     <filterColumn colId="19" showButton="0"/>
     <filterColumn colId="21" showButton="0"/>
     <filterColumn colId="22" showButton="0"/>
-    <filterColumn colId="24" showButton="0">
-      <filters>
-        <filter val="张俊"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="24" showButton="0"/>
     <filterColumn colId="25" showButton="0"/>
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
-  <mergeCells count="186">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="ER2:EX2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="CZ2:DF2"/>
-    <mergeCell ref="DG2:DM2"/>
-    <mergeCell ref="DN2:DT2"/>
-    <mergeCell ref="DW2:EC2"/>
-    <mergeCell ref="ED2:EJ2"/>
-    <mergeCell ref="EK2:EQ2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BN1:CR1"/>
-    <mergeCell ref="CS1:DV1"/>
-    <mergeCell ref="BX2:CD2"/>
-    <mergeCell ref="CE2:CK2"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CS2:CY2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
+  <mergeCells count="216">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="J39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="J37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="J31:W31"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="J36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="J35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="J34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AD34"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="AA31:AD31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J30:W30"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:W22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AD23"/>
     <mergeCell ref="DW1:EZ1"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -6829,108 +7637,67 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="J20:W20"/>
     <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="BN1:CR1"/>
+    <mergeCell ref="CS1:DV1"/>
+    <mergeCell ref="BX2:CD2"/>
+    <mergeCell ref="CE2:CK2"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CS2:CY2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="ER2:EX2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="CZ2:DF2"/>
+    <mergeCell ref="DG2:DM2"/>
+    <mergeCell ref="DN2:DT2"/>
+    <mergeCell ref="DW2:EC2"/>
+    <mergeCell ref="ED2:EJ2"/>
+    <mergeCell ref="EK2:EQ2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="J12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="J7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:W10"/>
+    <mergeCell ref="X10:Z10"/>
     <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:W22"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="J28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="J34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="J30:W30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="J31:W31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X2">

--- a/版本计划表.xlsx
+++ b/版本计划表.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
   <si>
     <t>《暴走萌宠》研发进度规划及版本计划</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -417,46 +417,6 @@
   </si>
   <si>
     <t>第三方录制集成，实现录制视频功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【服务器】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录API制作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈鹏飞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册API制作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄志伟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程展示API制作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐器讯息API制作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投诉建议API制作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们API、帮助中心API制作</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -997,7 +957,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,9 +1062,6 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1180,12 +1137,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,36 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1590,13 +1547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ51"/>
+  <dimension ref="A1:EZ45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="BW4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CD22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CN24" sqref="CN24"/>
+      <selection pane="bottomRight" activeCell="CP29" sqref="CP29:CR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1640,174 +1597,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:156" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="78" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74" t="s">
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="74"/>
-      <c r="BC1" s="74"/>
-      <c r="BD1" s="74"/>
-      <c r="BE1" s="74"/>
-      <c r="BF1" s="74"/>
-      <c r="BG1" s="74"/>
-      <c r="BH1" s="74"/>
-      <c r="BI1" s="74"/>
-      <c r="BJ1" s="74"/>
-      <c r="BK1" s="74"/>
-      <c r="BL1" s="74"/>
-      <c r="BM1" s="74"/>
-      <c r="BN1" s="74" t="s">
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="BO1" s="74"/>
-      <c r="BP1" s="74"/>
-      <c r="BQ1" s="74"/>
-      <c r="BR1" s="74"/>
-      <c r="BS1" s="74"/>
-      <c r="BT1" s="74"/>
-      <c r="BU1" s="74"/>
-      <c r="BV1" s="74"/>
-      <c r="BW1" s="74"/>
-      <c r="BX1" s="74"/>
-      <c r="BY1" s="74"/>
-      <c r="BZ1" s="74"/>
-      <c r="CA1" s="74"/>
-      <c r="CB1" s="74"/>
-      <c r="CC1" s="74"/>
-      <c r="CD1" s="74"/>
-      <c r="CE1" s="74"/>
-      <c r="CF1" s="74"/>
-      <c r="CG1" s="74"/>
-      <c r="CH1" s="74"/>
-      <c r="CI1" s="74"/>
-      <c r="CJ1" s="74"/>
-      <c r="CK1" s="74"/>
-      <c r="CL1" s="74"/>
-      <c r="CM1" s="74"/>
-      <c r="CN1" s="74"/>
-      <c r="CO1" s="74"/>
-      <c r="CP1" s="74"/>
-      <c r="CQ1" s="74"/>
-      <c r="CR1" s="74"/>
-      <c r="CS1" s="75" t="s">
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
+      <c r="BR1" s="68"/>
+      <c r="BS1" s="68"/>
+      <c r="BT1" s="68"/>
+      <c r="BU1" s="68"/>
+      <c r="BV1" s="68"/>
+      <c r="BW1" s="68"/>
+      <c r="BX1" s="68"/>
+      <c r="BY1" s="68"/>
+      <c r="BZ1" s="68"/>
+      <c r="CA1" s="68"/>
+      <c r="CB1" s="68"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="68"/>
+      <c r="CF1" s="68"/>
+      <c r="CG1" s="68"/>
+      <c r="CH1" s="68"/>
+      <c r="CI1" s="68"/>
+      <c r="CJ1" s="68"/>
+      <c r="CK1" s="68"/>
+      <c r="CL1" s="68"/>
+      <c r="CM1" s="68"/>
+      <c r="CN1" s="68"/>
+      <c r="CO1" s="68"/>
+      <c r="CP1" s="68"/>
+      <c r="CQ1" s="68"/>
+      <c r="CR1" s="68"/>
+      <c r="CS1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="CT1" s="76"/>
-      <c r="CU1" s="76"/>
-      <c r="CV1" s="76"/>
-      <c r="CW1" s="76"/>
-      <c r="CX1" s="76"/>
-      <c r="CY1" s="76"/>
-      <c r="CZ1" s="76"/>
-      <c r="DA1" s="76"/>
-      <c r="DB1" s="76"/>
-      <c r="DC1" s="76"/>
-      <c r="DD1" s="76"/>
-      <c r="DE1" s="76"/>
-      <c r="DF1" s="76"/>
-      <c r="DG1" s="76"/>
-      <c r="DH1" s="76"/>
-      <c r="DI1" s="76"/>
-      <c r="DJ1" s="76"/>
-      <c r="DK1" s="76"/>
-      <c r="DL1" s="76"/>
-      <c r="DM1" s="76"/>
-      <c r="DN1" s="76"/>
-      <c r="DO1" s="76"/>
-      <c r="DP1" s="76"/>
-      <c r="DQ1" s="76"/>
-      <c r="DR1" s="76"/>
-      <c r="DS1" s="76"/>
-      <c r="DT1" s="76"/>
-      <c r="DU1" s="76"/>
-      <c r="DV1" s="77"/>
-      <c r="DW1" s="75" t="s">
+      <c r="CT1" s="62"/>
+      <c r="CU1" s="62"/>
+      <c r="CV1" s="62"/>
+      <c r="CW1" s="62"/>
+      <c r="CX1" s="62"/>
+      <c r="CY1" s="62"/>
+      <c r="CZ1" s="62"/>
+      <c r="DA1" s="62"/>
+      <c r="DB1" s="62"/>
+      <c r="DC1" s="62"/>
+      <c r="DD1" s="62"/>
+      <c r="DE1" s="62"/>
+      <c r="DF1" s="62"/>
+      <c r="DG1" s="62"/>
+      <c r="DH1" s="62"/>
+      <c r="DI1" s="62"/>
+      <c r="DJ1" s="62"/>
+      <c r="DK1" s="62"/>
+      <c r="DL1" s="62"/>
+      <c r="DM1" s="62"/>
+      <c r="DN1" s="62"/>
+      <c r="DO1" s="62"/>
+      <c r="DP1" s="62"/>
+      <c r="DQ1" s="62"/>
+      <c r="DR1" s="62"/>
+      <c r="DS1" s="62"/>
+      <c r="DT1" s="62"/>
+      <c r="DU1" s="62"/>
+      <c r="DV1" s="63"/>
+      <c r="DW1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="DX1" s="76"/>
-      <c r="DY1" s="76"/>
-      <c r="DZ1" s="76"/>
-      <c r="EA1" s="76"/>
-      <c r="EB1" s="76"/>
-      <c r="EC1" s="76"/>
-      <c r="ED1" s="76"/>
-      <c r="EE1" s="76"/>
-      <c r="EF1" s="76"/>
-      <c r="EG1" s="76"/>
-      <c r="EH1" s="76"/>
-      <c r="EI1" s="76"/>
-      <c r="EJ1" s="76"/>
-      <c r="EK1" s="76"/>
-      <c r="EL1" s="76"/>
-      <c r="EM1" s="76"/>
-      <c r="EN1" s="76"/>
-      <c r="EO1" s="76"/>
-      <c r="EP1" s="76"/>
-      <c r="EQ1" s="76"/>
-      <c r="ER1" s="76"/>
-      <c r="ES1" s="76"/>
-      <c r="ET1" s="76"/>
-      <c r="EU1" s="76"/>
-      <c r="EV1" s="76"/>
-      <c r="EW1" s="76"/>
-      <c r="EX1" s="76"/>
-      <c r="EY1" s="76"/>
-      <c r="EZ1" s="77"/>
+      <c r="DX1" s="62"/>
+      <c r="DY1" s="62"/>
+      <c r="DZ1" s="62"/>
+      <c r="EA1" s="62"/>
+      <c r="EB1" s="62"/>
+      <c r="EC1" s="62"/>
+      <c r="ED1" s="62"/>
+      <c r="EE1" s="62"/>
+      <c r="EF1" s="62"/>
+      <c r="EG1" s="62"/>
+      <c r="EH1" s="62"/>
+      <c r="EI1" s="62"/>
+      <c r="EJ1" s="62"/>
+      <c r="EK1" s="62"/>
+      <c r="EL1" s="62"/>
+      <c r="EM1" s="62"/>
+      <c r="EN1" s="62"/>
+      <c r="EO1" s="62"/>
+      <c r="EP1" s="62"/>
+      <c r="EQ1" s="62"/>
+      <c r="ER1" s="62"/>
+      <c r="ES1" s="62"/>
+      <c r="ET1" s="62"/>
+      <c r="EU1" s="62"/>
+      <c r="EV1" s="62"/>
+      <c r="EW1" s="62"/>
+      <c r="EX1" s="62"/>
+      <c r="EY1" s="62"/>
+      <c r="EZ1" s="63"/>
     </row>
     <row r="2" spans="1:156" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -1852,210 +1809,210 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="78" t="s">
+      <c r="AE2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74" t="s">
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74" t="s">
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74" t="s">
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="62" t="s">
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="BH2" s="63"/>
-      <c r="BI2" s="63"/>
-      <c r="BJ2" s="63"/>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="74"/>
-      <c r="BO2" s="74"/>
-      <c r="BP2" s="74" t="s">
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="74"/>
-      <c r="BR2" s="74"/>
-      <c r="BS2" s="74"/>
-      <c r="BT2" s="74"/>
-      <c r="BU2" s="74"/>
-      <c r="BV2" s="74"/>
-      <c r="BW2" s="74"/>
-      <c r="BX2" s="74" t="s">
+      <c r="BQ2" s="68"/>
+      <c r="BR2" s="68"/>
+      <c r="BS2" s="68"/>
+      <c r="BT2" s="68"/>
+      <c r="BU2" s="68"/>
+      <c r="BV2" s="68"/>
+      <c r="BW2" s="68"/>
+      <c r="BX2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="74"/>
-      <c r="BZ2" s="74"/>
-      <c r="CA2" s="74"/>
-      <c r="CB2" s="74"/>
-      <c r="CC2" s="74"/>
-      <c r="CD2" s="74"/>
-      <c r="CE2" s="74" t="s">
+      <c r="BY2" s="68"/>
+      <c r="BZ2" s="68"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="CF2" s="74"/>
-      <c r="CG2" s="74"/>
-      <c r="CH2" s="74"/>
-      <c r="CI2" s="74"/>
-      <c r="CJ2" s="74"/>
-      <c r="CK2" s="74"/>
-      <c r="CL2" s="74" t="s">
+      <c r="CF2" s="68"/>
+      <c r="CG2" s="68"/>
+      <c r="CH2" s="68"/>
+      <c r="CI2" s="68"/>
+      <c r="CJ2" s="68"/>
+      <c r="CK2" s="68"/>
+      <c r="CL2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="CM2" s="74"/>
-      <c r="CN2" s="74"/>
-      <c r="CO2" s="74"/>
-      <c r="CP2" s="74"/>
-      <c r="CQ2" s="74"/>
-      <c r="CR2" s="74"/>
-      <c r="CS2" s="74" t="s">
+      <c r="CM2" s="68"/>
+      <c r="CN2" s="68"/>
+      <c r="CO2" s="68"/>
+      <c r="CP2" s="68"/>
+      <c r="CQ2" s="68"/>
+      <c r="CR2" s="68"/>
+      <c r="CS2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="CT2" s="74"/>
-      <c r="CU2" s="74"/>
-      <c r="CV2" s="74"/>
-      <c r="CW2" s="74"/>
-      <c r="CX2" s="74"/>
-      <c r="CY2" s="74"/>
-      <c r="CZ2" s="74" t="s">
+      <c r="CT2" s="68"/>
+      <c r="CU2" s="68"/>
+      <c r="CV2" s="68"/>
+      <c r="CW2" s="68"/>
+      <c r="CX2" s="68"/>
+      <c r="CY2" s="68"/>
+      <c r="CZ2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="DA2" s="74"/>
-      <c r="DB2" s="74"/>
-      <c r="DC2" s="74"/>
-      <c r="DD2" s="74"/>
-      <c r="DE2" s="74"/>
-      <c r="DF2" s="74"/>
-      <c r="DG2" s="74" t="s">
+      <c r="DA2" s="68"/>
+      <c r="DB2" s="68"/>
+      <c r="DC2" s="68"/>
+      <c r="DD2" s="68"/>
+      <c r="DE2" s="68"/>
+      <c r="DF2" s="68"/>
+      <c r="DG2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="DH2" s="74"/>
-      <c r="DI2" s="74"/>
-      <c r="DJ2" s="74"/>
-      <c r="DK2" s="74"/>
-      <c r="DL2" s="74"/>
-      <c r="DM2" s="74"/>
-      <c r="DN2" s="62" t="s">
+      <c r="DH2" s="68"/>
+      <c r="DI2" s="68"/>
+      <c r="DJ2" s="68"/>
+      <c r="DK2" s="68"/>
+      <c r="DL2" s="68"/>
+      <c r="DM2" s="68"/>
+      <c r="DN2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="DO2" s="63"/>
-      <c r="DP2" s="63"/>
-      <c r="DQ2" s="63"/>
-      <c r="DR2" s="63"/>
-      <c r="DS2" s="63"/>
-      <c r="DT2" s="63"/>
+      <c r="DO2" s="71"/>
+      <c r="DP2" s="71"/>
+      <c r="DQ2" s="71"/>
+      <c r="DR2" s="71"/>
+      <c r="DS2" s="71"/>
+      <c r="DT2" s="71"/>
       <c r="DU2" s="14"/>
       <c r="DV2" s="15"/>
-      <c r="DW2" s="74" t="s">
+      <c r="DW2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="DX2" s="74"/>
-      <c r="DY2" s="74"/>
-      <c r="DZ2" s="74"/>
-      <c r="EA2" s="74"/>
-      <c r="EB2" s="74"/>
-      <c r="EC2" s="74"/>
-      <c r="ED2" s="74" t="s">
+      <c r="DX2" s="68"/>
+      <c r="DY2" s="68"/>
+      <c r="DZ2" s="68"/>
+      <c r="EA2" s="68"/>
+      <c r="EB2" s="68"/>
+      <c r="EC2" s="68"/>
+      <c r="ED2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="EE2" s="74"/>
-      <c r="EF2" s="74"/>
-      <c r="EG2" s="74"/>
-      <c r="EH2" s="74"/>
-      <c r="EI2" s="74"/>
-      <c r="EJ2" s="74"/>
-      <c r="EK2" s="74" t="s">
+      <c r="EE2" s="68"/>
+      <c r="EF2" s="68"/>
+      <c r="EG2" s="68"/>
+      <c r="EH2" s="68"/>
+      <c r="EI2" s="68"/>
+      <c r="EJ2" s="68"/>
+      <c r="EK2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="74"/>
-      <c r="EM2" s="74"/>
-      <c r="EN2" s="74"/>
-      <c r="EO2" s="74"/>
-      <c r="EP2" s="74"/>
-      <c r="EQ2" s="74"/>
-      <c r="ER2" s="62" t="s">
+      <c r="EL2" s="68"/>
+      <c r="EM2" s="68"/>
+      <c r="EN2" s="68"/>
+      <c r="EO2" s="68"/>
+      <c r="EP2" s="68"/>
+      <c r="EQ2" s="68"/>
+      <c r="ER2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="ES2" s="63"/>
-      <c r="ET2" s="63"/>
-      <c r="EU2" s="63"/>
-      <c r="EV2" s="63"/>
-      <c r="EW2" s="63"/>
-      <c r="EX2" s="63"/>
+      <c r="ES2" s="71"/>
+      <c r="ET2" s="71"/>
+      <c r="EU2" s="71"/>
+      <c r="EV2" s="71"/>
+      <c r="EW2" s="71"/>
+      <c r="EX2" s="71"/>
       <c r="EY2" s="14"/>
       <c r="EZ2" s="15"/>
     </row>
     <row r="3" spans="1:156" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="66" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="69" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="72" t="s">
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="73"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
       <c r="AE3" s="17">
         <v>15</v>
       </c>
@@ -2436,48 +2393,48 @@
       </c>
     </row>
     <row r="4" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="26">
         <v>1</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="53">
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="52">
         <v>1</v>
       </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="59" t="s">
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="61"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="60"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22"/>
       <c r="AG4" s="6"/>
@@ -2527,7 +2484,7 @@
       <c r="BY4" s="22"/>
       <c r="BZ4" s="22"/>
       <c r="CA4" s="22"/>
-      <c r="CB4" s="44"/>
+      <c r="CB4" s="43"/>
       <c r="CC4" s="6"/>
       <c r="CD4" s="24"/>
       <c r="CE4" s="22"/>
@@ -2606,48 +2563,48 @@
       <c r="EZ4" s="21"/>
     </row>
     <row r="5" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="53" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="26">
         <v>1</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="53">
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="52">
         <v>1</v>
       </c>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="59" t="s">
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="61"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="60"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22"/>
       <c r="AG5" s="22"/>
@@ -2696,8 +2653,8 @@
       <c r="BX5" s="22"/>
       <c r="BY5" s="22"/>
       <c r="BZ5" s="22"/>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="51"/>
+      <c r="CA5" s="43"/>
+      <c r="CB5" s="50"/>
       <c r="CC5" s="6"/>
       <c r="CD5" s="24"/>
       <c r="CE5" s="22"/>
@@ -2776,48 +2733,48 @@
       <c r="EZ5" s="21"/>
     </row>
     <row r="6" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="53" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="26">
         <v>1</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="53">
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="52">
         <v>2</v>
       </c>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="59" t="s">
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="60"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22"/>
       <c r="AG6" s="22"/>
@@ -2946,48 +2903,48 @@
       <c r="EZ6" s="21"/>
     </row>
     <row r="7" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="53" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="26">
         <v>1</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="53">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="52">
         <v>3</v>
       </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="59" t="s">
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="61"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="60"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
       <c r="AG7" s="22"/>
@@ -3116,48 +3073,48 @@
       <c r="EZ7" s="21"/>
     </row>
     <row r="8" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="83"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="53" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="26">
         <v>1</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="53">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="52">
         <v>1</v>
       </c>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="59" t="s">
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="61"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="60"/>
       <c r="BN8" s="22"/>
       <c r="BO8" s="24"/>
       <c r="BP8" s="23"/>
@@ -3251,48 +3208,48 @@
       <c r="EZ8" s="21"/>
     </row>
     <row r="9" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="53" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="26">
         <v>1</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="53">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="52">
         <v>1</v>
       </c>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="59" t="s">
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
       <c r="BN9" s="22"/>
       <c r="BO9" s="24"/>
       <c r="BP9" s="23"/>
@@ -3306,9 +3263,9 @@
       <c r="BX9" s="22"/>
       <c r="BY9" s="22"/>
       <c r="BZ9" s="22"/>
-      <c r="CA9" s="41"/>
+      <c r="CA9" s="40"/>
       <c r="CB9" s="6"/>
-      <c r="CC9" s="42"/>
+      <c r="CC9" s="41"/>
       <c r="CD9" s="24"/>
       <c r="CE9" s="22"/>
       <c r="CF9" s="22"/>
@@ -3386,48 +3343,48 @@
       <c r="EZ9" s="21"/>
     </row>
     <row r="10" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="53" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="26">
         <v>1</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="53">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="52">
         <v>2</v>
       </c>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="59" t="s">
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="61"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="60"/>
       <c r="BN10" s="22"/>
       <c r="BO10" s="24"/>
       <c r="BP10" s="23"/>
@@ -3443,9 +3400,9 @@
       <c r="BZ10" s="22"/>
       <c r="CA10" s="22"/>
       <c r="CB10" s="22"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="51"/>
-      <c r="CE10" s="45"/>
+      <c r="CC10" s="43"/>
+      <c r="CD10" s="50"/>
+      <c r="CE10" s="6"/>
       <c r="CF10" s="22"/>
       <c r="CG10" s="22"/>
       <c r="CH10" s="22"/>
@@ -3521,48 +3478,48 @@
       <c r="EZ10" s="21"/>
     </row>
     <row r="11" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="53" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="26">
         <v>2</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="53">
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="52">
         <v>1</v>
       </c>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="59" t="s">
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="60"/>
       <c r="BN11" s="22"/>
       <c r="BO11" s="24"/>
       <c r="BP11" s="23"/>
@@ -3577,9 +3534,9 @@
       <c r="BY11" s="22"/>
       <c r="BZ11" s="22"/>
       <c r="CA11" s="22"/>
-      <c r="CC11" s="51"/>
+      <c r="CC11" s="50"/>
       <c r="CD11" s="24"/>
-      <c r="CE11" s="44"/>
+      <c r="CE11" s="43"/>
       <c r="CF11" s="6"/>
       <c r="CG11" s="22"/>
       <c r="CH11" s="22"/>
@@ -3655,48 +3612,48 @@
       <c r="EZ11" s="21"/>
     </row>
     <row r="12" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="53" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="53">
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="52">
         <v>1</v>
       </c>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="59" t="s">
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="60"/>
       <c r="BN12" s="22"/>
       <c r="BO12" s="24"/>
       <c r="BP12" s="23"/>
@@ -3790,48 +3747,48 @@
       <c r="EZ12" s="21"/>
     </row>
     <row r="13" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="83"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="53" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="26">
         <v>1</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="53">
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="52">
         <v>1</v>
       </c>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="59" t="s">
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="61"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="60"/>
       <c r="BN13" s="22"/>
       <c r="BO13" s="24"/>
       <c r="BP13" s="23"/>
@@ -3925,48 +3882,48 @@
       <c r="EZ13" s="21"/>
     </row>
     <row r="14" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="83"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="53" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="26">
         <v>2</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="53">
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="52">
         <v>2</v>
       </c>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="59" t="s">
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="61"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="60"/>
       <c r="BN14" s="22"/>
       <c r="BO14" s="24"/>
       <c r="BP14" s="23"/>
@@ -3982,9 +3939,9 @@
       <c r="BZ14" s="22"/>
       <c r="CA14" s="22"/>
       <c r="CB14" s="22"/>
-      <c r="CC14" s="44"/>
+      <c r="CC14" s="43"/>
       <c r="CD14" s="6"/>
-      <c r="CE14" s="45"/>
+      <c r="CE14" s="44"/>
       <c r="CF14" s="22"/>
       <c r="CG14" s="22"/>
       <c r="CH14" s="22"/>
@@ -4060,48 +4017,48 @@
       <c r="EZ14" s="21"/>
     </row>
     <row r="15" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="83"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="53" t="s">
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="26">
         <v>2</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="53">
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="52">
         <v>2</v>
       </c>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="59" t="s">
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="61"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="60"/>
       <c r="BN15" s="22"/>
       <c r="BO15" s="24"/>
       <c r="BP15" s="23"/>
@@ -4116,9 +4073,9 @@
       <c r="BY15" s="22"/>
       <c r="BZ15" s="22"/>
       <c r="CB15" s="35"/>
-      <c r="CC15" s="50"/>
+      <c r="CC15" s="49"/>
       <c r="CD15" s="6"/>
-      <c r="CE15" s="38"/>
+      <c r="CE15" s="37"/>
       <c r="CG15" s="22"/>
       <c r="CH15" s="22"/>
       <c r="CI15" s="22"/>
@@ -4193,48 +4150,48 @@
       <c r="EZ15" s="21"/>
     </row>
     <row r="16" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="83"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="53" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="26">
         <v>2</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="53">
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="52">
         <v>2</v>
       </c>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="59" t="s">
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="61"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="60"/>
       <c r="BN16" s="22"/>
       <c r="BO16" s="24"/>
       <c r="BP16" s="23"/>
@@ -4250,10 +4207,10 @@
       <c r="BZ16" s="22"/>
       <c r="CA16" s="22"/>
       <c r="CB16" s="22"/>
-      <c r="CC16" s="50"/>
-      <c r="CD16" s="44"/>
-      <c r="CE16" s="51"/>
-      <c r="CF16" s="45"/>
+      <c r="CC16" s="49"/>
+      <c r="CD16" s="43"/>
+      <c r="CE16" s="50"/>
+      <c r="CF16" s="6"/>
       <c r="CG16" s="22"/>
       <c r="CH16" s="22"/>
       <c r="CI16" s="22"/>
@@ -4328,48 +4285,48 @@
       <c r="EZ16" s="21"/>
     </row>
     <row r="17" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="83"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="53" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="26">
         <v>2</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="53">
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="52">
         <v>3</v>
       </c>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="59" t="s">
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="61"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="60"/>
       <c r="BN17" s="22"/>
       <c r="BO17" s="24"/>
       <c r="BP17" s="23"/>
@@ -4463,48 +4420,48 @@
       <c r="EZ17" s="21"/>
     </row>
     <row r="18" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="83"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="53" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="26">
         <v>2</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="53">
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="52">
         <v>2</v>
       </c>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="59" t="s">
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="61"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="60"/>
       <c r="BN18" s="22"/>
       <c r="BO18" s="24"/>
       <c r="BP18" s="23"/>
@@ -4519,7 +4476,7 @@
       <c r="BY18" s="22"/>
       <c r="BZ18" s="22"/>
       <c r="CB18" s="29"/>
-      <c r="CC18" s="50"/>
+      <c r="CC18" s="49"/>
       <c r="CD18" s="6"/>
       <c r="CF18" s="22"/>
       <c r="CG18" s="22"/>
@@ -4596,48 +4553,48 @@
       <c r="EZ18" s="21"/>
     </row>
     <row r="19" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="83"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="53" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="26">
         <v>2</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="53">
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="52">
         <v>2</v>
       </c>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="59" t="s">
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="61"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="60"/>
       <c r="BN19" s="22"/>
       <c r="BO19" s="24"/>
       <c r="BP19" s="23"/>
@@ -4652,12 +4609,12 @@
       <c r="BY19" s="22"/>
       <c r="BZ19" s="22"/>
       <c r="CA19" s="22"/>
-      <c r="CB19" s="49"/>
-      <c r="CC19" s="50"/>
-      <c r="CD19" s="50"/>
-      <c r="CE19" s="37"/>
-      <c r="CF19" s="39"/>
-      <c r="CG19" s="40"/>
+      <c r="CB19" s="48"/>
+      <c r="CC19" s="49"/>
+      <c r="CD19" s="49"/>
+      <c r="CE19" s="36"/>
+      <c r="CF19" s="38"/>
+      <c r="CG19" s="39"/>
       <c r="CH19" s="6"/>
       <c r="CI19" s="22"/>
       <c r="CJ19" s="23"/>
@@ -4731,48 +4688,48 @@
       <c r="EZ19" s="21"/>
     </row>
     <row r="20" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="83"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="53" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="26">
         <v>2</v>
       </c>
-      <c r="J20" s="56" t="s">
+      <c r="J20" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="53">
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="52">
         <v>1</v>
       </c>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="59" t="s">
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="61"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="60"/>
       <c r="BN20" s="22"/>
       <c r="BO20" s="24"/>
       <c r="BP20" s="23"/>
@@ -4866,48 +4823,48 @@
       <c r="EZ20" s="21"/>
     </row>
     <row r="21" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="83"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="53" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="26">
         <v>2</v>
       </c>
-      <c r="J21" s="56" t="s">
+      <c r="J21" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="53">
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="52">
         <v>2</v>
       </c>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="59" t="s">
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="61"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="60"/>
       <c r="BN21" s="22"/>
       <c r="BO21" s="24"/>
       <c r="BP21" s="23"/>
@@ -4923,12 +4880,12 @@
       <c r="BZ21" s="22"/>
       <c r="CA21" s="22"/>
       <c r="CB21" s="22"/>
-      <c r="CC21" s="40"/>
+      <c r="CC21" s="39"/>
       <c r="CD21" s="28"/>
-      <c r="CE21" s="44"/>
+      <c r="CE21" s="43"/>
       <c r="CF21" s="27"/>
       <c r="CG21" s="6"/>
-      <c r="CH21" s="49"/>
+      <c r="CH21" s="48"/>
       <c r="CI21" s="22"/>
       <c r="CJ21" s="23"/>
       <c r="CK21" s="24"/>
@@ -5001,48 +4958,48 @@
       <c r="EZ21" s="21"/>
     </row>
     <row r="22" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="53" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="26">
         <v>2</v>
       </c>
-      <c r="J22" s="56" t="s">
+      <c r="J22" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="53">
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="52">
         <v>1</v>
       </c>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="59" t="s">
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="61"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="60"/>
       <c r="BN22" s="22"/>
       <c r="BO22" s="24"/>
       <c r="BP22" s="23"/>
@@ -5061,7 +5018,7 @@
       <c r="CC22" s="23"/>
       <c r="CD22" s="24"/>
       <c r="CE22" s="22"/>
-      <c r="CF22" s="44"/>
+      <c r="CF22" s="43"/>
       <c r="CG22" s="6"/>
       <c r="CH22" s="22"/>
       <c r="CI22" s="22"/>
@@ -5137,46 +5094,46 @@
     </row>
     <row r="23" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="53" t="s">
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="26">
         <v>1</v>
       </c>
-      <c r="J23" s="56" t="s">
+      <c r="J23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="53">
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="52">
         <v>3</v>
       </c>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="59" t="s">
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="61"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="60"/>
       <c r="BN23" s="22"/>
       <c r="BO23" s="24"/>
       <c r="BP23" s="23"/>
@@ -5190,16 +5147,16 @@
       <c r="BX23" s="22"/>
       <c r="BY23" s="22"/>
       <c r="BZ23" s="22"/>
-      <c r="CA23" s="49"/>
-      <c r="CB23" s="49"/>
-      <c r="CC23" s="50"/>
-      <c r="CD23" s="51"/>
-      <c r="CE23" s="44"/>
-      <c r="CF23" s="49"/>
-      <c r="CG23" s="49"/>
+      <c r="CA23" s="48"/>
+      <c r="CB23" s="48"/>
+      <c r="CC23" s="49"/>
+      <c r="CD23" s="50"/>
+      <c r="CE23" s="43"/>
+      <c r="CF23" s="48"/>
+      <c r="CG23" s="48"/>
       <c r="CH23" s="6"/>
-      <c r="CI23" s="49"/>
-      <c r="CJ23" s="50"/>
+      <c r="CI23" s="48"/>
+      <c r="CJ23" s="49"/>
       <c r="CK23" s="24"/>
       <c r="CL23" s="22"/>
       <c r="CM23" s="22"/>
@@ -5271,46 +5228,46 @@
     </row>
     <row r="24" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="53" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="26">
         <v>1</v>
       </c>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="53">
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="52">
         <v>2</v>
       </c>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="59" t="s">
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="61"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="60"/>
       <c r="BN24" s="22"/>
       <c r="BO24" s="24"/>
       <c r="BP24" s="23"/>
@@ -5324,15 +5281,15 @@
       <c r="BX24" s="22"/>
       <c r="BY24" s="22"/>
       <c r="BZ24" s="22"/>
-      <c r="CA24" s="49"/>
-      <c r="CB24" s="49"/>
-      <c r="CC24" s="50"/>
-      <c r="CD24" s="51"/>
-      <c r="CE24" s="49"/>
-      <c r="CF24" s="49"/>
-      <c r="CG24" s="49"/>
-      <c r="CH24" s="44"/>
-      <c r="CI24" s="49"/>
+      <c r="CA24" s="48"/>
+      <c r="CB24" s="48"/>
+      <c r="CC24" s="49"/>
+      <c r="CD24" s="50"/>
+      <c r="CE24" s="48"/>
+      <c r="CF24" s="48"/>
+      <c r="CG24" s="48"/>
+      <c r="CH24" s="43"/>
+      <c r="CI24" s="48"/>
       <c r="CJ24" s="6"/>
       <c r="CK24" s="24"/>
       <c r="CL24" s="22"/>
@@ -5405,46 +5362,46 @@
     </row>
     <row r="25" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="53" t="s">
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="26">
         <v>1</v>
       </c>
-      <c r="J25" s="56" t="s">
+      <c r="J25" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="53">
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="52">
         <v>2</v>
       </c>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="59" t="s">
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="61"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="60"/>
       <c r="BN25" s="22"/>
       <c r="BO25" s="24"/>
       <c r="BP25" s="23"/>
@@ -5458,18 +5415,18 @@
       <c r="BX25" s="22"/>
       <c r="BY25" s="22"/>
       <c r="BZ25" s="22"/>
-      <c r="CA25" s="49"/>
-      <c r="CB25" s="49"/>
-      <c r="CC25" s="50"/>
-      <c r="CD25" s="51"/>
-      <c r="CE25" s="49"/>
-      <c r="CF25" s="49"/>
-      <c r="CG25" s="49"/>
-      <c r="CH25" s="49"/>
-      <c r="CJ25" s="50"/>
-      <c r="CK25" s="37"/>
+      <c r="CA25" s="48"/>
+      <c r="CB25" s="48"/>
+      <c r="CC25" s="49"/>
+      <c r="CD25" s="50"/>
+      <c r="CE25" s="48"/>
+      <c r="CF25" s="48"/>
+      <c r="CG25" s="48"/>
+      <c r="CH25" s="48"/>
+      <c r="CJ25" s="49"/>
+      <c r="CK25" s="36"/>
       <c r="CL25" s="24"/>
-      <c r="CM25" s="38"/>
+      <c r="CM25" s="6"/>
       <c r="CN25" s="22"/>
       <c r="CO25" s="22"/>
       <c r="CP25" s="22"/>
@@ -5538,46 +5495,46 @@
     </row>
     <row r="26" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="53" t="s">
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="26">
         <v>1</v>
       </c>
-      <c r="J26" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="53">
+      <c r="J26" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="52">
         <v>2</v>
       </c>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="59" t="s">
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="61"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="60"/>
       <c r="BN26" s="22"/>
       <c r="BO26" s="24"/>
       <c r="BP26" s="23"/>
@@ -5594,17 +5551,17 @@
       <c r="CA26" s="22"/>
       <c r="CB26" s="22"/>
       <c r="CC26" s="23"/>
-      <c r="CD26" s="51"/>
-      <c r="CE26" s="49"/>
-      <c r="CF26" s="49"/>
-      <c r="CG26" s="49"/>
-      <c r="CH26" s="49"/>
+      <c r="CD26" s="50"/>
+      <c r="CE26" s="48"/>
+      <c r="CF26" s="48"/>
+      <c r="CG26" s="48"/>
+      <c r="CH26" s="48"/>
       <c r="CI26" s="22"/>
       <c r="CJ26" s="23"/>
       <c r="CK26" s="24"/>
       <c r="CL26" s="5"/>
       <c r="CM26" s="22"/>
-      <c r="CN26" s="45"/>
+      <c r="CN26" s="6"/>
       <c r="CP26" s="22"/>
       <c r="CQ26" s="23"/>
       <c r="CR26" s="24"/>
@@ -5670,1794 +5627,1109 @@
       <c r="EZ26" s="21"/>
     </row>
     <row r="27" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="43"/>
-      <c r="C27" s="53" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="53" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="52">
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="51">
         <v>1</v>
       </c>
-      <c r="J27" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="53">
+      <c r="J27" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="52">
         <v>2</v>
       </c>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="61"/>
-      <c r="BN27" s="49"/>
-      <c r="BO27" s="51"/>
-      <c r="BP27" s="50"/>
-      <c r="BQ27" s="49"/>
-      <c r="BR27" s="49"/>
-      <c r="BS27" s="49"/>
-      <c r="BT27" s="49"/>
-      <c r="BU27" s="49"/>
-      <c r="BV27" s="50"/>
-      <c r="BW27" s="51"/>
-      <c r="BX27" s="49"/>
-      <c r="BY27" s="49"/>
-      <c r="BZ27" s="49"/>
-      <c r="CA27" s="49"/>
-      <c r="CB27" s="49"/>
-      <c r="CC27" s="50"/>
-      <c r="CD27" s="51"/>
-      <c r="CE27" s="49"/>
-      <c r="CF27" s="49"/>
-      <c r="CG27" s="49"/>
-      <c r="CH27" s="49"/>
-      <c r="CI27" s="49"/>
-      <c r="CJ27" s="50"/>
-      <c r="CK27" s="51"/>
-      <c r="CL27" s="49"/>
-      <c r="CM27" s="44"/>
-      <c r="CN27" s="36"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="60"/>
+      <c r="BN27" s="48"/>
+      <c r="BO27" s="50"/>
+      <c r="BP27" s="49"/>
+      <c r="BQ27" s="48"/>
+      <c r="BR27" s="48"/>
+      <c r="BS27" s="48"/>
+      <c r="BT27" s="48"/>
+      <c r="BU27" s="48"/>
+      <c r="BV27" s="49"/>
+      <c r="BW27" s="50"/>
+      <c r="BX27" s="48"/>
+      <c r="BY27" s="48"/>
+      <c r="BZ27" s="48"/>
+      <c r="CA27" s="48"/>
+      <c r="CB27" s="48"/>
+      <c r="CC27" s="49"/>
+      <c r="CD27" s="50"/>
+      <c r="CE27" s="48"/>
+      <c r="CF27" s="48"/>
+      <c r="CG27" s="48"/>
+      <c r="CH27" s="48"/>
+      <c r="CI27" s="48"/>
+      <c r="CJ27" s="49"/>
+      <c r="CK27" s="50"/>
+      <c r="CL27" s="48"/>
+      <c r="CM27" s="43"/>
+      <c r="CN27" s="6"/>
       <c r="CO27" s="32"/>
-      <c r="CP27" s="49"/>
-      <c r="CQ27" s="50"/>
-      <c r="CR27" s="51"/>
-      <c r="CS27" s="50"/>
-      <c r="CT27" s="50"/>
-      <c r="CU27" s="50"/>
-      <c r="CV27" s="49"/>
-      <c r="CW27" s="49"/>
-      <c r="CX27" s="50"/>
-      <c r="CY27" s="51"/>
-      <c r="CZ27" s="49"/>
-      <c r="DA27" s="49"/>
-      <c r="DB27" s="49"/>
-      <c r="DC27" s="49"/>
-      <c r="DD27" s="49"/>
-      <c r="DE27" s="50"/>
-      <c r="DF27" s="51"/>
-      <c r="DG27" s="49"/>
-      <c r="DH27" s="49"/>
-      <c r="DI27" s="49"/>
-      <c r="DJ27" s="49"/>
-      <c r="DK27" s="49"/>
-      <c r="DL27" s="50"/>
-      <c r="DM27" s="51"/>
-      <c r="DN27" s="49"/>
-      <c r="DO27" s="49"/>
-      <c r="DP27" s="49"/>
-      <c r="DQ27" s="49"/>
-      <c r="DR27" s="49"/>
-      <c r="DS27" s="50"/>
-      <c r="DT27" s="51"/>
-      <c r="DU27" s="49"/>
-      <c r="DV27" s="49"/>
-      <c r="DW27" s="46"/>
-      <c r="DX27" s="46"/>
-      <c r="DY27" s="46"/>
-      <c r="DZ27" s="47"/>
-      <c r="EA27" s="47"/>
-      <c r="EB27" s="48"/>
-      <c r="EC27" s="48"/>
-      <c r="ED27" s="48"/>
-      <c r="EE27" s="48"/>
-      <c r="EF27" s="48"/>
-      <c r="EG27" s="47"/>
-      <c r="EH27" s="47"/>
-      <c r="EI27" s="48"/>
-      <c r="EJ27" s="48"/>
-      <c r="EK27" s="48"/>
-      <c r="EL27" s="48"/>
-      <c r="EM27" s="48"/>
-      <c r="EN27" s="48"/>
-      <c r="EO27" s="47"/>
-      <c r="EP27" s="47"/>
-      <c r="EQ27" s="48"/>
-      <c r="ER27" s="48"/>
-      <c r="ES27" s="48"/>
-      <c r="ET27" s="48"/>
-      <c r="EU27" s="48"/>
-      <c r="EV27" s="47"/>
-      <c r="EW27" s="47"/>
-      <c r="EX27" s="48"/>
-      <c r="EY27" s="48"/>
-      <c r="EZ27" s="48"/>
+      <c r="CP27" s="48"/>
+      <c r="CQ27" s="49"/>
+      <c r="CR27" s="50"/>
+      <c r="CS27" s="49"/>
+      <c r="CT27" s="49"/>
+      <c r="CU27" s="49"/>
+      <c r="CV27" s="48"/>
+      <c r="CW27" s="48"/>
+      <c r="CX27" s="49"/>
+      <c r="CY27" s="50"/>
+      <c r="CZ27" s="48"/>
+      <c r="DA27" s="48"/>
+      <c r="DB27" s="48"/>
+      <c r="DC27" s="48"/>
+      <c r="DD27" s="48"/>
+      <c r="DE27" s="49"/>
+      <c r="DF27" s="50"/>
+      <c r="DG27" s="48"/>
+      <c r="DH27" s="48"/>
+      <c r="DI27" s="48"/>
+      <c r="DJ27" s="48"/>
+      <c r="DK27" s="48"/>
+      <c r="DL27" s="49"/>
+      <c r="DM27" s="50"/>
+      <c r="DN27" s="48"/>
+      <c r="DO27" s="48"/>
+      <c r="DP27" s="48"/>
+      <c r="DQ27" s="48"/>
+      <c r="DR27" s="48"/>
+      <c r="DS27" s="49"/>
+      <c r="DT27" s="50"/>
+      <c r="DU27" s="48"/>
+      <c r="DV27" s="48"/>
+      <c r="DW27" s="45"/>
+      <c r="DX27" s="45"/>
+      <c r="DY27" s="45"/>
+      <c r="DZ27" s="46"/>
+      <c r="EA27" s="46"/>
+      <c r="EB27" s="47"/>
+      <c r="EC27" s="47"/>
+      <c r="ED27" s="47"/>
+      <c r="EE27" s="47"/>
+      <c r="EF27" s="47"/>
+      <c r="EG27" s="46"/>
+      <c r="EH27" s="46"/>
+      <c r="EI27" s="47"/>
+      <c r="EJ27" s="47"/>
+      <c r="EK27" s="47"/>
+      <c r="EL27" s="47"/>
+      <c r="EM27" s="47"/>
+      <c r="EN27" s="47"/>
+      <c r="EO27" s="46"/>
+      <c r="EP27" s="46"/>
+      <c r="EQ27" s="47"/>
+      <c r="ER27" s="47"/>
+      <c r="ES27" s="47"/>
+      <c r="ET27" s="47"/>
+      <c r="EU27" s="47"/>
+      <c r="EV27" s="46"/>
+      <c r="EW27" s="46"/>
+      <c r="EX27" s="47"/>
+      <c r="EY27" s="47"/>
+      <c r="EZ27" s="47"/>
     </row>
     <row r="28" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="43"/>
-      <c r="C28" s="53" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="53" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="52">
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="51">
         <v>1</v>
       </c>
-      <c r="J28" s="56" t="s">
+      <c r="J28" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="53">
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="52">
         <v>2</v>
       </c>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="59" t="s">
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="61"/>
-      <c r="BN28" s="49"/>
-      <c r="BO28" s="51"/>
-      <c r="BP28" s="50"/>
-      <c r="BQ28" s="49"/>
-      <c r="BR28" s="49"/>
-      <c r="BS28" s="49"/>
-      <c r="BT28" s="49"/>
-      <c r="BU28" s="49"/>
-      <c r="BV28" s="50"/>
-      <c r="BW28" s="51"/>
-      <c r="BX28" s="49"/>
-      <c r="BY28" s="49"/>
-      <c r="BZ28" s="49"/>
-      <c r="CA28" s="49"/>
-      <c r="CB28" s="49"/>
-      <c r="CC28" s="50"/>
-      <c r="CD28" s="51"/>
-      <c r="CE28" s="49"/>
-      <c r="CF28" s="49"/>
-      <c r="CG28" s="49"/>
-      <c r="CH28" s="49"/>
-      <c r="CJ28" s="50"/>
-      <c r="CK28" s="37"/>
-      <c r="CL28" s="51"/>
-      <c r="CM28" s="38"/>
-      <c r="CN28" s="49"/>
-      <c r="CO28" s="49"/>
-      <c r="CP28" s="49"/>
-      <c r="CQ28" s="50"/>
-      <c r="CR28" s="51"/>
-      <c r="CS28" s="50"/>
-      <c r="CT28" s="50"/>
-      <c r="CU28" s="50"/>
-      <c r="CV28" s="49"/>
-      <c r="CW28" s="49"/>
-      <c r="CX28" s="50"/>
-      <c r="CY28" s="51"/>
-      <c r="CZ28" s="49"/>
-      <c r="DA28" s="49"/>
-      <c r="DB28" s="49"/>
-      <c r="DC28" s="49"/>
-      <c r="DD28" s="49"/>
-      <c r="DE28" s="50"/>
-      <c r="DF28" s="51"/>
-      <c r="DG28" s="49"/>
-      <c r="DH28" s="49"/>
-      <c r="DI28" s="49"/>
-      <c r="DJ28" s="49"/>
-      <c r="DK28" s="49"/>
-      <c r="DL28" s="50"/>
-      <c r="DM28" s="51"/>
-      <c r="DN28" s="49"/>
-      <c r="DO28" s="49"/>
-      <c r="DP28" s="49"/>
-      <c r="DQ28" s="49"/>
-      <c r="DR28" s="49"/>
-      <c r="DS28" s="50"/>
-      <c r="DT28" s="51"/>
-      <c r="DU28" s="49"/>
-      <c r="DV28" s="49"/>
-      <c r="DW28" s="46"/>
-      <c r="DX28" s="46"/>
-      <c r="DY28" s="46"/>
-      <c r="DZ28" s="47"/>
-      <c r="EA28" s="47"/>
-      <c r="EB28" s="48"/>
-      <c r="EC28" s="48"/>
-      <c r="ED28" s="48"/>
-      <c r="EE28" s="48"/>
-      <c r="EF28" s="48"/>
-      <c r="EG28" s="47"/>
-      <c r="EH28" s="47"/>
-      <c r="EI28" s="48"/>
-      <c r="EJ28" s="48"/>
-      <c r="EK28" s="48"/>
-      <c r="EL28" s="48"/>
-      <c r="EM28" s="48"/>
-      <c r="EN28" s="48"/>
-      <c r="EO28" s="47"/>
-      <c r="EP28" s="47"/>
-      <c r="EQ28" s="48"/>
-      <c r="ER28" s="48"/>
-      <c r="ES28" s="48"/>
-      <c r="ET28" s="48"/>
-      <c r="EU28" s="48"/>
-      <c r="EV28" s="47"/>
-      <c r="EW28" s="47"/>
-      <c r="EX28" s="48"/>
-      <c r="EY28" s="48"/>
-      <c r="EZ28" s="48"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="60"/>
+      <c r="BN28" s="48"/>
+      <c r="BO28" s="50"/>
+      <c r="BP28" s="49"/>
+      <c r="BQ28" s="48"/>
+      <c r="BR28" s="48"/>
+      <c r="BS28" s="48"/>
+      <c r="BT28" s="48"/>
+      <c r="BU28" s="48"/>
+      <c r="BV28" s="49"/>
+      <c r="BW28" s="50"/>
+      <c r="BX28" s="48"/>
+      <c r="BY28" s="48"/>
+      <c r="BZ28" s="48"/>
+      <c r="CA28" s="48"/>
+      <c r="CB28" s="48"/>
+      <c r="CC28" s="49"/>
+      <c r="CD28" s="50"/>
+      <c r="CE28" s="48"/>
+      <c r="CF28" s="48"/>
+      <c r="CG28" s="48"/>
+      <c r="CH28" s="48"/>
+      <c r="CJ28" s="49"/>
+      <c r="CK28" s="36"/>
+      <c r="CL28" s="50"/>
+      <c r="CM28" s="6"/>
+      <c r="CN28" s="48"/>
+      <c r="CO28" s="48"/>
+      <c r="CP28" s="48"/>
+      <c r="CQ28" s="49"/>
+      <c r="CR28" s="50"/>
+      <c r="CS28" s="49"/>
+      <c r="CT28" s="49"/>
+      <c r="CU28" s="49"/>
+      <c r="CV28" s="48"/>
+      <c r="CW28" s="48"/>
+      <c r="CX28" s="49"/>
+      <c r="CY28" s="50"/>
+      <c r="CZ28" s="48"/>
+      <c r="DA28" s="48"/>
+      <c r="DB28" s="48"/>
+      <c r="DC28" s="48"/>
+      <c r="DD28" s="48"/>
+      <c r="DE28" s="49"/>
+      <c r="DF28" s="50"/>
+      <c r="DG28" s="48"/>
+      <c r="DH28" s="48"/>
+      <c r="DI28" s="48"/>
+      <c r="DJ28" s="48"/>
+      <c r="DK28" s="48"/>
+      <c r="DL28" s="49"/>
+      <c r="DM28" s="50"/>
+      <c r="DN28" s="48"/>
+      <c r="DO28" s="48"/>
+      <c r="DP28" s="48"/>
+      <c r="DQ28" s="48"/>
+      <c r="DR28" s="48"/>
+      <c r="DS28" s="49"/>
+      <c r="DT28" s="50"/>
+      <c r="DU28" s="48"/>
+      <c r="DV28" s="48"/>
+      <c r="DW28" s="45"/>
+      <c r="DX28" s="45"/>
+      <c r="DY28" s="45"/>
+      <c r="DZ28" s="46"/>
+      <c r="EA28" s="46"/>
+      <c r="EB28" s="47"/>
+      <c r="EC28" s="47"/>
+      <c r="ED28" s="47"/>
+      <c r="EE28" s="47"/>
+      <c r="EF28" s="47"/>
+      <c r="EG28" s="46"/>
+      <c r="EH28" s="46"/>
+      <c r="EI28" s="47"/>
+      <c r="EJ28" s="47"/>
+      <c r="EK28" s="47"/>
+      <c r="EL28" s="47"/>
+      <c r="EM28" s="47"/>
+      <c r="EN28" s="47"/>
+      <c r="EO28" s="46"/>
+      <c r="EP28" s="46"/>
+      <c r="EQ28" s="47"/>
+      <c r="ER28" s="47"/>
+      <c r="ES28" s="47"/>
+      <c r="ET28" s="47"/>
+      <c r="EU28" s="47"/>
+      <c r="EV28" s="46"/>
+      <c r="EW28" s="46"/>
+      <c r="EX28" s="47"/>
+      <c r="EY28" s="47"/>
+      <c r="EZ28" s="47"/>
     </row>
     <row r="29" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="43"/>
-      <c r="C29" s="53" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="53" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="52">
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="51">
         <v>1</v>
       </c>
-      <c r="J29" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="53">
+      <c r="J29" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="52">
         <v>2</v>
       </c>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="59" t="s">
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="61"/>
-      <c r="BN29" s="49"/>
-      <c r="BO29" s="51"/>
-      <c r="BP29" s="50"/>
-      <c r="BQ29" s="49"/>
-      <c r="BR29" s="49"/>
-      <c r="BS29" s="49"/>
-      <c r="BT29" s="49"/>
-      <c r="BU29" s="49"/>
-      <c r="BV29" s="50"/>
-      <c r="BW29" s="51"/>
-      <c r="BX29" s="49"/>
-      <c r="BY29" s="49"/>
-      <c r="BZ29" s="49"/>
-      <c r="CA29" s="49"/>
-      <c r="CB29" s="49"/>
-      <c r="CC29" s="50"/>
-      <c r="CD29" s="51"/>
-      <c r="CE29" s="49"/>
-      <c r="CF29" s="49"/>
-      <c r="CG29" s="49"/>
-      <c r="CH29" s="49"/>
-      <c r="CI29" s="49"/>
-      <c r="CJ29" s="50"/>
-      <c r="CK29" s="50"/>
-      <c r="CL29" s="49"/>
-      <c r="CM29" s="49"/>
-      <c r="CN29" s="37"/>
-      <c r="CO29" s="51"/>
-      <c r="CP29" s="38"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="60"/>
+      <c r="BN29" s="48"/>
+      <c r="BO29" s="50"/>
+      <c r="BP29" s="49"/>
+      <c r="BQ29" s="48"/>
+      <c r="BR29" s="48"/>
+      <c r="BS29" s="48"/>
+      <c r="BT29" s="48"/>
+      <c r="BU29" s="48"/>
+      <c r="BV29" s="49"/>
+      <c r="BW29" s="50"/>
+      <c r="BX29" s="48"/>
+      <c r="BY29" s="48"/>
+      <c r="BZ29" s="48"/>
+      <c r="CA29" s="48"/>
+      <c r="CB29" s="48"/>
+      <c r="CC29" s="49"/>
+      <c r="CD29" s="50"/>
+      <c r="CE29" s="48"/>
+      <c r="CF29" s="48"/>
+      <c r="CG29" s="48"/>
+      <c r="CH29" s="48"/>
+      <c r="CI29" s="48"/>
+      <c r="CJ29" s="49"/>
+      <c r="CK29" s="49"/>
+      <c r="CL29" s="48"/>
+      <c r="CM29" s="48"/>
+      <c r="CP29" s="36"/>
       <c r="CQ29" s="50"/>
-      <c r="CR29" s="51"/>
-      <c r="CS29" s="50"/>
-      <c r="CT29" s="50"/>
-      <c r="CU29" s="50"/>
-      <c r="CV29" s="49"/>
-      <c r="CW29" s="49"/>
-      <c r="CX29" s="50"/>
-      <c r="CY29" s="51"/>
-      <c r="CZ29" s="49"/>
-      <c r="DA29" s="49"/>
-      <c r="DB29" s="49"/>
-      <c r="DC29" s="49"/>
-      <c r="DD29" s="49"/>
-      <c r="DE29" s="50"/>
-      <c r="DF29" s="51"/>
-      <c r="DG29" s="49"/>
-      <c r="DH29" s="49"/>
-      <c r="DI29" s="49"/>
-      <c r="DJ29" s="49"/>
-      <c r="DK29" s="49"/>
-      <c r="DL29" s="50"/>
-      <c r="DM29" s="51"/>
-      <c r="DN29" s="49"/>
-      <c r="DO29" s="49"/>
-      <c r="DP29" s="49"/>
-      <c r="DQ29" s="49"/>
-      <c r="DR29" s="49"/>
-      <c r="DS29" s="50"/>
-      <c r="DT29" s="51"/>
-      <c r="DU29" s="49"/>
-      <c r="DV29" s="49"/>
-      <c r="DW29" s="46"/>
-      <c r="DX29" s="46"/>
-      <c r="DY29" s="46"/>
-      <c r="DZ29" s="47"/>
-      <c r="EA29" s="47"/>
-      <c r="EB29" s="48"/>
-      <c r="EC29" s="48"/>
-      <c r="ED29" s="48"/>
-      <c r="EE29" s="48"/>
-      <c r="EF29" s="48"/>
-      <c r="EG29" s="47"/>
-      <c r="EH29" s="47"/>
-      <c r="EI29" s="48"/>
-      <c r="EJ29" s="48"/>
-      <c r="EK29" s="48"/>
-      <c r="EL29" s="48"/>
-      <c r="EM29" s="48"/>
-      <c r="EN29" s="48"/>
-      <c r="EO29" s="47"/>
-      <c r="EP29" s="47"/>
-      <c r="EQ29" s="48"/>
-      <c r="ER29" s="48"/>
-      <c r="ES29" s="48"/>
-      <c r="ET29" s="48"/>
-      <c r="EU29" s="48"/>
-      <c r="EV29" s="47"/>
-      <c r="EW29" s="47"/>
-      <c r="EX29" s="48"/>
-      <c r="EY29" s="48"/>
-      <c r="EZ29" s="48"/>
+      <c r="CR29" s="37"/>
+      <c r="CS29" s="49"/>
+      <c r="CT29" s="49"/>
+      <c r="CU29" s="49"/>
+      <c r="CV29" s="48"/>
+      <c r="CW29" s="48"/>
+      <c r="CX29" s="49"/>
+      <c r="CY29" s="50"/>
+      <c r="CZ29" s="48"/>
+      <c r="DA29" s="48"/>
+      <c r="DB29" s="48"/>
+      <c r="DC29" s="48"/>
+      <c r="DD29" s="48"/>
+      <c r="DE29" s="49"/>
+      <c r="DF29" s="50"/>
+      <c r="DG29" s="48"/>
+      <c r="DH29" s="48"/>
+      <c r="DI29" s="48"/>
+      <c r="DJ29" s="48"/>
+      <c r="DK29" s="48"/>
+      <c r="DL29" s="49"/>
+      <c r="DM29" s="50"/>
+      <c r="DN29" s="48"/>
+      <c r="DO29" s="48"/>
+      <c r="DP29" s="48"/>
+      <c r="DQ29" s="48"/>
+      <c r="DR29" s="48"/>
+      <c r="DS29" s="49"/>
+      <c r="DT29" s="50"/>
+      <c r="DU29" s="48"/>
+      <c r="DV29" s="48"/>
+      <c r="DW29" s="45"/>
+      <c r="DX29" s="45"/>
+      <c r="DY29" s="45"/>
+      <c r="DZ29" s="46"/>
+      <c r="EA29" s="46"/>
+      <c r="EB29" s="47"/>
+      <c r="EC29" s="47"/>
+      <c r="ED29" s="47"/>
+      <c r="EE29" s="47"/>
+      <c r="EF29" s="47"/>
+      <c r="EG29" s="46"/>
+      <c r="EH29" s="46"/>
+      <c r="EI29" s="47"/>
+      <c r="EJ29" s="47"/>
+      <c r="EK29" s="47"/>
+      <c r="EL29" s="47"/>
+      <c r="EM29" s="47"/>
+      <c r="EN29" s="47"/>
+      <c r="EO29" s="46"/>
+      <c r="EP29" s="46"/>
+      <c r="EQ29" s="47"/>
+      <c r="ER29" s="47"/>
+      <c r="ES29" s="47"/>
+      <c r="ET29" s="47"/>
+      <c r="EU29" s="47"/>
+      <c r="EV29" s="46"/>
+      <c r="EW29" s="46"/>
+      <c r="EX29" s="47"/>
+      <c r="EY29" s="47"/>
+      <c r="EZ29" s="47"/>
     </row>
     <row r="30" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="43"/>
-      <c r="C30" s="53" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="53" t="s">
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="52">
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="51">
         <v>1</v>
       </c>
-      <c r="J30" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="53">
+      <c r="J30" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="52">
         <v>2</v>
       </c>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="61"/>
-      <c r="BN30" s="49"/>
-      <c r="BO30" s="51"/>
-      <c r="BP30" s="50"/>
-      <c r="BQ30" s="49"/>
-      <c r="BR30" s="49"/>
-      <c r="BS30" s="49"/>
-      <c r="BT30" s="49"/>
-      <c r="BU30" s="49"/>
-      <c r="BV30" s="50"/>
-      <c r="BW30" s="51"/>
-      <c r="BX30" s="49"/>
-      <c r="BY30" s="49"/>
-      <c r="BZ30" s="49"/>
-      <c r="CA30" s="49"/>
-      <c r="CB30" s="49"/>
-      <c r="CC30" s="50"/>
-      <c r="CD30" s="51"/>
-      <c r="CE30" s="49"/>
-      <c r="CF30" s="49"/>
-      <c r="CG30" s="49"/>
-      <c r="CH30" s="49"/>
-      <c r="CI30" s="49"/>
-      <c r="CJ30" s="37"/>
-      <c r="CK30" s="51"/>
-      <c r="CL30" s="38"/>
-      <c r="CM30" s="49"/>
-      <c r="CN30" s="49"/>
-      <c r="CO30" s="49"/>
-      <c r="CP30" s="49"/>
-      <c r="CQ30" s="50"/>
-      <c r="CR30" s="51"/>
-      <c r="CS30" s="50"/>
-      <c r="CT30" s="50"/>
-      <c r="CU30" s="50"/>
-      <c r="CV30" s="49"/>
-      <c r="CW30" s="49"/>
-      <c r="CX30" s="50"/>
-      <c r="CY30" s="51"/>
-      <c r="CZ30" s="49"/>
-      <c r="DA30" s="49"/>
-      <c r="DB30" s="49"/>
-      <c r="DC30" s="49"/>
-      <c r="DD30" s="49"/>
-      <c r="DE30" s="50"/>
-      <c r="DF30" s="51"/>
-      <c r="DG30" s="49"/>
-      <c r="DH30" s="49"/>
-      <c r="DI30" s="49"/>
-      <c r="DJ30" s="49"/>
-      <c r="DK30" s="49"/>
-      <c r="DL30" s="50"/>
-      <c r="DM30" s="51"/>
-      <c r="DN30" s="49"/>
-      <c r="DO30" s="49"/>
-      <c r="DP30" s="49"/>
-      <c r="DQ30" s="49"/>
-      <c r="DR30" s="49"/>
-      <c r="DS30" s="50"/>
-      <c r="DT30" s="51"/>
-      <c r="DU30" s="49"/>
-      <c r="DV30" s="49"/>
-      <c r="DW30" s="46"/>
-      <c r="DX30" s="46"/>
-      <c r="DY30" s="46"/>
-      <c r="DZ30" s="47"/>
-      <c r="EA30" s="47"/>
-      <c r="EB30" s="48"/>
-      <c r="EC30" s="48"/>
-      <c r="ED30" s="48"/>
-      <c r="EE30" s="48"/>
-      <c r="EF30" s="48"/>
-      <c r="EG30" s="47"/>
-      <c r="EH30" s="47"/>
-      <c r="EI30" s="48"/>
-      <c r="EJ30" s="48"/>
-      <c r="EK30" s="48"/>
-      <c r="EL30" s="48"/>
-      <c r="EM30" s="48"/>
-      <c r="EN30" s="48"/>
-      <c r="EO30" s="47"/>
-      <c r="EP30" s="47"/>
-      <c r="EQ30" s="48"/>
-      <c r="ER30" s="48"/>
-      <c r="ES30" s="48"/>
-      <c r="ET30" s="48"/>
-      <c r="EU30" s="48"/>
-      <c r="EV30" s="47"/>
-      <c r="EW30" s="47"/>
-      <c r="EX30" s="48"/>
-      <c r="EY30" s="48"/>
-      <c r="EZ30" s="48"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="60"/>
+      <c r="BN30" s="48"/>
+      <c r="BO30" s="50"/>
+      <c r="BP30" s="49"/>
+      <c r="BQ30" s="48"/>
+      <c r="BR30" s="48"/>
+      <c r="BS30" s="48"/>
+      <c r="BT30" s="48"/>
+      <c r="BU30" s="48"/>
+      <c r="BV30" s="49"/>
+      <c r="BW30" s="50"/>
+      <c r="BX30" s="48"/>
+      <c r="BY30" s="48"/>
+      <c r="BZ30" s="48"/>
+      <c r="CA30" s="48"/>
+      <c r="CB30" s="48"/>
+      <c r="CC30" s="49"/>
+      <c r="CD30" s="50"/>
+      <c r="CE30" s="48"/>
+      <c r="CF30" s="48"/>
+      <c r="CG30" s="48"/>
+      <c r="CH30" s="48"/>
+      <c r="CI30" s="48"/>
+      <c r="CJ30" s="36"/>
+      <c r="CK30" s="6"/>
+      <c r="CL30" s="37"/>
+      <c r="CM30" s="48"/>
+      <c r="CN30" s="48"/>
+      <c r="CO30" s="48"/>
+      <c r="CP30" s="48"/>
+      <c r="CQ30" s="49"/>
+      <c r="CR30" s="50"/>
+      <c r="CS30" s="49"/>
+      <c r="CT30" s="49"/>
+      <c r="CU30" s="49"/>
+      <c r="CV30" s="48"/>
+      <c r="CW30" s="48"/>
+      <c r="CX30" s="49"/>
+      <c r="CY30" s="50"/>
+      <c r="CZ30" s="48"/>
+      <c r="DA30" s="48"/>
+      <c r="DB30" s="48"/>
+      <c r="DC30" s="48"/>
+      <c r="DD30" s="48"/>
+      <c r="DE30" s="49"/>
+      <c r="DF30" s="50"/>
+      <c r="DG30" s="48"/>
+      <c r="DH30" s="48"/>
+      <c r="DI30" s="48"/>
+      <c r="DJ30" s="48"/>
+      <c r="DK30" s="48"/>
+      <c r="DL30" s="49"/>
+      <c r="DM30" s="50"/>
+      <c r="DN30" s="48"/>
+      <c r="DO30" s="48"/>
+      <c r="DP30" s="48"/>
+      <c r="DQ30" s="48"/>
+      <c r="DR30" s="48"/>
+      <c r="DS30" s="49"/>
+      <c r="DT30" s="50"/>
+      <c r="DU30" s="48"/>
+      <c r="DV30" s="48"/>
+      <c r="DW30" s="45"/>
+      <c r="DX30" s="45"/>
+      <c r="DY30" s="45"/>
+      <c r="DZ30" s="46"/>
+      <c r="EA30" s="46"/>
+      <c r="EB30" s="47"/>
+      <c r="EC30" s="47"/>
+      <c r="ED30" s="47"/>
+      <c r="EE30" s="47"/>
+      <c r="EF30" s="47"/>
+      <c r="EG30" s="46"/>
+      <c r="EH30" s="46"/>
+      <c r="EI30" s="47"/>
+      <c r="EJ30" s="47"/>
+      <c r="EK30" s="47"/>
+      <c r="EL30" s="47"/>
+      <c r="EM30" s="47"/>
+      <c r="EN30" s="47"/>
+      <c r="EO30" s="46"/>
+      <c r="EP30" s="46"/>
+      <c r="EQ30" s="47"/>
+      <c r="ER30" s="47"/>
+      <c r="ES30" s="47"/>
+      <c r="ET30" s="47"/>
+      <c r="EU30" s="47"/>
+      <c r="EV30" s="46"/>
+      <c r="EW30" s="46"/>
+      <c r="EX30" s="47"/>
+      <c r="EY30" s="47"/>
+      <c r="EZ30" s="47"/>
     </row>
     <row r="31" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="43"/>
-      <c r="C31" s="53" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="53" t="s">
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="52">
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="51">
         <v>1</v>
       </c>
-      <c r="J31" s="56" t="s">
+      <c r="J31" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="53">
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="52">
         <v>3</v>
       </c>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="59" t="s">
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="61"/>
-      <c r="BN31" s="49"/>
-      <c r="BO31" s="51"/>
-      <c r="BP31" s="50"/>
-      <c r="BQ31" s="49"/>
-      <c r="BR31" s="49"/>
-      <c r="BS31" s="49"/>
-      <c r="BT31" s="49"/>
-      <c r="BU31" s="49"/>
-      <c r="BV31" s="50"/>
-      <c r="BW31" s="51"/>
-      <c r="BX31" s="49"/>
-      <c r="BY31" s="49"/>
-      <c r="BZ31" s="49"/>
-      <c r="CA31" s="49"/>
-      <c r="CB31" s="49"/>
-      <c r="CC31" s="50"/>
-      <c r="CD31" s="51"/>
-      <c r="CE31" s="49"/>
-      <c r="CF31" s="49"/>
-      <c r="CG31" s="49"/>
-      <c r="CH31" s="49"/>
-      <c r="CI31" s="49"/>
-      <c r="CJ31" s="50"/>
-      <c r="CK31" s="51"/>
-      <c r="CL31" s="49"/>
-      <c r="CM31" s="49"/>
-      <c r="CN31" s="37"/>
-      <c r="CO31" s="49"/>
-      <c r="CP31" s="49"/>
-      <c r="CQ31" s="50"/>
-      <c r="CR31" s="38"/>
-      <c r="CS31" s="50"/>
-      <c r="CT31" s="50"/>
-      <c r="CU31" s="50"/>
-      <c r="CV31" s="49"/>
-      <c r="CW31" s="49"/>
-      <c r="CX31" s="50"/>
-      <c r="CY31" s="51"/>
-      <c r="CZ31" s="49"/>
-      <c r="DA31" s="49"/>
-      <c r="DB31" s="49"/>
-      <c r="DC31" s="49"/>
-      <c r="DD31" s="49"/>
-      <c r="DE31" s="50"/>
-      <c r="DF31" s="51"/>
-      <c r="DG31" s="49"/>
-      <c r="DH31" s="49"/>
-      <c r="DI31" s="49"/>
-      <c r="DJ31" s="49"/>
-      <c r="DK31" s="49"/>
-      <c r="DL31" s="50"/>
-      <c r="DM31" s="51"/>
-      <c r="DN31" s="49"/>
-      <c r="DO31" s="49"/>
-      <c r="DP31" s="49"/>
-      <c r="DQ31" s="49"/>
-      <c r="DR31" s="49"/>
-      <c r="DS31" s="50"/>
-      <c r="DT31" s="51"/>
-      <c r="DU31" s="49"/>
-      <c r="DV31" s="49"/>
-      <c r="DW31" s="46"/>
-      <c r="DX31" s="46"/>
-      <c r="DY31" s="46"/>
-      <c r="DZ31" s="47"/>
-      <c r="EA31" s="47"/>
-      <c r="EB31" s="48"/>
-      <c r="EC31" s="48"/>
-      <c r="ED31" s="48"/>
-      <c r="EE31" s="48"/>
-      <c r="EF31" s="48"/>
-      <c r="EG31" s="47"/>
-      <c r="EH31" s="47"/>
-      <c r="EI31" s="48"/>
-      <c r="EJ31" s="48"/>
-      <c r="EK31" s="48"/>
-      <c r="EL31" s="48"/>
-      <c r="EM31" s="48"/>
-      <c r="EN31" s="48"/>
-      <c r="EO31" s="47"/>
-      <c r="EP31" s="47"/>
-      <c r="EQ31" s="48"/>
-      <c r="ER31" s="48"/>
-      <c r="ES31" s="48"/>
-      <c r="ET31" s="48"/>
-      <c r="EU31" s="48"/>
-      <c r="EV31" s="47"/>
-      <c r="EW31" s="47"/>
-      <c r="EX31" s="48"/>
-      <c r="EY31" s="48"/>
-      <c r="EZ31" s="48"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="60"/>
+      <c r="BN31" s="48"/>
+      <c r="BO31" s="50"/>
+      <c r="BP31" s="49"/>
+      <c r="BQ31" s="48"/>
+      <c r="BR31" s="48"/>
+      <c r="BS31" s="48"/>
+      <c r="BT31" s="48"/>
+      <c r="BU31" s="48"/>
+      <c r="BV31" s="49"/>
+      <c r="BW31" s="50"/>
+      <c r="BX31" s="48"/>
+      <c r="BY31" s="48"/>
+      <c r="BZ31" s="48"/>
+      <c r="CA31" s="48"/>
+      <c r="CB31" s="48"/>
+      <c r="CC31" s="49"/>
+      <c r="CD31" s="50"/>
+      <c r="CE31" s="48"/>
+      <c r="CF31" s="48"/>
+      <c r="CG31" s="48"/>
+      <c r="CH31" s="48"/>
+      <c r="CI31" s="48"/>
+      <c r="CJ31" s="49"/>
+      <c r="CK31" s="50"/>
+      <c r="CL31" s="48"/>
+      <c r="CM31" s="48"/>
+      <c r="CN31" s="36"/>
+      <c r="CO31" s="48"/>
+      <c r="CP31" s="48"/>
+      <c r="CQ31" s="49"/>
+      <c r="CR31" s="37"/>
+      <c r="CS31" s="49"/>
+      <c r="CT31" s="49"/>
+      <c r="CU31" s="49"/>
+      <c r="CV31" s="48"/>
+      <c r="CW31" s="48"/>
+      <c r="CX31" s="49"/>
+      <c r="CY31" s="50"/>
+      <c r="CZ31" s="48"/>
+      <c r="DA31" s="48"/>
+      <c r="DB31" s="48"/>
+      <c r="DC31" s="48"/>
+      <c r="DD31" s="48"/>
+      <c r="DE31" s="49"/>
+      <c r="DF31" s="50"/>
+      <c r="DG31" s="48"/>
+      <c r="DH31" s="48"/>
+      <c r="DI31" s="48"/>
+      <c r="DJ31" s="48"/>
+      <c r="DK31" s="48"/>
+      <c r="DL31" s="49"/>
+      <c r="DM31" s="50"/>
+      <c r="DN31" s="48"/>
+      <c r="DO31" s="48"/>
+      <c r="DP31" s="48"/>
+      <c r="DQ31" s="48"/>
+      <c r="DR31" s="48"/>
+      <c r="DS31" s="49"/>
+      <c r="DT31" s="50"/>
+      <c r="DU31" s="48"/>
+      <c r="DV31" s="48"/>
+      <c r="DW31" s="45"/>
+      <c r="DX31" s="45"/>
+      <c r="DY31" s="45"/>
+      <c r="DZ31" s="46"/>
+      <c r="EA31" s="46"/>
+      <c r="EB31" s="47"/>
+      <c r="EC31" s="47"/>
+      <c r="ED31" s="47"/>
+      <c r="EE31" s="47"/>
+      <c r="EF31" s="47"/>
+      <c r="EG31" s="46"/>
+      <c r="EH31" s="46"/>
+      <c r="EI31" s="47"/>
+      <c r="EJ31" s="47"/>
+      <c r="EK31" s="47"/>
+      <c r="EL31" s="47"/>
+      <c r="EM31" s="47"/>
+      <c r="EN31" s="47"/>
+      <c r="EO31" s="46"/>
+      <c r="EP31" s="46"/>
+      <c r="EQ31" s="47"/>
+      <c r="ER31" s="47"/>
+      <c r="ES31" s="47"/>
+      <c r="ET31" s="47"/>
+      <c r="EU31" s="47"/>
+      <c r="EV31" s="46"/>
+      <c r="EW31" s="46"/>
+      <c r="EX31" s="47"/>
+      <c r="EY31" s="47"/>
+      <c r="EZ31" s="47"/>
     </row>
     <row r="32" spans="1:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="43"/>
-      <c r="C32" s="53" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="53" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="52">
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="51">
         <v>1</v>
       </c>
-      <c r="J32" s="56" t="s">
+      <c r="J32" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="53">
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="52">
         <v>3</v>
       </c>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="59" t="s">
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="61"/>
-      <c r="BN32" s="49"/>
-      <c r="BO32" s="51"/>
-      <c r="BP32" s="50"/>
-      <c r="BQ32" s="49"/>
-      <c r="BR32" s="49"/>
-      <c r="BS32" s="49"/>
-      <c r="BT32" s="49"/>
-      <c r="BU32" s="49"/>
-      <c r="BV32" s="50"/>
-      <c r="BW32" s="51"/>
-      <c r="BX32" s="49"/>
-      <c r="BY32" s="49"/>
-      <c r="BZ32" s="49"/>
-      <c r="CA32" s="49"/>
-      <c r="CB32" s="49"/>
-      <c r="CC32" s="50"/>
-      <c r="CD32" s="51"/>
-      <c r="CE32" s="49"/>
-      <c r="CF32" s="49"/>
-      <c r="CG32" s="49"/>
-      <c r="CH32" s="49"/>
-      <c r="CI32" s="49"/>
-      <c r="CJ32" s="50"/>
-      <c r="CK32" s="51"/>
-      <c r="CL32" s="49"/>
-      <c r="CM32" s="44"/>
-      <c r="CN32" s="49"/>
-      <c r="CO32" s="49"/>
-      <c r="CP32" s="45"/>
-      <c r="CQ32" s="50"/>
-      <c r="CR32" s="51"/>
-      <c r="CS32" s="50"/>
-      <c r="CT32" s="50"/>
-      <c r="CU32" s="50"/>
-      <c r="CV32" s="49"/>
-      <c r="CW32" s="49"/>
-      <c r="CX32" s="50"/>
-      <c r="CY32" s="51"/>
-      <c r="CZ32" s="49"/>
-      <c r="DA32" s="49"/>
-      <c r="DB32" s="49"/>
-      <c r="DC32" s="49"/>
-      <c r="DD32" s="49"/>
-      <c r="DE32" s="50"/>
-      <c r="DF32" s="51"/>
-      <c r="DG32" s="49"/>
-      <c r="DH32" s="49"/>
-      <c r="DI32" s="49"/>
-      <c r="DJ32" s="49"/>
-      <c r="DK32" s="49"/>
-      <c r="DL32" s="50"/>
-      <c r="DM32" s="51"/>
-      <c r="DN32" s="49"/>
-      <c r="DO32" s="49"/>
-      <c r="DP32" s="49"/>
-      <c r="DQ32" s="49"/>
-      <c r="DR32" s="49"/>
-      <c r="DS32" s="50"/>
-      <c r="DT32" s="51"/>
-      <c r="DU32" s="49"/>
-      <c r="DV32" s="49"/>
-      <c r="DW32" s="46"/>
-      <c r="DX32" s="46"/>
-      <c r="DY32" s="46"/>
-      <c r="DZ32" s="47"/>
-      <c r="EA32" s="47"/>
-      <c r="EB32" s="48"/>
-      <c r="EC32" s="48"/>
-      <c r="ED32" s="48"/>
-      <c r="EE32" s="48"/>
-      <c r="EF32" s="48"/>
-      <c r="EG32" s="47"/>
-      <c r="EH32" s="47"/>
-      <c r="EI32" s="48"/>
-      <c r="EJ32" s="48"/>
-      <c r="EK32" s="48"/>
-      <c r="EL32" s="48"/>
-      <c r="EM32" s="48"/>
-      <c r="EN32" s="48"/>
-      <c r="EO32" s="47"/>
-      <c r="EP32" s="47"/>
-      <c r="EQ32" s="48"/>
-      <c r="ER32" s="48"/>
-      <c r="ES32" s="48"/>
-      <c r="ET32" s="48"/>
-      <c r="EU32" s="48"/>
-      <c r="EV32" s="47"/>
-      <c r="EW32" s="47"/>
-      <c r="EX32" s="48"/>
-      <c r="EY32" s="48"/>
-      <c r="EZ32" s="48"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="60"/>
+      <c r="BN32" s="48"/>
+      <c r="BO32" s="50"/>
+      <c r="BP32" s="49"/>
+      <c r="BQ32" s="48"/>
+      <c r="BR32" s="48"/>
+      <c r="BS32" s="48"/>
+      <c r="BT32" s="48"/>
+      <c r="BU32" s="48"/>
+      <c r="BV32" s="49"/>
+      <c r="BW32" s="50"/>
+      <c r="BX32" s="48"/>
+      <c r="BY32" s="48"/>
+      <c r="BZ32" s="48"/>
+      <c r="CA32" s="48"/>
+      <c r="CB32" s="48"/>
+      <c r="CC32" s="49"/>
+      <c r="CD32" s="50"/>
+      <c r="CE32" s="48"/>
+      <c r="CF32" s="48"/>
+      <c r="CG32" s="48"/>
+      <c r="CH32" s="48"/>
+      <c r="CI32" s="48"/>
+      <c r="CJ32" s="49"/>
+      <c r="CK32" s="50"/>
+      <c r="CL32" s="48"/>
+      <c r="CM32" s="48"/>
+      <c r="CN32" s="48"/>
+      <c r="CO32" s="43"/>
+      <c r="CP32" s="48"/>
+      <c r="CQ32" s="48"/>
+      <c r="CR32" s="44"/>
+      <c r="CS32" s="49"/>
+      <c r="CT32" s="49"/>
+      <c r="CU32" s="49"/>
+      <c r="CV32" s="48"/>
+      <c r="CW32" s="48"/>
+      <c r="CX32" s="49"/>
+      <c r="CY32" s="50"/>
+      <c r="CZ32" s="48"/>
+      <c r="DA32" s="48"/>
+      <c r="DB32" s="48"/>
+      <c r="DC32" s="48"/>
+      <c r="DD32" s="48"/>
+      <c r="DE32" s="49"/>
+      <c r="DF32" s="50"/>
+      <c r="DG32" s="48"/>
+      <c r="DH32" s="48"/>
+      <c r="DI32" s="48"/>
+      <c r="DJ32" s="48"/>
+      <c r="DK32" s="48"/>
+      <c r="DL32" s="49"/>
+      <c r="DM32" s="50"/>
+      <c r="DN32" s="48"/>
+      <c r="DO32" s="48"/>
+      <c r="DP32" s="48"/>
+      <c r="DQ32" s="48"/>
+      <c r="DR32" s="48"/>
+      <c r="DS32" s="49"/>
+      <c r="DT32" s="50"/>
+      <c r="DU32" s="48"/>
+      <c r="DV32" s="48"/>
+      <c r="DW32" s="45"/>
+      <c r="DX32" s="45"/>
+      <c r="DY32" s="45"/>
+      <c r="DZ32" s="46"/>
+      <c r="EA32" s="46"/>
+      <c r="EB32" s="47"/>
+      <c r="EC32" s="47"/>
+      <c r="ED32" s="47"/>
+      <c r="EE32" s="47"/>
+      <c r="EF32" s="47"/>
+      <c r="EG32" s="46"/>
+      <c r="EH32" s="46"/>
+      <c r="EI32" s="47"/>
+      <c r="EJ32" s="47"/>
+      <c r="EK32" s="47"/>
+      <c r="EL32" s="47"/>
+      <c r="EM32" s="47"/>
+      <c r="EN32" s="47"/>
+      <c r="EO32" s="46"/>
+      <c r="EP32" s="46"/>
+      <c r="EQ32" s="47"/>
+      <c r="ER32" s="47"/>
+      <c r="ES32" s="47"/>
+      <c r="ET32" s="47"/>
+      <c r="EU32" s="47"/>
+      <c r="EV32" s="46"/>
+      <c r="EW32" s="46"/>
+      <c r="EX32" s="47"/>
+      <c r="EY32" s="47"/>
+      <c r="EZ32" s="47"/>
     </row>
     <row r="33" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="43"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="53" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="52">
+      <c r="G33" s="53"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="51">
         <v>2</v>
       </c>
-      <c r="J33" s="56" t="s">
+      <c r="J33" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="53">
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="52">
         <v>3</v>
       </c>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="59" t="s">
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="61"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="51"/>
-      <c r="BP33" s="50"/>
-      <c r="BQ33" s="49"/>
-      <c r="BR33" s="49"/>
-      <c r="BS33" s="49"/>
-      <c r="BT33" s="49"/>
-      <c r="BU33" s="49"/>
-      <c r="BV33" s="50"/>
-      <c r="BW33" s="51"/>
-      <c r="BX33" s="49"/>
-      <c r="BY33" s="49"/>
-      <c r="BZ33" s="49"/>
-      <c r="CA33" s="49"/>
-      <c r="CB33" s="49"/>
-      <c r="CC33" s="50"/>
-      <c r="CD33" s="51"/>
-      <c r="CE33" s="49"/>
-      <c r="CF33" s="49"/>
-      <c r="CG33" s="49"/>
-      <c r="CH33" s="49"/>
-      <c r="CI33" s="49"/>
-      <c r="CJ33" s="51"/>
-      <c r="CK33" s="51"/>
-      <c r="CL33" s="49"/>
-      <c r="CM33" s="49"/>
-      <c r="CN33" s="49"/>
-      <c r="CO33" s="44"/>
-      <c r="CP33" s="49"/>
-      <c r="CQ33" s="49"/>
-      <c r="CR33" s="49"/>
-      <c r="CS33" s="45"/>
-      <c r="CT33" s="50"/>
-      <c r="CU33" s="50"/>
-      <c r="CV33" s="49"/>
-      <c r="CW33" s="49"/>
-      <c r="CX33" s="50"/>
-      <c r="CY33" s="51"/>
-      <c r="CZ33" s="49"/>
-      <c r="DA33" s="49"/>
-      <c r="DB33" s="49"/>
-      <c r="DC33" s="49"/>
-      <c r="DD33" s="49"/>
-      <c r="DE33" s="50"/>
-      <c r="DF33" s="51"/>
-      <c r="DG33" s="49"/>
-      <c r="DH33" s="49"/>
-      <c r="DI33" s="49"/>
-      <c r="DJ33" s="49"/>
-      <c r="DK33" s="49"/>
-      <c r="DL33" s="50"/>
-      <c r="DM33" s="51"/>
-      <c r="DN33" s="49"/>
-      <c r="DO33" s="49"/>
-      <c r="DP33" s="49"/>
-      <c r="DQ33" s="49"/>
-      <c r="DR33" s="49"/>
-      <c r="DS33" s="50"/>
-      <c r="DT33" s="51"/>
-      <c r="DU33" s="49"/>
-      <c r="DV33" s="49"/>
-      <c r="DW33" s="46"/>
-      <c r="DX33" s="46"/>
-      <c r="DY33" s="46"/>
-      <c r="DZ33" s="47"/>
-      <c r="EA33" s="47"/>
-      <c r="EB33" s="48"/>
-      <c r="EC33" s="48"/>
-      <c r="ED33" s="48"/>
-      <c r="EE33" s="48"/>
-      <c r="EF33" s="48"/>
-      <c r="EG33" s="47"/>
-      <c r="EH33" s="47"/>
-      <c r="EI33" s="48"/>
-      <c r="EJ33" s="48"/>
-      <c r="EK33" s="48"/>
-      <c r="EL33" s="48"/>
-      <c r="EM33" s="48"/>
-      <c r="EN33" s="48"/>
-      <c r="EO33" s="47"/>
-      <c r="EP33" s="47"/>
-      <c r="EQ33" s="48"/>
-      <c r="ER33" s="48"/>
-      <c r="ES33" s="48"/>
-      <c r="ET33" s="48"/>
-      <c r="EU33" s="48"/>
-      <c r="EV33" s="47"/>
-      <c r="EW33" s="47"/>
-      <c r="EX33" s="48"/>
-      <c r="EY33" s="48"/>
-      <c r="EZ33" s="48"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="60"/>
+      <c r="BN33" s="48"/>
+      <c r="BO33" s="50"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="48"/>
+      <c r="BR33" s="48"/>
+      <c r="BS33" s="48"/>
+      <c r="BT33" s="48"/>
+      <c r="BU33" s="48"/>
+      <c r="BV33" s="49"/>
+      <c r="BW33" s="50"/>
+      <c r="BX33" s="48"/>
+      <c r="BY33" s="48"/>
+      <c r="BZ33" s="48"/>
+      <c r="CA33" s="48"/>
+      <c r="CB33" s="48"/>
+      <c r="CC33" s="49"/>
+      <c r="CD33" s="50"/>
+      <c r="CE33" s="48"/>
+      <c r="CF33" s="48"/>
+      <c r="CG33" s="48"/>
+      <c r="CH33" s="48"/>
+      <c r="CI33" s="48"/>
+      <c r="CJ33" s="50"/>
+      <c r="CK33" s="50"/>
+      <c r="CL33" s="48"/>
+      <c r="CM33" s="48"/>
+      <c r="CN33" s="48"/>
+      <c r="CO33" s="43"/>
+      <c r="CP33" s="48"/>
+      <c r="CQ33" s="48"/>
+      <c r="CR33" s="48"/>
+      <c r="CS33" s="44"/>
+      <c r="CT33" s="49"/>
+      <c r="CU33" s="49"/>
+      <c r="CV33" s="48"/>
+      <c r="CW33" s="48"/>
+      <c r="CX33" s="49"/>
+      <c r="CY33" s="50"/>
+      <c r="CZ33" s="48"/>
+      <c r="DA33" s="48"/>
+      <c r="DB33" s="48"/>
+      <c r="DC33" s="48"/>
+      <c r="DD33" s="48"/>
+      <c r="DE33" s="49"/>
+      <c r="DF33" s="50"/>
+      <c r="DG33" s="48"/>
+      <c r="DH33" s="48"/>
+      <c r="DI33" s="48"/>
+      <c r="DJ33" s="48"/>
+      <c r="DK33" s="48"/>
+      <c r="DL33" s="49"/>
+      <c r="DM33" s="50"/>
+      <c r="DN33" s="48"/>
+      <c r="DO33" s="48"/>
+      <c r="DP33" s="48"/>
+      <c r="DQ33" s="48"/>
+      <c r="DR33" s="48"/>
+      <c r="DS33" s="49"/>
+      <c r="DT33" s="50"/>
+      <c r="DU33" s="48"/>
+      <c r="DV33" s="48"/>
+      <c r="DW33" s="45"/>
+      <c r="DX33" s="45"/>
+      <c r="DY33" s="45"/>
+      <c r="DZ33" s="46"/>
+      <c r="EA33" s="46"/>
+      <c r="EB33" s="47"/>
+      <c r="EC33" s="47"/>
+      <c r="ED33" s="47"/>
+      <c r="EE33" s="47"/>
+      <c r="EF33" s="47"/>
+      <c r="EG33" s="46"/>
+      <c r="EH33" s="46"/>
+      <c r="EI33" s="47"/>
+      <c r="EJ33" s="47"/>
+      <c r="EK33" s="47"/>
+      <c r="EL33" s="47"/>
+      <c r="EM33" s="47"/>
+      <c r="EN33" s="47"/>
+      <c r="EO33" s="46"/>
+      <c r="EP33" s="46"/>
+      <c r="EQ33" s="47"/>
+      <c r="ER33" s="47"/>
+      <c r="ES33" s="47"/>
+      <c r="ET33" s="47"/>
+      <c r="EU33" s="47"/>
+      <c r="EV33" s="46"/>
+      <c r="EW33" s="46"/>
+      <c r="EX33" s="47"/>
+      <c r="EY33" s="47"/>
+      <c r="EZ33" s="47"/>
     </row>
     <row r="34" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="43"/>
-      <c r="C34" s="53" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="53" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="52">
+      <c r="G34" s="53"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="51">
         <v>1</v>
       </c>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="53">
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="52">
         <v>3</v>
       </c>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="61"/>
-      <c r="BN34" s="49"/>
-      <c r="BO34" s="51"/>
-      <c r="BP34" s="50"/>
-      <c r="BQ34" s="49"/>
-      <c r="BR34" s="49"/>
-      <c r="BS34" s="49"/>
-      <c r="BT34" s="49"/>
-      <c r="BU34" s="49"/>
-      <c r="BV34" s="50"/>
-      <c r="BW34" s="51"/>
-      <c r="BX34" s="49"/>
-      <c r="BY34" s="49"/>
-      <c r="BZ34" s="49"/>
-      <c r="CA34" s="49"/>
-      <c r="CB34" s="49"/>
-      <c r="CC34" s="50"/>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="49"/>
-      <c r="CF34" s="49"/>
-      <c r="CG34" s="49"/>
-      <c r="CH34" s="49"/>
-      <c r="CI34" s="49"/>
-      <c r="CJ34" s="51"/>
-      <c r="CK34" s="51"/>
-      <c r="CL34" s="44"/>
-      <c r="CM34" s="49"/>
-      <c r="CN34" s="49"/>
-      <c r="CO34" s="45"/>
-      <c r="CP34" s="49"/>
-      <c r="CQ34" s="50"/>
-      <c r="CR34" s="51"/>
-      <c r="CS34" s="50"/>
-      <c r="CT34" s="50"/>
-      <c r="CU34" s="50"/>
-      <c r="CV34" s="49"/>
-      <c r="CW34" s="49"/>
-      <c r="CX34" s="50"/>
-      <c r="CY34" s="51"/>
-      <c r="CZ34" s="49"/>
-      <c r="DA34" s="49"/>
-      <c r="DB34" s="49"/>
-      <c r="DC34" s="49"/>
-      <c r="DD34" s="49"/>
-      <c r="DE34" s="50"/>
-      <c r="DF34" s="51"/>
-      <c r="DG34" s="49"/>
-      <c r="DH34" s="49"/>
-      <c r="DI34" s="49"/>
-      <c r="DJ34" s="49"/>
-      <c r="DK34" s="49"/>
-      <c r="DL34" s="50"/>
-      <c r="DM34" s="51"/>
-      <c r="DN34" s="49"/>
-      <c r="DO34" s="49"/>
-      <c r="DP34" s="49"/>
-      <c r="DQ34" s="49"/>
-      <c r="DR34" s="49"/>
-      <c r="DS34" s="50"/>
-      <c r="DT34" s="51"/>
-      <c r="DU34" s="49"/>
-      <c r="DV34" s="49"/>
-      <c r="DW34" s="46"/>
-      <c r="DX34" s="46"/>
-      <c r="DY34" s="46"/>
-      <c r="DZ34" s="47"/>
-      <c r="EA34" s="47"/>
-      <c r="EB34" s="48"/>
-      <c r="EC34" s="48"/>
-      <c r="ED34" s="48"/>
-      <c r="EE34" s="48"/>
-      <c r="EF34" s="48"/>
-      <c r="EG34" s="47"/>
-      <c r="EH34" s="47"/>
-      <c r="EI34" s="48"/>
-      <c r="EJ34" s="48"/>
-      <c r="EK34" s="48"/>
-      <c r="EL34" s="48"/>
-      <c r="EM34" s="48"/>
-      <c r="EN34" s="48"/>
-      <c r="EO34" s="47"/>
-      <c r="EP34" s="47"/>
-      <c r="EQ34" s="48"/>
-      <c r="ER34" s="48"/>
-      <c r="ES34" s="48"/>
-      <c r="ET34" s="48"/>
-      <c r="EU34" s="48"/>
-      <c r="EV34" s="47"/>
-      <c r="EW34" s="47"/>
-      <c r="EX34" s="48"/>
-      <c r="EY34" s="48"/>
-      <c r="EZ34" s="48"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
+      <c r="BN34" s="48"/>
+      <c r="BO34" s="50"/>
+      <c r="BP34" s="49"/>
+      <c r="BQ34" s="48"/>
+      <c r="BR34" s="48"/>
+      <c r="BS34" s="48"/>
+      <c r="BT34" s="48"/>
+      <c r="BU34" s="48"/>
+      <c r="BV34" s="49"/>
+      <c r="BW34" s="50"/>
+      <c r="BX34" s="48"/>
+      <c r="BY34" s="48"/>
+      <c r="BZ34" s="48"/>
+      <c r="CA34" s="48"/>
+      <c r="CB34" s="48"/>
+      <c r="CC34" s="49"/>
+      <c r="CD34" s="50"/>
+      <c r="CE34" s="48"/>
+      <c r="CF34" s="48"/>
+      <c r="CG34" s="48"/>
+      <c r="CH34" s="48"/>
+      <c r="CI34" s="48"/>
+      <c r="CJ34" s="50"/>
+      <c r="CK34" s="50"/>
+      <c r="CL34" s="48"/>
+      <c r="CM34" s="48"/>
+      <c r="CN34" s="48"/>
+      <c r="CO34" s="48"/>
+      <c r="CP34" s="48"/>
+      <c r="CQ34" s="43"/>
+      <c r="CR34" s="48"/>
+      <c r="CS34" s="48"/>
+      <c r="CT34" s="49"/>
+      <c r="CU34" s="44"/>
+      <c r="CV34" s="48"/>
+      <c r="CW34" s="48"/>
+      <c r="CX34" s="49"/>
+      <c r="CY34" s="50"/>
+      <c r="CZ34" s="48"/>
+      <c r="DA34" s="48"/>
+      <c r="DB34" s="48"/>
+      <c r="DC34" s="48"/>
+      <c r="DD34" s="48"/>
+      <c r="DE34" s="49"/>
+      <c r="DF34" s="50"/>
+      <c r="DG34" s="48"/>
+      <c r="DH34" s="48"/>
+      <c r="DI34" s="48"/>
+      <c r="DJ34" s="48"/>
+      <c r="DK34" s="48"/>
+      <c r="DL34" s="49"/>
+      <c r="DM34" s="50"/>
+      <c r="DN34" s="48"/>
+      <c r="DO34" s="48"/>
+      <c r="DP34" s="48"/>
+      <c r="DQ34" s="48"/>
+      <c r="DR34" s="48"/>
+      <c r="DS34" s="49"/>
+      <c r="DT34" s="50"/>
+      <c r="DU34" s="48"/>
+      <c r="DV34" s="48"/>
+      <c r="DW34" s="45"/>
+      <c r="DX34" s="45"/>
+      <c r="DY34" s="45"/>
+      <c r="DZ34" s="46"/>
+      <c r="EA34" s="46"/>
+      <c r="EB34" s="47"/>
+      <c r="EC34" s="47"/>
+      <c r="ED34" s="47"/>
+      <c r="EE34" s="47"/>
+      <c r="EF34" s="47"/>
+      <c r="EG34" s="46"/>
+      <c r="EH34" s="46"/>
+      <c r="EI34" s="47"/>
+      <c r="EJ34" s="47"/>
+      <c r="EK34" s="47"/>
+      <c r="EL34" s="47"/>
+      <c r="EM34" s="47"/>
+      <c r="EN34" s="47"/>
+      <c r="EO34" s="46"/>
+      <c r="EP34" s="46"/>
+      <c r="EQ34" s="47"/>
+      <c r="ER34" s="47"/>
+      <c r="ES34" s="47"/>
+      <c r="ET34" s="47"/>
+      <c r="EU34" s="47"/>
+      <c r="EV34" s="46"/>
+      <c r="EW34" s="46"/>
+      <c r="EX34" s="47"/>
+      <c r="EY34" s="47"/>
+      <c r="EZ34" s="47"/>
     </row>
     <row r="35" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="43"/>
-      <c r="C35" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="52">
-        <v>1</v>
-      </c>
-      <c r="J35" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="53">
-        <v>3</v>
-      </c>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="61"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="51"/>
-      <c r="BP35" s="50"/>
-      <c r="BQ35" s="49"/>
-      <c r="BR35" s="49"/>
-      <c r="BS35" s="49"/>
-      <c r="BT35" s="49"/>
-      <c r="BU35" s="49"/>
-      <c r="BV35" s="50"/>
-      <c r="BW35" s="51"/>
-      <c r="BX35" s="49"/>
-      <c r="BY35" s="49"/>
-      <c r="BZ35" s="49"/>
-      <c r="CB35" s="49"/>
-      <c r="CC35" s="50"/>
-      <c r="CD35" s="51"/>
-      <c r="CE35" s="49"/>
-      <c r="CF35" s="44"/>
-      <c r="CG35" s="49"/>
-      <c r="CH35" s="49"/>
-      <c r="CI35" s="45"/>
-      <c r="CJ35" s="50"/>
-      <c r="CK35" s="51"/>
-      <c r="CL35" s="49"/>
-      <c r="CM35" s="49"/>
-      <c r="CN35" s="49"/>
-      <c r="CO35" s="49"/>
-      <c r="CP35" s="49"/>
-      <c r="CQ35" s="50"/>
-      <c r="CR35" s="51"/>
-      <c r="CS35" s="50"/>
-      <c r="CT35" s="50"/>
-      <c r="CU35" s="50"/>
-      <c r="CV35" s="49"/>
-      <c r="CW35" s="49"/>
-      <c r="CX35" s="50"/>
-      <c r="CY35" s="51"/>
-      <c r="CZ35" s="49"/>
-      <c r="DA35" s="49"/>
-      <c r="DB35" s="49"/>
-      <c r="DC35" s="49"/>
-      <c r="DD35" s="49"/>
-      <c r="DE35" s="50"/>
-      <c r="DF35" s="51"/>
-      <c r="DG35" s="49"/>
-      <c r="DH35" s="49"/>
-      <c r="DI35" s="49"/>
-      <c r="DJ35" s="49"/>
-      <c r="DK35" s="49"/>
-      <c r="DL35" s="50"/>
-      <c r="DM35" s="51"/>
-      <c r="DN35" s="49"/>
-      <c r="DO35" s="49"/>
-      <c r="DP35" s="49"/>
-      <c r="DQ35" s="49"/>
-      <c r="DR35" s="49"/>
-      <c r="DS35" s="50"/>
-      <c r="DT35" s="51"/>
-      <c r="DU35" s="49"/>
-      <c r="DV35" s="49"/>
-      <c r="DW35" s="46"/>
-      <c r="DX35" s="46"/>
-      <c r="DY35" s="46"/>
-      <c r="DZ35" s="47"/>
-      <c r="EA35" s="47"/>
-      <c r="EB35" s="48"/>
-      <c r="EC35" s="48"/>
-      <c r="ED35" s="48"/>
-      <c r="EE35" s="48"/>
-      <c r="EF35" s="48"/>
-      <c r="EG35" s="47"/>
-      <c r="EH35" s="47"/>
-      <c r="EI35" s="48"/>
-      <c r="EJ35" s="48"/>
-      <c r="EK35" s="48"/>
-      <c r="EL35" s="48"/>
-      <c r="EM35" s="48"/>
-      <c r="EN35" s="48"/>
-      <c r="EO35" s="47"/>
-      <c r="EP35" s="47"/>
-      <c r="EQ35" s="48"/>
-      <c r="ER35" s="48"/>
-      <c r="ES35" s="48"/>
-      <c r="ET35" s="48"/>
-      <c r="EU35" s="48"/>
-      <c r="EV35" s="47"/>
-      <c r="EW35" s="47"/>
-      <c r="EX35" s="48"/>
-      <c r="EY35" s="48"/>
-      <c r="EZ35" s="48"/>
+      <c r="B35" s="42"/>
     </row>
     <row r="36" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="43"/>
-      <c r="C36" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="52">
-        <v>1</v>
-      </c>
-      <c r="J36" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="53">
-        <v>3</v>
-      </c>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="61"/>
-      <c r="BN36" s="49"/>
-      <c r="BO36" s="51"/>
-      <c r="BP36" s="50"/>
-      <c r="BQ36" s="49"/>
-      <c r="BR36" s="49"/>
-      <c r="BS36" s="49"/>
-      <c r="BT36" s="49"/>
-      <c r="BU36" s="49"/>
-      <c r="BV36" s="50"/>
-      <c r="BW36" s="51"/>
-      <c r="BX36" s="49"/>
-      <c r="BY36" s="49"/>
-      <c r="BZ36" s="49"/>
-      <c r="CA36" s="49"/>
-      <c r="CB36" s="49"/>
-      <c r="CC36" s="50"/>
-      <c r="CD36" s="51"/>
-      <c r="CE36" s="49"/>
-      <c r="CF36" s="44"/>
-      <c r="CG36" s="49"/>
-      <c r="CI36" s="45"/>
-      <c r="CJ36" s="50"/>
-      <c r="CK36" s="51"/>
-      <c r="CL36" s="49"/>
-      <c r="CM36" s="49"/>
-      <c r="CN36" s="49"/>
-      <c r="CO36" s="49"/>
-      <c r="CP36" s="49"/>
-      <c r="CQ36" s="50"/>
-      <c r="CR36" s="51"/>
-      <c r="CS36" s="50"/>
-      <c r="CT36" s="50"/>
-      <c r="CU36" s="50"/>
-      <c r="CV36" s="49"/>
-      <c r="CW36" s="49"/>
-      <c r="CX36" s="50"/>
-      <c r="CY36" s="51"/>
-      <c r="CZ36" s="49"/>
-      <c r="DA36" s="49"/>
-      <c r="DB36" s="49"/>
-      <c r="DC36" s="49"/>
-      <c r="DD36" s="49"/>
-      <c r="DE36" s="50"/>
-      <c r="DF36" s="51"/>
-      <c r="DG36" s="49"/>
-      <c r="DH36" s="49"/>
-      <c r="DI36" s="49"/>
-      <c r="DJ36" s="49"/>
-      <c r="DK36" s="49"/>
-      <c r="DL36" s="50"/>
-      <c r="DM36" s="51"/>
-      <c r="DN36" s="49"/>
-      <c r="DO36" s="49"/>
-      <c r="DP36" s="49"/>
-      <c r="DQ36" s="49"/>
-      <c r="DR36" s="49"/>
-      <c r="DS36" s="50"/>
-      <c r="DT36" s="51"/>
-      <c r="DU36" s="49"/>
-      <c r="DV36" s="49"/>
-      <c r="DW36" s="46"/>
-      <c r="DX36" s="46"/>
-      <c r="DY36" s="46"/>
-      <c r="DZ36" s="47"/>
-      <c r="EA36" s="47"/>
-      <c r="EB36" s="48"/>
-      <c r="EC36" s="48"/>
-      <c r="ED36" s="48"/>
-      <c r="EE36" s="48"/>
-      <c r="EF36" s="48"/>
-      <c r="EG36" s="47"/>
-      <c r="EH36" s="47"/>
-      <c r="EI36" s="48"/>
-      <c r="EJ36" s="48"/>
-      <c r="EK36" s="48"/>
-      <c r="EL36" s="48"/>
-      <c r="EM36" s="48"/>
-      <c r="EN36" s="48"/>
-      <c r="EO36" s="47"/>
-      <c r="EP36" s="47"/>
-      <c r="EQ36" s="48"/>
-      <c r="ER36" s="48"/>
-      <c r="ES36" s="48"/>
-      <c r="ET36" s="48"/>
-      <c r="EU36" s="48"/>
-      <c r="EV36" s="47"/>
-      <c r="EW36" s="47"/>
-      <c r="EX36" s="48"/>
-      <c r="EY36" s="48"/>
-      <c r="EZ36" s="48"/>
+      <c r="B36" s="42"/>
     </row>
     <row r="37" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="43"/>
-      <c r="C37" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="52">
-        <v>1</v>
-      </c>
-      <c r="J37" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="53">
-        <v>3</v>
-      </c>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="61"/>
-      <c r="BN37" s="49"/>
-      <c r="BO37" s="51"/>
-      <c r="BP37" s="50"/>
-      <c r="BQ37" s="49"/>
-      <c r="BR37" s="49"/>
-      <c r="BS37" s="49"/>
-      <c r="BT37" s="49"/>
-      <c r="BU37" s="49"/>
-      <c r="BV37" s="50"/>
-      <c r="BW37" s="51"/>
-      <c r="BX37" s="49"/>
-      <c r="BY37" s="49"/>
-      <c r="BZ37" s="49"/>
-      <c r="CA37" s="49"/>
-      <c r="CB37" s="49"/>
-      <c r="CC37" s="50"/>
-      <c r="CD37" s="51"/>
-      <c r="CE37" s="49"/>
-      <c r="CF37" s="49"/>
-      <c r="CG37" s="49"/>
-      <c r="CH37" s="49"/>
-      <c r="CI37" s="44"/>
-      <c r="CJ37" s="50"/>
-      <c r="CK37" s="50"/>
-      <c r="CL37" s="45"/>
-      <c r="CM37" s="49"/>
-      <c r="CN37" s="49"/>
-      <c r="CO37" s="49"/>
-      <c r="CP37" s="49"/>
-      <c r="CQ37" s="50"/>
-      <c r="CR37" s="51"/>
-      <c r="CS37" s="50"/>
-      <c r="CT37" s="50"/>
-      <c r="CU37" s="50"/>
-      <c r="CV37" s="49"/>
-      <c r="CW37" s="49"/>
-      <c r="CX37" s="50"/>
-      <c r="CY37" s="51"/>
-      <c r="CZ37" s="49"/>
-      <c r="DA37" s="49"/>
-      <c r="DB37" s="49"/>
-      <c r="DC37" s="49"/>
-      <c r="DD37" s="49"/>
-      <c r="DE37" s="50"/>
-      <c r="DF37" s="51"/>
-      <c r="DG37" s="49"/>
-      <c r="DH37" s="49"/>
-      <c r="DI37" s="49"/>
-      <c r="DJ37" s="49"/>
-      <c r="DK37" s="49"/>
-      <c r="DL37" s="50"/>
-      <c r="DM37" s="51"/>
-      <c r="DN37" s="49"/>
-      <c r="DO37" s="49"/>
-      <c r="DP37" s="49"/>
-      <c r="DQ37" s="49"/>
-      <c r="DR37" s="49"/>
-      <c r="DS37" s="50"/>
-      <c r="DT37" s="51"/>
-      <c r="DU37" s="49"/>
-      <c r="DV37" s="49"/>
-      <c r="DW37" s="46"/>
-      <c r="DX37" s="46"/>
-      <c r="DY37" s="46"/>
-      <c r="DZ37" s="47"/>
-      <c r="EA37" s="47"/>
-      <c r="EB37" s="48"/>
-      <c r="EC37" s="48"/>
-      <c r="ED37" s="48"/>
-      <c r="EE37" s="48"/>
-      <c r="EF37" s="48"/>
-      <c r="EG37" s="47"/>
-      <c r="EH37" s="47"/>
-      <c r="EI37" s="48"/>
-      <c r="EJ37" s="48"/>
-      <c r="EK37" s="48"/>
-      <c r="EL37" s="48"/>
-      <c r="EM37" s="48"/>
-      <c r="EN37" s="48"/>
-      <c r="EO37" s="47"/>
-      <c r="EP37" s="47"/>
-      <c r="EQ37" s="48"/>
-      <c r="ER37" s="48"/>
-      <c r="ES37" s="48"/>
-      <c r="ET37" s="48"/>
-      <c r="EU37" s="48"/>
-      <c r="EV37" s="47"/>
-      <c r="EW37" s="47"/>
-      <c r="EX37" s="48"/>
-      <c r="EY37" s="48"/>
-      <c r="EZ37" s="48"/>
+      <c r="B37" s="42"/>
     </row>
     <row r="38" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="43"/>
-      <c r="C38" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="52">
-        <v>1</v>
-      </c>
-      <c r="J38" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="58"/>
-      <c r="X38" s="53">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="61"/>
-      <c r="BN38" s="49"/>
-      <c r="BO38" s="51"/>
-      <c r="BP38" s="50"/>
-      <c r="BQ38" s="49"/>
-      <c r="BR38" s="49"/>
-      <c r="BS38" s="49"/>
-      <c r="BT38" s="49"/>
-      <c r="BU38" s="49"/>
-      <c r="BV38" s="50"/>
-      <c r="BW38" s="51"/>
-      <c r="BX38" s="49"/>
-      <c r="BY38" s="49"/>
-      <c r="BZ38" s="49"/>
-      <c r="CA38" s="49"/>
-      <c r="CB38" s="49"/>
-      <c r="CC38" s="50"/>
-      <c r="CD38" s="51"/>
-      <c r="CE38" s="49"/>
-      <c r="CF38" s="49"/>
-      <c r="CG38" s="49"/>
-      <c r="CH38" s="49"/>
-      <c r="CI38" s="49"/>
-      <c r="CJ38" s="50"/>
-      <c r="CK38" s="50"/>
-      <c r="CL38" s="44"/>
-      <c r="CM38" s="49"/>
-      <c r="CN38" s="49"/>
-      <c r="CO38" s="45"/>
-      <c r="CP38" s="49"/>
-      <c r="CQ38" s="50"/>
-      <c r="CR38" s="51"/>
-      <c r="CS38" s="50"/>
-      <c r="CT38" s="50"/>
-      <c r="CU38" s="50"/>
-      <c r="CV38" s="49"/>
-      <c r="CW38" s="49"/>
-      <c r="CX38" s="50"/>
-      <c r="CY38" s="51"/>
-      <c r="CZ38" s="49"/>
-      <c r="DA38" s="49"/>
-      <c r="DB38" s="49"/>
-      <c r="DC38" s="49"/>
-      <c r="DD38" s="49"/>
-      <c r="DE38" s="50"/>
-      <c r="DF38" s="51"/>
-      <c r="DG38" s="49"/>
-      <c r="DH38" s="49"/>
-      <c r="DI38" s="49"/>
-      <c r="DJ38" s="49"/>
-      <c r="DK38" s="49"/>
-      <c r="DL38" s="50"/>
-      <c r="DM38" s="51"/>
-      <c r="DN38" s="49"/>
-      <c r="DO38" s="49"/>
-      <c r="DP38" s="49"/>
-      <c r="DQ38" s="49"/>
-      <c r="DR38" s="49"/>
-      <c r="DS38" s="50"/>
-      <c r="DT38" s="51"/>
-      <c r="DU38" s="49"/>
-      <c r="DV38" s="49"/>
-      <c r="DW38" s="46"/>
-      <c r="DX38" s="46"/>
-      <c r="DY38" s="46"/>
-      <c r="DZ38" s="47"/>
-      <c r="EA38" s="47"/>
-      <c r="EB38" s="48"/>
-      <c r="EC38" s="48"/>
-      <c r="ED38" s="48"/>
-      <c r="EE38" s="48"/>
-      <c r="EF38" s="48"/>
-      <c r="EG38" s="47"/>
-      <c r="EH38" s="47"/>
-      <c r="EI38" s="48"/>
-      <c r="EJ38" s="48"/>
-      <c r="EK38" s="48"/>
-      <c r="EL38" s="48"/>
-      <c r="EM38" s="48"/>
-      <c r="EN38" s="48"/>
-      <c r="EO38" s="47"/>
-      <c r="EP38" s="47"/>
-      <c r="EQ38" s="48"/>
-      <c r="ER38" s="48"/>
-      <c r="ES38" s="48"/>
-      <c r="ET38" s="48"/>
-      <c r="EU38" s="48"/>
-      <c r="EV38" s="47"/>
-      <c r="EW38" s="47"/>
-      <c r="EX38" s="48"/>
-      <c r="EY38" s="48"/>
-      <c r="EZ38" s="48"/>
+      <c r="B38" s="42"/>
     </row>
     <row r="39" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="43"/>
-      <c r="C39" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="52">
-        <v>1</v>
-      </c>
-      <c r="J39" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="53">
-        <v>3</v>
-      </c>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="61"/>
-      <c r="BN39" s="49"/>
-      <c r="BO39" s="51"/>
-      <c r="BP39" s="50"/>
-      <c r="BQ39" s="49"/>
-      <c r="BR39" s="49"/>
-      <c r="BS39" s="49"/>
-      <c r="BT39" s="49"/>
-      <c r="BU39" s="49"/>
-      <c r="BV39" s="50"/>
-      <c r="BW39" s="51"/>
-      <c r="BX39" s="49"/>
-      <c r="BY39" s="49"/>
-      <c r="BZ39" s="49"/>
-      <c r="CA39" s="49"/>
-      <c r="CB39" s="49"/>
-      <c r="CC39" s="50"/>
-      <c r="CD39" s="51"/>
-      <c r="CE39" s="49"/>
-      <c r="CF39" s="49"/>
-      <c r="CG39" s="49"/>
-      <c r="CI39" s="44"/>
-      <c r="CJ39" s="51"/>
-      <c r="CK39" s="50"/>
-      <c r="CL39" s="45"/>
-      <c r="CM39" s="49"/>
-      <c r="CN39" s="49"/>
-      <c r="CO39" s="49"/>
-      <c r="CP39" s="49"/>
-      <c r="CQ39" s="50"/>
-      <c r="CR39" s="51"/>
-      <c r="CS39" s="50"/>
+      <c r="B39" s="42"/>
     </row>
     <row r="40" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="43"/>
-      <c r="C40" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="52">
-        <v>1</v>
-      </c>
-      <c r="J40" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="53">
-        <v>3</v>
-      </c>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="61"/>
-      <c r="BN40" s="49"/>
-      <c r="BO40" s="51"/>
-      <c r="BP40" s="50"/>
-      <c r="BQ40" s="49"/>
-      <c r="BR40" s="49"/>
-      <c r="BS40" s="49"/>
-      <c r="BT40" s="49"/>
-      <c r="BU40" s="49"/>
-      <c r="BV40" s="50"/>
-      <c r="BW40" s="51"/>
-      <c r="BX40" s="49"/>
-      <c r="BY40" s="49"/>
-      <c r="BZ40" s="49"/>
-      <c r="CA40" s="49"/>
-      <c r="CB40" s="49"/>
-      <c r="CC40" s="50"/>
-      <c r="CD40" s="51"/>
-      <c r="CE40" s="49"/>
-      <c r="CF40" s="49"/>
-      <c r="CG40" s="49"/>
-      <c r="CH40" s="49"/>
-      <c r="CI40" s="49"/>
-      <c r="CJ40" s="50"/>
-      <c r="CK40" s="50"/>
-      <c r="CL40" s="44"/>
-      <c r="CM40" s="49"/>
-      <c r="CN40" s="49"/>
-      <c r="CO40" s="45"/>
-      <c r="CP40" s="49"/>
-      <c r="CQ40" s="50"/>
-      <c r="CR40" s="51"/>
-      <c r="CS40" s="50"/>
+      <c r="B40" s="42"/>
     </row>
     <row r="41" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="43"/>
+      <c r="B41" s="42"/>
     </row>
     <row r="42" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="43"/>
+      <c r="B42" s="42"/>
     </row>
     <row r="43" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="43"/>
+      <c r="B43" s="42"/>
     </row>
     <row r="44" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="43"/>
+      <c r="B44" s="42"/>
     </row>
     <row r="45" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="43"/>
-    </row>
-    <row r="46" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="43"/>
-    </row>
-    <row r="47" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="43"/>
-    </row>
-    <row r="48" spans="2:156" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="43"/>
-    </row>
-    <row r="49" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="43"/>
-    </row>
-    <row r="50" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="43"/>
-    </row>
-    <row r="51" spans="2:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="43"/>
+      <c r="B45" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="C3:AD38">
+  <autoFilter ref="C3:AD34">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
@@ -7481,138 +6753,68 @@
     <filterColumn colId="25" showButton="0"/>
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
-  <mergeCells count="216">
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="J39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="J40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="J37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:W33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="J31:W31"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J36:W36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="J35:W35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="J34:W34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J32:W32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="J28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="J26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="J30:W30"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J22:W22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="J16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="J14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="J24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
+  <mergeCells count="186">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="J12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="J7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="ER2:EX2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="CZ2:DF2"/>
+    <mergeCell ref="DG2:DM2"/>
+    <mergeCell ref="DN2:DT2"/>
+    <mergeCell ref="DW2:EC2"/>
+    <mergeCell ref="ED2:EJ2"/>
+    <mergeCell ref="EK2:EQ2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BN1:CR1"/>
+    <mergeCell ref="CS1:DV1"/>
+    <mergeCell ref="BX2:CD2"/>
+    <mergeCell ref="CE2:CK2"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CS2:CY2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
     <mergeCell ref="DW1:EZ1"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
@@ -7637,67 +6839,107 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="J20:W20"/>
     <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="BN1:CR1"/>
-    <mergeCell ref="CS1:DV1"/>
-    <mergeCell ref="BX2:CD2"/>
-    <mergeCell ref="CE2:CK2"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CS2:CY2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="ER2:EX2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="CZ2:DF2"/>
-    <mergeCell ref="DG2:DM2"/>
-    <mergeCell ref="DN2:DT2"/>
-    <mergeCell ref="DW2:EC2"/>
-    <mergeCell ref="ED2:EJ2"/>
-    <mergeCell ref="EK2:EQ2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="J7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="J24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="J22:W22"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="J28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="AA31:AD31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J30:W30"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="J31:W31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="J34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AD34"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X2">
